--- a/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
+++ b/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$F$3:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -704,27 +704,12 @@
     <t>Proceso de gestion de proyecto</t>
   </si>
   <si>
-    <t>No se actualiza los documentos en el repositorio</t>
-  </si>
-  <si>
     <t>Proceso</t>
   </si>
   <si>
     <t>Documento está con defectos de fondo</t>
   </si>
   <si>
-    <t>La aplicación no cubre el requerimiento 1.1</t>
-  </si>
-  <si>
-    <t>Los datos no guardan integridad. (Data basura)</t>
-  </si>
-  <si>
-    <t>El código no guarda los estándares.  El doc. De análisis no guarda estándares definidos</t>
-  </si>
-  <si>
-    <t>La nomneclatura /  la carpeta donde se guarda el entregable no es correcta  /  no está correcta la información de historial de revisiones.</t>
-  </si>
-  <si>
     <t>Sergio Barrantes</t>
   </si>
   <si>
@@ -735,12 +720,18 @@
   </si>
   <si>
     <t>Fecha Efectiva: 12/02/2012</t>
+  </si>
+  <si>
+    <t>Lider de Proyecto:</t>
+  </si>
+  <si>
+    <t>Analista de Calidad:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2268,9 +2259,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2280,14 +2278,53 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2322,39 +2359,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2364,26 +2387,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2396,6 +2399,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2407,18 +2438,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2447,22 +2466,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2474,18 +2477,6 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2545,12 +2536,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-PE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2583,6 +2589,7 @@
           <c:y val="4.4982698961937746E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2590,9 +2597,22 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2623,6 +2643,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="993366"/>
@@ -2657,10 +2678,15 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2694,7 +2720,13 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -2716,6 +2748,7 @@
           <c:h val="9.6916299559471397E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -2741,12 +2774,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2773,7 +2807,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2786,7 +2820,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-PE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2819,6 +2863,7 @@
           <c:y val="5.4727021062665707E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2826,9 +2871,22 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2870,6 +2928,7 @@
           </c:spPr>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="808000"/>
@@ -2884,6 +2943,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFFFCC"/>
@@ -2898,6 +2958,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="CCFFFF"/>
@@ -2912,6 +2973,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="660066"/>
@@ -2935,7 +2997,11 @@
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2947,7 +3013,11 @@
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -2959,7 +3029,11 @@
               </c:layout>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
             <c:spPr>
@@ -2982,11 +3056,16 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3021,16 +3100,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,7 +3117,12 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
       </c:pie3DChart>
       <c:spPr>
@@ -3060,6 +3144,7 @@
           <c:h val="0.12820593077630951"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -3085,12 +3170,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3117,7 +3203,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3130,7 +3216,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-PE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3163,6 +3259,7 @@
           <c:y val="4.0498851195002496E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3170,6 +3267,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3185,6 +3283,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3229,8 +3328,11 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="0">
                 <a:gsLst>
@@ -3283,11 +3385,17 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3320,18 +3428,27 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60097664"/>
-        <c:axId val="60099200"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="73940992"/>
+        <c:axId val="73942528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60097664"/>
+        <c:axId val="73940992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3355,22 +3472,24 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60099200"/>
+        <c:crossAx val="73942528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60099200"/>
+        <c:axId val="73942528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3383,6 +3502,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3406,10 +3527,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60097664"/>
+        <c:crossAx val="73940992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3437,6 +3558,7 @@
           <c:h val="6.4000125000244143E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -3462,12 +3584,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3494,7 +3617,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3507,7 +3630,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-ES"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-PE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3540,6 +3673,7 @@
           <c:y val="4.4776609080581377E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -3547,12 +3681,16 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:view3D>
+      <c:rotX val="15"/>
       <c:hPercent val="48"/>
+      <c:rotY val="20"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -3566,6 +3704,7 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -3579,6 +3718,7 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
+      <c:thickness val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
@@ -3606,6 +3746,7 @@
       <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3631,6 +3772,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3652,10 +3794,16 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3695,6 +3843,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3716,10 +3865,16 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3759,6 +3914,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3780,10 +3936,16 @@
                     <a:cs typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3798,16 +3960,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="60257792"/>
-        <c:axId val="60259712"/>
+        <c:axId val="73995008"/>
+        <c:axId val="73996928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60257792"/>
+        <c:axId val="73995008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3840,6 +4012,7 @@
               <c:y val="0.86194519528342572"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3848,6 +4021,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3871,22 +4046,24 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60259712"/>
+        <c:crossAx val="73996928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60259712"/>
+        <c:axId val="73996928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3929,6 +4106,7 @@
               <c:y val="0.53358502761781645"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3937,6 +4115,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3960,10 +4140,10 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60257792"/>
+        <c:crossAx val="73995008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3986,6 +4166,7 @@
           <c:h val="0.15311004784689"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -4011,12 +4192,13 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4043,7 +4225,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4239,7 +4421,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Historial"/>
@@ -4382,6 +4564,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4416,6 +4599,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4591,7 +4775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -4625,15 +4809,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -4684,7 +4868,7 @@
         <v>40951</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>114</v>
@@ -4693,7 +4877,7 @@
         <v>70</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I5" s="67"/>
     </row>
@@ -4762,7 +4946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
@@ -4784,22 +4968,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
+      <c r="C2" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
+      <c r="C3" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -4811,12 +4995,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -4839,10 +5023,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="157"/>
+      <c r="E8" s="172"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
@@ -4928,62 +5112,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="164" t="s">
+      <c r="B19" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="166"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="204" t="s">
+      <c r="C20" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="205"/>
-      <c r="E20" s="206"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="163"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="161"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="163"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="161" t="s">
+      <c r="C23" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="163"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="161"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="163"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="161"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -4996,31 +5180,31 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="164" t="s">
+      <c r="B27" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="203" t="s">
+      <c r="B28" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="204" t="s">
+      <c r="C28" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="205"/>
-      <c r="E28" s="206"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="170"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="164"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
@@ -5029,11 +5213,11 @@
       <c r="B30" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
@@ -5042,11 +5226,11 @@
       <c r="B31" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5055,11 +5239,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5068,11 +5252,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5081,174 +5265,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="144" t="s">
+      <c r="C35" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="146"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="168" t="s">
+      <c r="B36" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="170"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="164"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="148"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="148"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="146"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="C41" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="144" t="s">
+      <c r="C42" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="145"/>
-      <c r="E43" s="146"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="145"/>
-      <c r="E44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="148"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="C46" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="148"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="144" t="s">
+      <c r="C47" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="144" t="s">
+      <c r="C48" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -5281,23 +5465,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="164" t="s">
+      <c r="B52" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="166"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="155"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
-      <c r="B53" s="203" t="s">
+      <c r="B53" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="204" t="s">
+      <c r="C53" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="205"/>
-      <c r="E53" s="206"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="158"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5312,132 +5496,132 @@
       <c r="B54" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="145"/>
-      <c r="E54" s="146"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="148"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="145"/>
-      <c r="E55" s="146"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="144" t="s">
+      <c r="C56" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="145"/>
-      <c r="E56" s="146"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="144" t="s">
+      <c r="C57" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="148"/>
-      <c r="E57" s="149"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="151"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="148"/>
-      <c r="E58" s="149"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="148"/>
-      <c r="E59" s="149"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="151"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="144" t="s">
+      <c r="C60" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="D60" s="148"/>
-      <c r="E60" s="149"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="151"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="147" t="s">
+      <c r="C61" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="148"/>
-      <c r="E61" s="149"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="151"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="144" t="s">
+      <c r="C62" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="148"/>
-      <c r="E62" s="149"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="151"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="147" t="s">
+      <c r="C63" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="149"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="151"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="147" t="s">
+      <c r="C64" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="148"/>
-      <c r="E64" s="149"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="151"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C65" s="144" t="s">
+      <c r="C65" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="148"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5448,200 +5632,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="171"/>
-      <c r="E67" s="171"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="145"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="145"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="167"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="167"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="167"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="167"/>
-      <c r="E72" s="167"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="167"/>
-      <c r="C73" s="167"/>
-      <c r="D73" s="167"/>
-      <c r="E73" s="167"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="145"/>
+      <c r="E74" s="145"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="167"/>
-      <c r="C75" s="167"/>
-      <c r="D75" s="167"/>
-      <c r="E75" s="167"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="145"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="167"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="145"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="167"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="167"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="167"/>
-      <c r="C79" s="167"/>
-      <c r="D79" s="167"/>
-      <c r="E79" s="167"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="167"/>
-      <c r="C80" s="167"/>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="167"/>
-      <c r="C81" s="167"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="145"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="167"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="145"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="167"/>
-      <c r="C83" s="167"/>
-      <c r="D83" s="167"/>
-      <c r="E83" s="167"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="145"/>
+      <c r="E83" s="145"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
-      <c r="E84" s="167"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="167"/>
-      <c r="C86" s="167"/>
-      <c r="D86" s="167"/>
-      <c r="E86" s="167"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="145"/>
+      <c r="E86" s="145"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -5654,57 +5838,6 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C30:E30"/>
@@ -5721,6 +5854,57 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5730,14 +5914,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5758,63 +5942,63 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="172" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
+      <c r="B6" s="181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="182"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="172" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="176"/>
+      <c r="B7" s="181" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="182"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="178"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="176"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="173"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="108"/>
       <c r="E9" s="109" t="s">
         <v>22</v>
@@ -5823,13 +6007,13 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="172" t="s">
+      <c r="B10" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6592,17 +6776,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -6629,15 +6813,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -6658,22 +6842,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="181"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -6815,7 +6999,7 @@
         <v>EV</v>
       </c>
       <c r="G6" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6" s="114" t="s">
         <v>155</v>
@@ -6835,249 +7019,98 @@
       </c>
       <c r="O6" s="134"/>
     </row>
-    <row r="7" spans="1:15" ht="24">
-      <c r="A7" s="110">
-        <v>3</v>
-      </c>
-      <c r="B7" s="111">
-        <v>3</v>
-      </c>
-      <c r="C7" s="112" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D7" s="113" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E7" s="112" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F7" s="112" t="str">
-        <f>VLOOKUP(B7,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="114" t="s">
-        <v>156</v>
-      </c>
+    <row r="7" spans="1:15" ht="12">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="114"/>
       <c r="J7" s="114"/>
       <c r="K7" s="116"/>
-      <c r="L7" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M7" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N7" s="118">
-        <f>IF(M7&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="118"/>
       <c r="O7" s="134"/>
     </row>
-    <row r="8" spans="1:15" ht="24">
-      <c r="A8" s="110">
-        <v>4</v>
-      </c>
-      <c r="B8" s="111">
-        <v>4</v>
-      </c>
-      <c r="C8" s="112" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D8" s="113" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E8" s="112" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>AM</v>
-      </c>
-      <c r="F8" s="112" t="str">
-        <f>VLOOKUP(B8,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G8" s="115" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="114" t="s">
-        <v>157</v>
-      </c>
+    <row r="8" spans="1:15" ht="12">
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="114"/>
       <c r="I8" s="114"/>
       <c r="J8" s="114"/>
       <c r="K8" s="116"/>
-      <c r="L8" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M8" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N8" s="118">
-        <f>IF(M8&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
       <c r="O8" s="134"/>
     </row>
-    <row r="9" spans="1:15" ht="24">
-      <c r="A9" s="110">
-        <v>5</v>
-      </c>
-      <c r="B9" s="111">
-        <v>5</v>
-      </c>
-      <c r="C9" s="112" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D9" s="113" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E9" s="112" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F9" s="112" t="str">
-        <f>VLOOKUP(B9,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G9" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>37</v>
-      </c>
+    <row r="9" spans="1:15" ht="12">
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="114"/>
       <c r="I9" s="114"/>
       <c r="J9" s="114"/>
       <c r="K9" s="116"/>
-      <c r="L9" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M9" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N9" s="118">
-        <f>IF(M9&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
       <c r="O9" s="134"/>
     </row>
-    <row r="10" spans="1:15" ht="36">
-      <c r="A10" s="110">
-        <v>6</v>
-      </c>
-      <c r="B10" s="111">
-        <v>6</v>
-      </c>
-      <c r="C10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D10" s="113" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>AM</v>
-      </c>
-      <c r="F10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G10" s="115" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>36</v>
-      </c>
+    <row r="10" spans="1:15" ht="12">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="114"/>
       <c r="I10" s="114"/>
       <c r="J10" s="114"/>
       <c r="K10" s="116"/>
-      <c r="L10" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M10" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N10" s="118">
-        <f t="shared" ref="N10:N15" si="0">IF(M10&gt;0,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
       <c r="O10" s="134"/>
     </row>
-    <row r="11" spans="1:15" ht="24">
-      <c r="A11" s="110">
-        <v>7</v>
-      </c>
-      <c r="B11" s="111">
-        <v>7</v>
-      </c>
-      <c r="C11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>Desarrollo de Sistemas</v>
-      </c>
-      <c r="D11" s="113" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Proceso de gestion de proyecto</v>
-      </c>
-      <c r="E11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>SM</v>
-      </c>
-      <c r="F11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="114" t="s">
-        <v>178</v>
-      </c>
+    <row r="11" spans="1:15" ht="12">
+      <c r="A11" s="110"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="114"/>
       <c r="I11" s="114"/>
       <c r="J11" s="114"/>
       <c r="K11" s="116"/>
-      <c r="L11" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M11" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N11" s="118">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
       <c r="O11" s="134"/>
     </row>
     <row r="12" spans="1:15" ht="12">
-      <c r="A12" s="110">
-        <v>8</v>
-      </c>
-      <c r="B12" s="111">
-        <v>8</v>
-      </c>
-      <c r="C12" s="112">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="113">
-        <f>VLOOKUP(B12,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="112">
-        <f>VLOOKUP(B12,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="112">
-        <f>VLOOKUP(B12,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="115"/>
       <c r="H12" s="114"/>
       <c r="I12" s="114"/>
@@ -7085,35 +7118,16 @@
       <c r="K12" s="116"/>
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
-      <c r="N12" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="118"/>
       <c r="O12" s="134"/>
     </row>
     <row r="13" spans="1:15" ht="12">
-      <c r="A13" s="110">
-        <v>9</v>
-      </c>
-      <c r="B13" s="111">
-        <v>9</v>
-      </c>
-      <c r="C13" s="112">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="113">
-        <f>VLOOKUP(B13,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="112">
-        <f>VLOOKUP(B13,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="112">
-        <f>VLOOKUP(B13,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="115"/>
       <c r="H13" s="114"/>
       <c r="I13" s="114"/>
@@ -7121,35 +7135,16 @@
       <c r="K13" s="116"/>
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
-      <c r="N13" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N13" s="118"/>
       <c r="O13" s="134"/>
     </row>
     <row r="14" spans="1:15" ht="12">
-      <c r="A14" s="110">
-        <v>10</v>
-      </c>
-      <c r="B14" s="111">
-        <v>10</v>
-      </c>
-      <c r="C14" s="112">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="113">
-        <f>VLOOKUP(B14,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="112">
-        <f>VLOOKUP(B14,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="112">
-        <f>VLOOKUP(B14,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="115"/>
       <c r="H14" s="114"/>
       <c r="I14" s="114"/>
@@ -7157,35 +7152,16 @@
       <c r="K14" s="116"/>
       <c r="L14" s="117"/>
       <c r="M14" s="117"/>
-      <c r="N14" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N14" s="118"/>
       <c r="O14" s="134"/>
     </row>
     <row r="15" spans="1:15" ht="12">
-      <c r="A15" s="110">
-        <v>11</v>
-      </c>
-      <c r="B15" s="111">
-        <v>11</v>
-      </c>
-      <c r="C15" s="112">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$93,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="113">
-        <f>VLOOKUP(B15,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="112">
-        <f>VLOOKUP(B15,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="112">
-        <f>VLOOKUP(B15,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="A15" s="110"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="115"/>
       <c r="H15" s="114"/>
       <c r="I15" s="114"/>
@@ -7193,10 +7169,7 @@
       <c r="K15" s="116"/>
       <c r="L15" s="117"/>
       <c r="M15" s="117"/>
-      <c r="N15" s="118">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N15" s="118"/>
       <c r="O15" s="134"/>
     </row>
   </sheetData>
@@ -7224,12 +7197,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7244,82 +7217,78 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="195" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="196" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="185" t="str">
-        <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="187"/>
+      <c r="C4" s="187" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="190"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="197" t="str">
-        <f>Planificación!B7</f>
-        <v>Gestor de Calidad</v>
-      </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="185" t="str">
+      <c r="C5" s="191" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="192"/>
+      <c r="E5" s="188" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v/>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="189"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="190"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="185" t="str">
+      <c r="D6" s="195"/>
+      <c r="E6" s="188" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v/>
       </c>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="187"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190" t="str">
+      <c r="D7" s="197"/>
+      <c r="E7" s="198" t="str">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v/>
       </c>
-      <c r="F7" s="191"/>
-      <c r="G7" s="192" t="s">
+      <c r="F7" s="199"/>
+      <c r="G7" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="193"/>
+      <c r="H7" s="201"/>
       <c r="I7" s="119" t="str">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v/>
@@ -7327,24 +7296,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="189" t="s">
+      <c r="C8" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="185" t="str">
+      <c r="D8" s="202"/>
+      <c r="E8" s="188" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v/>
       </c>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="187"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="188" t="s">
+      <c r="C13" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="188"/>
+      <c r="D13" s="196"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7428,10 +7397,10 @@
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="182"/>
+      <c r="D26" s="193"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -7456,7 +7425,7 @@
       </c>
       <c r="D29" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C29)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:5">
@@ -7465,7 +7434,7 @@
       </c>
       <c r="D30" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -7474,7 +7443,7 @@
       </c>
       <c r="D31" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C31)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -7483,7 +7452,7 @@
       </c>
       <c r="D32" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C32)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -7492,14 +7461,14 @@
       </c>
       <c r="D33" s="126">
         <f>SUM(D28:D32)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="182" t="s">
+      <c r="C39" s="193" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="182"/>
+      <c r="D39" s="193"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="125" t="s">
@@ -7529,10 +7498,10 @@
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="182" t="s">
+      <c r="C56" s="193" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="182"/>
+      <c r="D56" s="193"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -7580,11 +7549,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -7596,6 +7560,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7611,12 +7580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7664,12 +7633,12 @@
         <v>96</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="199" t="s">
+      <c r="J3" s="203" t="s">
         <v>119</v>
       </c>
       <c r="K3" s="142" t="s">
@@ -7677,7 +7646,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="200" t="s">
+      <c r="A4" s="204" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="139" t="s">
@@ -7692,13 +7661,13 @@
       <c r="H4" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="199"/>
+      <c r="J4" s="203"/>
       <c r="K4" s="142" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="201"/>
+      <c r="A5" s="205"/>
       <c r="B5" s="140" t="s">
         <v>159</v>
       </c>
@@ -7711,13 +7680,13 @@
       <c r="H5" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="J5" s="199"/>
+      <c r="J5" s="203"/>
       <c r="K5" s="142" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="201"/>
+      <c r="A6" s="205"/>
       <c r="B6" s="140" t="s">
         <v>160</v>
       </c>
@@ -7725,13 +7694,13 @@
         <v>157</v>
       </c>
       <c r="H6" s="129"/>
-      <c r="J6" s="199"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="142" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="201"/>
+      <c r="A7" s="205"/>
       <c r="B7" s="140" t="s">
         <v>161</v>
       </c>
@@ -7739,7 +7708,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="129"/>
-      <c r="J7" s="199" t="s">
+      <c r="J7" s="203" t="s">
         <v>128</v>
       </c>
       <c r="K7" s="142" t="s">
@@ -7747,7 +7716,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="201"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="140" t="s">
         <v>162</v>
       </c>
@@ -7755,56 +7724,56 @@
         <v>36</v>
       </c>
       <c r="H8" s="129"/>
-      <c r="J8" s="199"/>
+      <c r="J8" s="203"/>
       <c r="K8" s="142" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="201"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="J9" s="199"/>
+      <c r="J9" s="203"/>
       <c r="K9" s="142" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="201"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="140"/>
       <c r="F10" s="135"/>
-      <c r="J10" s="199"/>
+      <c r="J10" s="203"/>
       <c r="K10" s="142" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="201"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="140"/>
       <c r="F11" s="135"/>
-      <c r="J11" s="199"/>
+      <c r="J11" s="203"/>
       <c r="K11" s="142" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="202"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="141"/>
       <c r="F12" s="135"/>
-      <c r="J12" s="199"/>
+      <c r="J12" s="203"/>
       <c r="K12" s="142" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="J13" s="199"/>
+      <c r="J13" s="203"/>
       <c r="K13" s="142" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="J14" s="199" t="s">
+      <c r="J14" s="203" t="s">
         <v>121</v>
       </c>
       <c r="K14" s="142" t="s">
@@ -7812,61 +7781,61 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="J15" s="199"/>
+      <c r="J15" s="203"/>
       <c r="K15" s="142" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="J16" s="199"/>
+      <c r="J16" s="203"/>
       <c r="K16" s="142" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="10:11">
-      <c r="J17" s="199"/>
+      <c r="J17" s="203"/>
       <c r="K17" s="142" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="10:11">
-      <c r="J18" s="199"/>
+      <c r="J18" s="203"/>
       <c r="K18" s="142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="10:11">
-      <c r="J19" s="199"/>
+      <c r="J19" s="203"/>
       <c r="K19" s="142" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="10:11">
-      <c r="J20" s="199"/>
+      <c r="J20" s="203"/>
       <c r="K20" s="142" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="10:11">
-      <c r="J21" s="199"/>
+      <c r="J21" s="203"/>
       <c r="K21" s="142" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="10:11">
-      <c r="J22" s="199"/>
+      <c r="J22" s="203"/>
       <c r="K22" s="142" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="10:11">
-      <c r="J23" s="199"/>
+      <c r="J23" s="203"/>
       <c r="K23" s="142" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="10:11">
-      <c r="J24" s="199" t="s">
+      <c r="J24" s="203" t="s">
         <v>122</v>
       </c>
       <c r="K24" s="142" t="s">
@@ -7874,43 +7843,43 @@
       </c>
     </row>
     <row r="25" spans="10:11">
-      <c r="J25" s="199"/>
+      <c r="J25" s="203"/>
       <c r="K25" s="142" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="10:11">
-      <c r="J26" s="199"/>
+      <c r="J26" s="203"/>
       <c r="K26" s="142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="10:11">
-      <c r="J27" s="199"/>
+      <c r="J27" s="203"/>
       <c r="K27" s="142" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="10:11">
-      <c r="J28" s="199"/>
+      <c r="J28" s="203"/>
       <c r="K28" s="142" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="10:11">
-      <c r="J29" s="199"/>
+      <c r="J29" s="203"/>
       <c r="K29" s="142" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="10:11">
-      <c r="J30" s="199"/>
+      <c r="J30" s="203"/>
       <c r="K30" s="142" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="10:11">
-      <c r="J31" s="199" t="s">
+      <c r="J31" s="203" t="s">
         <v>123</v>
       </c>
       <c r="K31" s="142" t="s">
@@ -7918,31 +7887,31 @@
       </c>
     </row>
     <row r="32" spans="10:11">
-      <c r="J32" s="199"/>
+      <c r="J32" s="203"/>
       <c r="K32" s="142" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="199"/>
+      <c r="J33" s="203"/>
       <c r="K33" s="142" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="199"/>
+      <c r="J34" s="203"/>
       <c r="K34" s="142" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="199"/>
+      <c r="J35" s="203"/>
       <c r="K35" s="142" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="199" t="s">
+      <c r="J36" s="203" t="s">
         <v>124</v>
       </c>
       <c r="K36" s="142" t="s">
@@ -7950,37 +7919,37 @@
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="199"/>
+      <c r="J37" s="203"/>
       <c r="K37" s="142" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="199"/>
+      <c r="J38" s="203"/>
       <c r="K38" s="142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="199"/>
+      <c r="J39" s="203"/>
       <c r="K39" s="142" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="199"/>
+      <c r="J40" s="203"/>
       <c r="K40" s="142" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="199"/>
+      <c r="J41" s="203"/>
       <c r="K41" s="142" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="199"/>
+      <c r="J42" s="203"/>
       <c r="K42" s="142" t="s">
         <v>133</v>
       </c>

--- a/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
+++ b/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\GitHub\sistema-facturacion-inventario\CMMI-Nivel-2\PPQA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -52,7 +57,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$F$3:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -62,7 +67,7 @@
     <author>kmelendez</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
     <author>GMD</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1">
+    <comment ref="M4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="188">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -454,9 +459,6 @@
   </si>
   <si>
     <t>Sssss</t>
-  </si>
-  <si>
-    <t>Versión: 1.0</t>
   </si>
   <si>
     <t>Aseguramiento de Calidad</t>
@@ -647,36 +649,12 @@
     <t>Base de Datos</t>
   </si>
   <si>
-    <t>Analisis</t>
-  </si>
-  <si>
-    <t>Diseño</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 1</t>
-  </si>
-  <si>
-    <t>Desarrollo Iteración 2</t>
-  </si>
-  <si>
-    <t>Pruebas</t>
-  </si>
-  <si>
-    <t>Implementación</t>
-  </si>
-  <si>
     <t>Desarrollo de Sistemas</t>
   </si>
   <si>
-    <t>Diagrama de casos de uso</t>
-  </si>
-  <si>
     <t>AM</t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
     <t>Diagrama no cumple los estándares</t>
   </si>
   <si>
@@ -689,9 +667,6 @@
     <t>Responsable (s) de levantar no conformidad</t>
   </si>
   <si>
-    <t>Diagrama de Clases</t>
-  </si>
-  <si>
     <t>No habia disponibilidad de repositorio bitbucket</t>
   </si>
   <si>
@@ -719,13 +694,54 @@
     <t>FPPQA.R06 Herramienta de Gestión QA-Producto</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 12/02/2012</t>
-  </si>
-  <si>
     <t>Lider de Proyecto:</t>
   </si>
   <si>
     <t>Analista de Calidad:</t>
+  </si>
+  <si>
+    <t>Christian Benites</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 23/06/2015</t>
+  </si>
+  <si>
+    <t>Versión: 0.1</t>
+  </si>
+  <si>
+    <t>Kevin Laureano</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>PP-PMC</t>
+  </si>
+  <si>
+    <t>REQM</t>
+  </si>
+  <si>
+    <t>PPQA</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Plan de Proyecto
+</t>
+  </si>
+  <si>
+    <t>Registro de Riesgo</t>
+  </si>
+  <si>
+    <t>Informe de avance Quincenal</t>
+  </si>
+  <si>
+    <t>Acta de Kick-off Meeting Interno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acta de Kick-off Meeting Externo</t>
   </si>
 </sst>
 </file>
@@ -737,7 +753,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="62">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1090,6 +1106,18 @@
       <sz val="9"/>
       <name val="Geneva"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -1239,7 +1267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1755,6 +1783,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1811,7 +1854,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2247,9 +2290,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="32"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2265,99 +2305,107 @@
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2379,14 +2427,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2399,6 +2439,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2407,18 +2498,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2427,45 +2506,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2477,6 +2517,15 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2503,6 +2552,7 @@
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="23" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="24" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="25" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="26" builtinId="33" customBuiltin="1"/>
@@ -2529,7 +2579,6 @@
     <cellStyle name="Texto de advertencia" xfId="46" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="48" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="50" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="51" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="52" builtinId="25" customBuiltin="1"/>
@@ -2540,6 +2589,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2547,7 +2599,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-PE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2688,6 +2740,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2710,7 +2767,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -2821,7 +2878,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-PE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3002,6 +3059,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -3018,6 +3080,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -3034,6 +3101,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
             <c:spPr>
@@ -3066,6 +3138,11 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3217,7 +3294,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-PE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3396,6 +3473,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3436,17 +3519,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="73940992"/>
-        <c:axId val="73942528"/>
+        <c:axId val="186308000"/>
+        <c:axId val="186307216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73940992"/>
+        <c:axId val="186308000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3475,7 +3558,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73942528"/>
+        <c:crossAx val="186307216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3485,7 +3568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73942528"/>
+        <c:axId val="186307216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3613,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73940992"/>
+        <c:crossAx val="186308000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3631,7 +3714,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-PE"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3804,6 +3887,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3875,6 +3964,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3946,6 +4041,12 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
@@ -3970,12 +4071,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="73995008"/>
-        <c:axId val="73996928"/>
+        <c:axId val="186312312"/>
+        <c:axId val="186309176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73995008"/>
+        <c:axId val="186312312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,7 +4150,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73996928"/>
+        <c:crossAx val="186309176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4059,7 +4160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73996928"/>
+        <c:axId val="186309176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +4244,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73995008"/>
+        <c:crossAx val="186312312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4238,6 +4339,104 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="152400"/>
+          <a:ext cx="828675" cy="621043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>430695</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>189833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="240196" y="1"/>
+          <a:ext cx="1192695" cy="893854"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4287,7 +4486,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4532,7 +4731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4567,7 +4766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4809,15 +5008,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -4868,16 +5067,16 @@
         <v>40951</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I5" s="67"/>
     </row>
@@ -4950,8 +5149,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:E53"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4968,22 +5167,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="165" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="C2" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="173" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+        <v>176</v>
+      </c>
+      <c r="C3" s="164" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -4995,12 +5194,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -5023,10 +5222,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="172"/>
+      <c r="E8" s="163"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
@@ -5078,7 +5277,7 @@
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="96"/>
     </row>
@@ -5112,62 +5311,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="172"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="160"/>
-      <c r="E21" s="161"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="159" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="160"/>
-      <c r="E23" s="161"/>
+      <c r="C23" s="167" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5180,57 +5379,57 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="172"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="149"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="164"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="155"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="146" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="146" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="146"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5239,11 +5438,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="146"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5252,11 +5451,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="146"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5265,174 +5464,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="146"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="146"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="162" t="s">
+      <c r="B36" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="164"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="155"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="146"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="148"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="146"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="144" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="148"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="146"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="148"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="146"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="146" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
+      <c r="C41" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="145"/>
+      <c r="E41" s="146"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
+      <c r="C42" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="145"/>
+      <c r="E42" s="146"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="146" t="s">
+      <c r="C43" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="146"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="146" t="s">
+      <c r="C44" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="148"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="146"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="146" t="s">
+      <c r="C45" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="148"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="146"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="146" t="s">
+      <c r="C46" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="148"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="146"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="148"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="146"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="148"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="146"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="146"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -5465,23 +5664,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="155"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="172"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
-      <c r="B53" s="143" t="s">
+      <c r="B53" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="158"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="149"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5494,134 +5693,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="148"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="146"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="146"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="148"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="146"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="C57" s="146" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="150"/>
-      <c r="E57" s="151"/>
+        <v>112</v>
+      </c>
+      <c r="C57" s="144" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="151"/>
+      <c r="E57" s="152"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="150"/>
-      <c r="E58" s="151"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="152"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="146" t="s">
+      <c r="C59" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="150"/>
-      <c r="E59" s="151"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="152"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="150"/>
-      <c r="E60" s="151"/>
+      <c r="C60" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="151"/>
+      <c r="E60" s="152"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="152" t="s">
+      <c r="C61" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="150"/>
-      <c r="E61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="152"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="C62" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="150"/>
-      <c r="E62" s="151"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="152"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="152" t="s">
+      <c r="C63" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="151"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="152"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="152" t="s">
+      <c r="C64" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="150"/>
-      <c r="E64" s="151"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="152"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="148"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="146"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5632,200 +5831,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="174"/>
+      <c r="E67" s="174"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="145"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="173"/>
+      <c r="D68" s="173"/>
+      <c r="E68" s="173"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="145"/>
-      <c r="D69" s="145"/>
-      <c r="E69" s="145"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="173"/>
+      <c r="D69" s="173"/>
+      <c r="E69" s="173"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145"/>
+      <c r="B70" s="173"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="145"/>
-      <c r="D71" s="145"/>
-      <c r="E71" s="145"/>
+      <c r="B71" s="173"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="173"/>
+      <c r="E71" s="173"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="145"/>
-      <c r="E72" s="145"/>
+      <c r="B72" s="173"/>
+      <c r="C72" s="173"/>
+      <c r="D72" s="173"/>
+      <c r="E72" s="173"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="145"/>
-      <c r="E73" s="145"/>
+      <c r="B73" s="173"/>
+      <c r="C73" s="173"/>
+      <c r="D73" s="173"/>
+      <c r="E73" s="173"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="145"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="145"/>
-      <c r="E74" s="145"/>
+      <c r="B74" s="173"/>
+      <c r="C74" s="173"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="173"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="145"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="145"/>
-      <c r="E75" s="145"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="173"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="145"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="145"/>
-      <c r="E76" s="145"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="173"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
-      <c r="E77" s="145"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="173"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="145"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="145"/>
-      <c r="E78" s="145"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="173"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="145"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="173"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="145"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="145"/>
-      <c r="E80" s="145"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="173"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="145"/>
-      <c r="C81" s="145"/>
-      <c r="D81" s="145"/>
-      <c r="E81" s="145"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="173"/>
+      <c r="E81" s="173"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="145"/>
-      <c r="C82" s="145"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="145"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="173"/>
+      <c r="E82" s="173"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="145"/>
-      <c r="D83" s="145"/>
-      <c r="E83" s="145"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="173"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="145"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="145"/>
-      <c r="E86" s="145"/>
+      <c r="B86" s="173"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="173"/>
+      <c r="E86" s="173"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -5838,6 +6037,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C30:E30"/>
@@ -5854,62 +6104,12 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5920,8 +6120,8 @@
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -5942,78 +6142,90 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="181" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
+      <c r="B6" s="175" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="181" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="178"/>
+      <c r="B7" s="175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="177" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="108"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="108">
+        <v>42171</v>
+      </c>
       <c r="E9" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="128"/>
+      <c r="F9" s="128">
+        <v>42179</v>
+      </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="178"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6023,21 +6235,21 @@
       <c r="E11" s="22"/>
       <c r="Y11" s="23"/>
     </row>
-    <row r="12" spans="2:25" ht="38.25">
+    <row r="12" spans="2:25" ht="39" thickBot="1">
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -6061,27 +6273,25 @@
         <v>15</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="24.75" thickBot="1">
       <c r="B13" s="37">
         <v>1</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="208" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103" t="s">
         <v>170</v>
-      </c>
-      <c r="G13" s="103" t="s">
-        <v>167</v>
       </c>
       <c r="H13" s="104">
         <v>40787</v>
@@ -6102,27 +6312,27 @@
         <v>3</v>
       </c>
       <c r="N13" s="105" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" ht="24">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="36">
       <c r="B14" s="37">
         <v>2</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G14" s="103" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H14" s="104">
         <v>40789</v>
@@ -6149,19 +6359,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F15" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="103" t="s">
         <v>170</v>
-      </c>
-      <c r="G15" s="103" t="s">
-        <v>167</v>
       </c>
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
@@ -6176,19 +6386,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D16" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="103" t="s">
-        <v>166</v>
-      </c>
       <c r="G16" s="103" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H16" s="104"/>
       <c r="I16" s="104"/>
@@ -6203,19 +6413,19 @@
         <v>5</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="F17" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="103" t="s">
         <v>170</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>167</v>
       </c>
       <c r="H17" s="104"/>
       <c r="I17" s="104"/>
@@ -6230,19 +6440,19 @@
         <v>6</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D18" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="103" t="s">
-        <v>166</v>
-      </c>
       <c r="G18" s="103" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H18" s="104"/>
       <c r="I18" s="104"/>
@@ -6257,19 +6467,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="102" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F19" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="103" t="s">
         <v>170</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>167</v>
       </c>
       <c r="H19" s="104">
         <v>40796</v>
@@ -6291,15 +6501,21 @@
       </c>
       <c r="N19" s="105"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" ht="24">
       <c r="B20" s="37">
         <v>8</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="C20" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="102" t="s">
+        <v>179</v>
+      </c>
       <c r="E20" s="103"/>
       <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
+      <c r="G20" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H20" s="104"/>
       <c r="I20" s="104"/>
       <c r="J20" s="130"/>
@@ -6308,15 +6524,21 @@
       <c r="M20" s="105"/>
       <c r="N20" s="105"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" ht="24">
       <c r="B21" s="37">
         <v>9</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="C21" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>179</v>
+      </c>
       <c r="E21" s="103"/>
       <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
+      <c r="G21" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H21" s="104"/>
       <c r="I21" s="104"/>
       <c r="J21" s="130"/>
@@ -6325,15 +6547,21 @@
       <c r="M21" s="105"/>
       <c r="N21" s="105"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" ht="24">
       <c r="B22" s="37">
         <v>10</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
+      <c r="C22" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="102" t="s">
+        <v>180</v>
+      </c>
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
+      <c r="G22" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H22" s="104"/>
       <c r="I22" s="104"/>
       <c r="J22" s="130"/>
@@ -6342,15 +6570,21 @@
       <c r="M22" s="105"/>
       <c r="N22" s="105"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" ht="24">
       <c r="B23" s="37">
         <v>11</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>180</v>
+      </c>
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
+      <c r="G23" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H23" s="104"/>
       <c r="I23" s="104"/>
       <c r="J23" s="130"/>
@@ -6359,15 +6593,21 @@
       <c r="M23" s="105"/>
       <c r="N23" s="105"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" ht="24">
       <c r="B24" s="37">
         <v>12</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="C24" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>180</v>
+      </c>
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
+      <c r="G24" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H24" s="104"/>
       <c r="I24" s="104"/>
       <c r="J24" s="130"/>
@@ -6376,15 +6616,21 @@
       <c r="M24" s="105"/>
       <c r="N24" s="105"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" ht="24">
       <c r="B25" s="37">
         <v>13</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="C25" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>180</v>
+      </c>
       <c r="E25" s="103"/>
       <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
+      <c r="G25" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H25" s="104"/>
       <c r="I25" s="104"/>
       <c r="J25" s="130"/>
@@ -6393,15 +6639,21 @@
       <c r="M25" s="105"/>
       <c r="N25" s="105"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" ht="24">
       <c r="B26" s="37">
         <v>14</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="C26" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>181</v>
+      </c>
       <c r="E26" s="103"/>
       <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
+      <c r="G26" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H26" s="104"/>
       <c r="I26" s="104"/>
       <c r="J26" s="130"/>
@@ -6410,15 +6662,21 @@
       <c r="M26" s="105"/>
       <c r="N26" s="105"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" ht="24">
       <c r="B27" s="37">
         <v>15</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>181</v>
+      </c>
       <c r="E27" s="103"/>
       <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
+      <c r="G27" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H27" s="104"/>
       <c r="I27" s="104"/>
       <c r="J27" s="130"/>
@@ -6427,15 +6685,21 @@
       <c r="M27" s="105"/>
       <c r="N27" s="105"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" ht="24">
       <c r="B28" s="37">
         <v>16</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="102" t="s">
+        <v>181</v>
+      </c>
       <c r="E28" s="103"/>
       <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
+      <c r="G28" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H28" s="104"/>
       <c r="I28" s="104"/>
       <c r="J28" s="130"/>
@@ -6444,15 +6708,21 @@
       <c r="M28" s="105"/>
       <c r="N28" s="105"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" ht="24">
       <c r="B29" s="37">
         <v>17</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="102" t="s">
+        <v>181</v>
+      </c>
       <c r="E29" s="103"/>
       <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="G29" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H29" s="104"/>
       <c r="I29" s="104"/>
       <c r="J29" s="130"/>
@@ -6461,15 +6731,21 @@
       <c r="M29" s="105"/>
       <c r="N29" s="105"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" ht="24">
       <c r="B30" s="37">
         <v>18</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
+      <c r="C30" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="102" t="s">
+        <v>181</v>
+      </c>
       <c r="E30" s="103"/>
       <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="G30" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H30" s="104"/>
       <c r="I30" s="104"/>
       <c r="J30" s="130"/>
@@ -6478,15 +6754,21 @@
       <c r="M30" s="105"/>
       <c r="N30" s="105"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" ht="24">
       <c r="B31" s="37">
         <v>19</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
+      <c r="C31" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="102" t="s">
+        <v>182</v>
+      </c>
       <c r="E31" s="103"/>
       <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
+      <c r="G31" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H31" s="104"/>
       <c r="I31" s="104"/>
       <c r="J31" s="130"/>
@@ -6495,15 +6777,21 @@
       <c r="M31" s="105"/>
       <c r="N31" s="105"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" ht="24">
       <c r="B32" s="37">
         <v>20</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
+      <c r="C32" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="102" t="s">
+        <v>182</v>
+      </c>
       <c r="E32" s="103"/>
       <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
+      <c r="G32" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H32" s="104"/>
       <c r="I32" s="104"/>
       <c r="J32" s="130"/>
@@ -6512,15 +6800,21 @@
       <c r="M32" s="105"/>
       <c r="N32" s="105"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" ht="24">
       <c r="B33" s="37">
         <v>21</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
+      <c r="C33" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>182</v>
+      </c>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
+      <c r="G33" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H33" s="104"/>
       <c r="I33" s="104"/>
       <c r="J33" s="130"/>
@@ -6529,16 +6823,22 @@
       <c r="M33" s="105"/>
       <c r="N33" s="105"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" ht="24">
       <c r="A34" s="10"/>
       <c r="B34" s="37">
         <v>33</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
+      <c r="C34" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="102" t="s">
+        <v>182</v>
+      </c>
       <c r="E34" s="103"/>
       <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
+      <c r="G34" s="103" t="s">
+        <v>170</v>
+      </c>
       <c r="H34" s="104"/>
       <c r="I34" s="104"/>
       <c r="J34" s="130"/>
@@ -6776,17 +7076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -6796,8 +7096,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C46">
       <formula1>TipoProy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:E46">
-      <formula1>IF(C19="Fast Track",e_fast,IF(C19="Configuraciones Tipo o Nuevas",e_tipo,IF(C19="Desarrollos Departamentales",e_depar,IF(C19="Desarrollos Adicionales ATIS",e_atis,IF(C19="Definición de Requerimientos",e_req,e_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E46">
+      <formula1>IF(C20="Fast Track",e_fast,IF(C20="Configuraciones Tipo o Nuevas",e_tipo,IF(C20="Desarrollos Departamentales",e_depar,IF(C20="Desarrollos Adicionales ATIS",e_atis,IF(C20="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D19">
       <formula1>f_depar</formula1>
@@ -6808,7 +7108,8 @@
   <headerFooter alignWithMargins="0">
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6817,11 +7118,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:O15"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -6842,22 +7143,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="185"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="184"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -6888,13 +7189,13 @@
         <v>91</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>23</v>
@@ -6909,7 +7210,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>34</v>
@@ -6924,7 +7225,7 @@
         <v>29</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24">
@@ -6940,27 +7241,27 @@
       </c>
       <c r="D5" s="113" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de casos de uso</v>
-      </c>
-      <c r="E5" s="112" t="str">
+        <v>Proceso de gestion de proyecto</v>
+      </c>
+      <c r="E5" s="112">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,5,FALSE)</f>
-        <v>SM</v>
+        <v>0</v>
       </c>
       <c r="F5" s="112" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
+        <v>Manuel Saenz</v>
       </c>
       <c r="G5" s="115" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H5" s="114" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" s="114" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K5" s="116"/>
       <c r="L5" s="117">
@@ -6988,7 +7289,9 @@
       </c>
       <c r="D6" s="113" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Diagrama de Clases</v>
+        <v xml:space="preserve">
+Plan de Proyecto
+</v>
       </c>
       <c r="E6" s="112" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$F$93,5,FALSE)</f>
@@ -6996,13 +7299,13 @@
       </c>
       <c r="F6" s="112" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>EV</v>
+        <v>Manuel Saenz</v>
       </c>
       <c r="G6" s="115" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="114"/>
       <c r="J6" s="114"/>
@@ -7201,8 +7504,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7217,28 +7520,30 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="187" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="C4" s="199" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="199"/>
+      <c r="E4" s="188" t="s">
+        <v>174</v>
+      </c>
       <c r="F4" s="189"/>
       <c r="G4" s="189"/>
       <c r="H4" s="189"/>
@@ -7246,13 +7551,13 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="191" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="192"/>
+      <c r="C5" s="200" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="201"/>
       <c r="E5" s="188" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
-        <v/>
+        <v>Kevin Laureano</v>
       </c>
       <c r="F5" s="189"/>
       <c r="G5" s="189"/>
@@ -7261,13 +7566,13 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="194" t="s">
+      <c r="C6" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="195"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="188" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
-        <v/>
+        <v>Manuel Saenz</v>
       </c>
       <c r="F6" s="189"/>
       <c r="G6" s="189"/>
@@ -7276,33 +7581,33 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="198" t="str">
+      <c r="D7" s="192"/>
+      <c r="E7" s="193">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200" t="s">
+        <v>42171</v>
+      </c>
+      <c r="F7" s="194"/>
+      <c r="G7" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="201"/>
-      <c r="I7" s="119" t="str">
+      <c r="H7" s="196"/>
+      <c r="I7" s="119">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
-        <v/>
+        <v>42179</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="202"/>
+      <c r="D8" s="197"/>
       <c r="E8" s="188" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
-        <v/>
+        <v>Junio</v>
       </c>
       <c r="F8" s="189"/>
       <c r="G8" s="189"/>
@@ -7310,10 +7615,10 @@
       <c r="I8" s="190"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="196"/>
+      <c r="D13" s="191"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7327,7 +7632,7 @@
       </c>
       <c r="D14" s="120">
         <f>COUNTA(Planificación!C13:C46)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
@@ -7336,7 +7641,7 @@
       </c>
       <c r="D15" s="120">
         <f>D14-D16</f>
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7354,7 +7659,7 @@
       </c>
       <c r="D17" s="121">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.42857142857142855</v>
+        <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -7363,7 +7668,7 @@
       </c>
       <c r="D18" s="121">
         <f>1-D17</f>
-        <v>0.5714285714285714</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -7397,10 +7702,10 @@
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="193"/>
+      <c r="D26" s="185"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -7412,7 +7717,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="124" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C28)</f>
@@ -7421,7 +7726,7 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C29)</f>
@@ -7430,7 +7735,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="123">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C30)</f>
@@ -7465,14 +7770,14 @@
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="193" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="193"/>
+      <c r="C39" s="185" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="185"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="123">
         <f>Planificación!J47</f>
@@ -7481,7 +7786,7 @@
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="123">
         <f>Planificación!M47</f>
@@ -7498,10 +7803,10 @@
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="193" t="s">
-        <v>154</v>
-      </c>
-      <c r="D56" s="193"/>
+      <c r="C56" s="185" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="185"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -7513,7 +7818,7 @@
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D58" s="123">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C58)</f>
@@ -7522,7 +7827,7 @@
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="123">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C59)</f>
@@ -7531,7 +7836,7 @@
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="123">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C60)</f>
@@ -7549,6 +7854,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -7560,11 +7870,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7573,7 +7878,7 @@
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D40:D42 D14:D18 D31:D32" unlockedFormula="1"/>
+    <ignoredError sqref="D40:D42 D15:D18 D31:D32" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7585,7 +7890,7 @@
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="J31" sqref="J31:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7605,353 +7910,349 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="127" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="127" t="s">
-        <v>127</v>
       </c>
       <c r="D2" s="127" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="127" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="127" t="s">
-        <v>126</v>
-      </c>
       <c r="K2" s="127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
       <c r="A3" s="138"/>
       <c r="B3" s="138"/>
       <c r="D3" s="129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H3" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="202" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="203" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="206" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="203" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="142" t="s">
+      <c r="J4" s="202"/>
+      <c r="K4" s="141" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="204" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="129" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="204"/>
+      <c r="B5" s="207" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F5" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="203"/>
-      <c r="K4" s="142" t="s">
+      <c r="H5" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="202"/>
+      <c r="K5" s="141" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="205"/>
-      <c r="B5" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="129" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="204"/>
+      <c r="B6" s="207" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5" s="203"/>
-      <c r="K5" s="142" t="s">
+      <c r="H6" s="129"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="141" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="205"/>
-      <c r="B6" s="140" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="142" t="s">
-        <v>133</v>
-      </c>
-    </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="205"/>
-      <c r="B7" s="140" t="s">
-        <v>161</v>
+      <c r="A7" s="204"/>
+      <c r="B7" s="207" t="s">
+        <v>182</v>
       </c>
       <c r="F7" s="129" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="129"/>
-      <c r="J7" s="203" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="142" t="s">
-        <v>134</v>
+      <c r="J7" s="202" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="141" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="205"/>
-      <c r="B8" s="140" t="s">
-        <v>162</v>
-      </c>
+      <c r="A8" s="204"/>
+      <c r="B8" s="139"/>
       <c r="F8" s="129" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="129"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="142" t="s">
+      <c r="J8" s="202"/>
+      <c r="K8" s="141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="204"/>
+      <c r="B9" s="139"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="141" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="205"/>
-      <c r="B9" s="140" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" s="203"/>
-      <c r="K9" s="142" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="204"/>
+      <c r="B10" s="139"/>
+      <c r="F10" s="135"/>
+      <c r="J10" s="202"/>
+      <c r="K10" s="141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="204"/>
+      <c r="B11" s="139"/>
+      <c r="F11" s="135"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="141" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="205"/>
+      <c r="B12" s="140"/>
+      <c r="F12" s="135"/>
+      <c r="J12" s="202"/>
+      <c r="K12" s="141" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="205"/>
-      <c r="B10" s="140"/>
-      <c r="F10" s="135"/>
-      <c r="J10" s="203"/>
-      <c r="K10" s="142" t="s">
+    <row r="13" spans="1:11">
+      <c r="J13" s="202"/>
+      <c r="K13" s="141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="202" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="141" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="202"/>
+      <c r="K15" s="141" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="202"/>
+      <c r="K16" s="141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="202"/>
+      <c r="K17" s="141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="202"/>
+      <c r="K18" s="141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="202"/>
+      <c r="K19" s="141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="202"/>
+      <c r="K20" s="141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="202"/>
+      <c r="K21" s="141" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="205"/>
-      <c r="B11" s="140"/>
-      <c r="F11" s="135"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="206"/>
-      <c r="B12" s="141"/>
-      <c r="F12" s="135"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="142" t="s">
+    <row r="22" spans="10:11">
+      <c r="J22" s="202"/>
+      <c r="K22" s="141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="202"/>
+      <c r="K23" s="141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="202" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="202"/>
+      <c r="K25" s="141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="202"/>
+      <c r="K26" s="141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="202"/>
+      <c r="K27" s="141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="202"/>
+      <c r="K28" s="141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="202"/>
+      <c r="K29" s="141" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="202"/>
+      <c r="K30" s="141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="202" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="202"/>
+      <c r="K32" s="141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="202"/>
+      <c r="K33" s="141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="202"/>
+      <c r="K34" s="141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="202"/>
+      <c r="K35" s="141" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="202" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="141" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="202"/>
+      <c r="K37" s="141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="202"/>
+      <c r="K38" s="141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="202"/>
+      <c r="K39" s="141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="202"/>
+      <c r="K40" s="141" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="202"/>
+      <c r="K41" s="141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" s="202"/>
+      <c r="K42" s="141" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="203"/>
-      <c r="K13" s="142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="J14" s="203" t="s">
-        <v>121</v>
-      </c>
-      <c r="K14" s="142" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="J15" s="203"/>
-      <c r="K15" s="142" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="203"/>
-      <c r="K16" s="142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="203"/>
-      <c r="K17" s="142" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="203"/>
-      <c r="K18" s="142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="203"/>
-      <c r="K19" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="203"/>
-      <c r="K20" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="203"/>
-      <c r="K21" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="203"/>
-      <c r="K22" s="142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="203"/>
-      <c r="K23" s="142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="203" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="203"/>
-      <c r="K25" s="142" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="203"/>
-      <c r="K26" s="142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="203"/>
-      <c r="K27" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="203"/>
-      <c r="K28" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="203"/>
-      <c r="K29" s="142" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="203"/>
-      <c r="K30" s="142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="203" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="203"/>
-      <c r="K32" s="142" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="203"/>
-      <c r="K33" s="142" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="203"/>
-      <c r="K34" s="142" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="203"/>
-      <c r="K35" s="142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="203" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="142" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="203"/>
-      <c r="K37" s="142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="203"/>
-      <c r="K38" s="142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="203"/>
-      <c r="K39" s="142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="203"/>
-      <c r="K40" s="142" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="203"/>
-      <c r="K41" s="142" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="203"/>
-      <c r="K42" s="142" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
+++ b/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\GitHub\sistema-facturacion-inventario\CMMI-Nivel-2\PPQA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="2" activeTab="2"/>
   </bookViews>
@@ -57,7 +52,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$F$3:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -67,7 +62,7 @@
     <author>kmelendez</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +95,7 @@
     <author>GMD</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -168,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="187">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -665,9 +660,6 @@
   </si>
   <si>
     <t>Responsable (s) de levantar no conformidad</t>
-  </si>
-  <si>
-    <t>No habia disponibilidad de repositorio bitbucket</t>
   </si>
   <si>
     <t>Entregable / Proceso revisado</t>
@@ -2302,9 +2294,22 @@
     <xf numFmtId="0" fontId="13" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2314,6 +2319,27 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2323,14 +2349,14 @@
     <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2374,30 +2400,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2407,26 +2428,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2439,6 +2440,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2450,18 +2479,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2490,22 +2507,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2517,15 +2518,6 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2552,7 +2544,6 @@
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="23" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="24" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="25" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="26" builtinId="33" customBuiltin="1"/>
@@ -2579,6 +2570,7 @@
     <cellStyle name="Texto de advertencia" xfId="46" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="48" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="50" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="51" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="52" builtinId="25" customBuiltin="1"/>
@@ -2599,7 +2591,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2767,10 +2759,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,7 +2870,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3294,7 +3286,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3501,10 +3493,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3519,11 +3511,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186308000"/>
-        <c:axId val="186307216"/>
+        <c:axId val="88851584"/>
+        <c:axId val="92361088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186308000"/>
+        <c:axId val="88851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +3550,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186307216"/>
+        <c:crossAx val="92361088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3568,7 +3560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186307216"/>
+        <c:axId val="92361088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3605,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186308000"/>
+        <c:crossAx val="88851584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3714,7 +3706,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4071,12 +4063,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="186312312"/>
-        <c:axId val="186309176"/>
+        <c:axId val="75331456"/>
+        <c:axId val="75345920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="186312312"/>
+        <c:axId val="75331456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4142,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186309176"/>
+        <c:crossAx val="75345920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4160,7 +4152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186309176"/>
+        <c:axId val="75345920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4236,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186312312"/>
+        <c:crossAx val="75331456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4731,7 +4723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4766,7 +4758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5008,15 +5000,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5067,7 +5059,7 @@
         <v>40951</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>113</v>
@@ -5076,7 +5068,7 @@
         <v>70</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" s="67"/>
     </row>
@@ -5167,22 +5159,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="156" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="C2" s="167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="164" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+      <c r="C3" s="175" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -5194,12 +5186,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="172"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -5222,10 +5214,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="174"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
@@ -5311,62 +5303,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="160"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="163"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="163"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="163"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="163"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5379,31 +5371,31 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="160"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="166"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
@@ -5412,11 +5404,11 @@
       <c r="B30" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
@@ -5425,11 +5417,11 @@
       <c r="B31" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="150"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5438,11 +5430,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5451,11 +5443,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="150"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5464,174 +5456,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="146"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="150"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="144" t="s">
+      <c r="C35" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="146"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="150"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="155"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="166"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="146"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="150"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="148" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="146"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="150"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="146"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="150"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="146"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="150"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="C41" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="146"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="150"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="144" t="s">
+      <c r="C42" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="150"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="145"/>
-      <c r="E43" s="146"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="150"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="145"/>
-      <c r="E44" s="146"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="150"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="146"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="150"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="C46" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="146"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="150"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="144" t="s">
+      <c r="C47" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="150"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="144" t="s">
+      <c r="C48" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="146"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="150"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="146"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="150"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -5664,23 +5656,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="170" t="s">
+      <c r="B52" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="172"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="157"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="148"/>
-      <c r="E53" s="149"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="160"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5695,132 +5687,132 @@
       <c r="B54" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="145"/>
-      <c r="E54" s="146"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="150"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="145"/>
-      <c r="E55" s="146"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="150"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="144" t="s">
+      <c r="C56" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="145"/>
-      <c r="E56" s="146"/>
+      <c r="D56" s="149"/>
+      <c r="E56" s="150"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="144" t="s">
+      <c r="C57" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="151"/>
-      <c r="E57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="153"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="153"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="151"/>
-      <c r="E59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="153"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="144" t="s">
+      <c r="C60" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="151"/>
-      <c r="E60" s="152"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="153"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="150" t="s">
+      <c r="C61" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="153"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="144" t="s">
+      <c r="C62" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="152"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="153"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="150" t="s">
+      <c r="C63" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="151"/>
-      <c r="E63" s="152"/>
+      <c r="D63" s="152"/>
+      <c r="E63" s="153"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="151"/>
-      <c r="E64" s="152"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="153"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="144" t="s">
+      <c r="C65" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="150"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5831,200 +5823,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
-      <c r="E67" s="174"/>
+      <c r="B67" s="151"/>
+      <c r="C67" s="151"/>
+      <c r="D67" s="151"/>
+      <c r="E67" s="151"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="173"/>
-      <c r="C68" s="173"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="173"/>
-      <c r="C69" s="173"/>
-      <c r="D69" s="173"/>
-      <c r="E69" s="173"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="147"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="173"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
+      <c r="B70" s="147"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="147"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="173"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="173"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="147"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="173"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="173"/>
-      <c r="C73" s="173"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="173"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="147"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="173"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="147"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="173"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="173"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="147"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="147"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="147"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="147"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="173"/>
+      <c r="B78" s="147"/>
+      <c r="C78" s="147"/>
+      <c r="D78" s="147"/>
+      <c r="E78" s="147"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="173"/>
+      <c r="B79" s="147"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="173"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="147"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="173"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="173"/>
-      <c r="E81" s="173"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="147"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="173"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="173"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="147"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="173"/>
-      <c r="C85" s="173"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="173"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="173"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="147"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="147"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6037,6 +6029,59 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B73:E73"/>
@@ -6051,59 +6096,6 @@
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6120,9 +6112,7 @@
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -6142,69 +6132,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="181"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="183" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="184"/>
+      <c r="D6" s="178" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="179"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="183" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="175" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="179"/>
+      <c r="F7" s="180"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="176"/>
+      <c r="C9" s="184"/>
       <c r="D9" s="108">
         <v>42171</v>
       </c>
@@ -6217,15 +6207,15 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6246,7 +6236,7 @@
         <v>102</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>160</v>
@@ -6284,36 +6274,24 @@
         <v>157</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="103"/>
+        <v>178</v>
+      </c>
+      <c r="E13" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>161</v>
+      </c>
       <c r="G13" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="104">
-        <v>40787</v>
-      </c>
-      <c r="I13" s="104">
-        <v>40787</v>
-      </c>
-      <c r="J13" s="130">
-        <v>1</v>
-      </c>
-      <c r="K13" s="104">
-        <v>40788</v>
-      </c>
-      <c r="L13" s="104">
-        <v>40788</v>
-      </c>
-      <c r="M13" s="105">
-        <v>3</v>
-      </c>
-      <c r="N13" s="105" t="s">
-        <v>163</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
     </row>
     <row r="14" spans="2:25" ht="36">
       <c r="B14" s="37">
@@ -6323,35 +6301,23 @@
         <v>157</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" s="103" t="s">
         <v>158</v>
       </c>
       <c r="G14" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="104">
-        <v>40789</v>
-      </c>
-      <c r="I14" s="104">
-        <v>40790</v>
-      </c>
-      <c r="J14" s="130">
-        <v>2</v>
-      </c>
-      <c r="K14" s="104">
-        <v>40788</v>
-      </c>
-      <c r="L14" s="104">
-        <v>40788</v>
-      </c>
-      <c r="M14" s="105">
-        <v>4</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
       <c r="N14" s="105"/>
     </row>
     <row r="15" spans="2:25" ht="24">
@@ -6362,7 +6328,7 @@
         <v>157</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="103" t="s">
         <v>148</v>
@@ -6371,7 +6337,7 @@
         <v>161</v>
       </c>
       <c r="G15" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
@@ -6389,16 +6355,16 @@
         <v>157</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="103" t="s">
         <v>158</v>
       </c>
       <c r="G16" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="104"/>
       <c r="I16" s="104"/>
@@ -6416,16 +6382,16 @@
         <v>157</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="103" t="s">
         <v>161</v>
       </c>
       <c r="G17" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="104"/>
       <c r="I17" s="104"/>
@@ -6443,16 +6409,16 @@
         <v>157</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="103" t="s">
         <v>158</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="104"/>
       <c r="I18" s="104"/>
@@ -6470,35 +6436,23 @@
         <v>157</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="103" t="s">
         <v>161</v>
       </c>
       <c r="G19" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="104">
-        <v>40796</v>
-      </c>
-      <c r="I19" s="104">
-        <v>40796</v>
-      </c>
-      <c r="J19" s="130">
-        <v>2</v>
-      </c>
-      <c r="K19" s="104">
-        <v>40788</v>
-      </c>
-      <c r="L19" s="104">
-        <v>40788</v>
-      </c>
-      <c r="M19" s="105">
-        <v>4</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="105"/>
     </row>
     <row r="20" spans="2:14" ht="24">
@@ -6509,12 +6463,12 @@
         <v>157</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="103"/>
       <c r="F20" s="103"/>
       <c r="G20" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20" s="104"/>
       <c r="I20" s="104"/>
@@ -6532,12 +6486,12 @@
         <v>157</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="103"/>
       <c r="F21" s="103"/>
       <c r="G21" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H21" s="104"/>
       <c r="I21" s="104"/>
@@ -6555,12 +6509,12 @@
         <v>157</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
       <c r="G22" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H22" s="104"/>
       <c r="I22" s="104"/>
@@ -6578,12 +6532,12 @@
         <v>157</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
       <c r="G23" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" s="104"/>
       <c r="I23" s="104"/>
@@ -6601,12 +6555,12 @@
         <v>157</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
       <c r="G24" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H24" s="104"/>
       <c r="I24" s="104"/>
@@ -6624,12 +6578,12 @@
         <v>157</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="103"/>
       <c r="F25" s="103"/>
       <c r="G25" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" s="104"/>
       <c r="I25" s="104"/>
@@ -6647,12 +6601,12 @@
         <v>157</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="103"/>
       <c r="F26" s="103"/>
       <c r="G26" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="104"/>
       <c r="I26" s="104"/>
@@ -6670,12 +6624,12 @@
         <v>157</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="103"/>
       <c r="F27" s="103"/>
       <c r="G27" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="104"/>
       <c r="I27" s="104"/>
@@ -6693,12 +6647,12 @@
         <v>157</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E28" s="103"/>
       <c r="F28" s="103"/>
       <c r="G28" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" s="104"/>
       <c r="I28" s="104"/>
@@ -6716,12 +6670,12 @@
         <v>157</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E29" s="103"/>
       <c r="F29" s="103"/>
       <c r="G29" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="104"/>
       <c r="I29" s="104"/>
@@ -6739,12 +6693,12 @@
         <v>157</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E30" s="103"/>
       <c r="F30" s="103"/>
       <c r="G30" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" s="104"/>
       <c r="I30" s="104"/>
@@ -6762,12 +6716,12 @@
         <v>157</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E31" s="103"/>
       <c r="F31" s="103"/>
       <c r="G31" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="104"/>
@@ -6785,12 +6739,12 @@
         <v>157</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="103"/>
       <c r="F32" s="103"/>
       <c r="G32" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="104"/>
       <c r="I32" s="104"/>
@@ -6808,12 +6762,12 @@
         <v>157</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E33" s="103"/>
       <c r="F33" s="103"/>
       <c r="G33" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="104"/>
       <c r="I33" s="104"/>
@@ -6832,12 +6786,12 @@
         <v>157</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E34" s="103"/>
       <c r="F34" s="103"/>
       <c r="G34" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="104"/>
       <c r="I34" s="104"/>
@@ -7059,14 +7013,14 @@
       <c r="B47" s="8"/>
       <c r="J47" s="106">
         <f>SUM(J13:J46)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L47" s="107" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="106">
         <f>SUM(M13:M46)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7076,17 +7030,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -7143,22 +7097,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7192,7 +7146,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>111</v>
@@ -7243,9 +7197,9 @@
         <f>VLOOKUP(B5,Planificación!$B$13:$E$93,4,FALSE)</f>
         <v>Proceso de gestion de proyecto</v>
       </c>
-      <c r="E5" s="112">
+      <c r="E5" s="112" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,5,FALSE)</f>
-        <v>0</v>
+        <v>SM</v>
       </c>
       <c r="F5" s="112" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7276,7 +7230,7 @@
       </c>
       <c r="O5" s="134"/>
     </row>
-    <row r="6" spans="1:15" ht="12">
+    <row r="6" spans="1:15" ht="36">
       <c r="A6" s="110">
         <v>2</v>
       </c>
@@ -7302,7 +7256,7 @@
         <v>Manuel Saenz</v>
       </c>
       <c r="G6" s="115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="114" t="s">
         <v>154</v>
@@ -7520,80 +7474,80 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="199" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="188" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="190"/>
+      <c r="C4" s="189" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="200" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="188" t="str">
+      <c r="C5" s="193" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="194"/>
+      <c r="E5" s="190" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Kevin Laureano</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="190"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188" t="str">
+      <c r="D6" s="197"/>
+      <c r="E6" s="190" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Manuel Saenz</v>
       </c>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193">
+      <c r="D7" s="199"/>
+      <c r="E7" s="200">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42171</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195" t="s">
+      <c r="F7" s="201"/>
+      <c r="G7" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="196"/>
+      <c r="H7" s="203"/>
       <c r="I7" s="119">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42179</v>
@@ -7601,24 +7555,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="188" t="str">
+      <c r="D8" s="204"/>
+      <c r="E8" s="190" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>Junio</v>
       </c>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="191"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7641,7 +7595,7 @@
       </c>
       <c r="D15" s="120">
         <f>D14-D16</f>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7650,7 +7604,7 @@
       </c>
       <c r="D16" s="120">
         <f>COUNT(Planificación!L13:L46)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -7659,7 +7613,7 @@
       </c>
       <c r="D17" s="121">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.13636363636363635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -7668,7 +7622,7 @@
       </c>
       <c r="D18" s="121">
         <f>1-D17</f>
-        <v>0.86363636363636365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -7702,10 +7656,10 @@
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="185"/>
+      <c r="D26" s="195"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -7770,10 +7724,10 @@
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="185" t="s">
+      <c r="C39" s="195" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="185"/>
+      <c r="D39" s="195"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="125" t="s">
@@ -7781,7 +7735,7 @@
       </c>
       <c r="D40" s="123">
         <f>Planificación!J47</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="3:4">
@@ -7790,7 +7744,7 @@
       </c>
       <c r="D41" s="123">
         <f>Planificación!M47</f>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="3:4">
@@ -7799,14 +7753,14 @@
       </c>
       <c r="D42" s="123">
         <f>D40-D41</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="185" t="s">
+      <c r="C56" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="185"/>
+      <c r="D56" s="195"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -7854,11 +7808,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -7870,6 +7819,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7938,12 +7892,12 @@
         <v>95</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="202" t="s">
+      <c r="J3" s="205" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="141" t="s">
@@ -7951,11 +7905,11 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="206" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="206" t="s">
-        <v>179</v>
+      <c r="B4" s="143" t="s">
+        <v>178</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>97</v>
@@ -7966,15 +7920,15 @@
       <c r="H4" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="202"/>
+      <c r="J4" s="205"/>
       <c r="K4" s="141" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207" t="s">
-        <v>180</v>
+      <c r="A5" s="207"/>
+      <c r="B5" s="144" t="s">
+        <v>179</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>98</v>
@@ -7985,35 +7939,35 @@
       <c r="H5" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="202"/>
+      <c r="J5" s="205"/>
       <c r="K5" s="141" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="204"/>
-      <c r="B6" s="207" t="s">
-        <v>181</v>
+      <c r="A6" s="207"/>
+      <c r="B6" s="144" t="s">
+        <v>180</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>156</v>
       </c>
       <c r="H6" s="129"/>
-      <c r="J6" s="202"/>
+      <c r="J6" s="205"/>
       <c r="K6" s="141" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="204"/>
-      <c r="B7" s="207" t="s">
-        <v>182</v>
+      <c r="A7" s="207"/>
+      <c r="B7" s="144" t="s">
+        <v>181</v>
       </c>
       <c r="F7" s="129" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="129"/>
-      <c r="J7" s="202" t="s">
+      <c r="J7" s="205" t="s">
         <v>127</v>
       </c>
       <c r="K7" s="141" t="s">
@@ -8021,60 +7975,60 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="204"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="139"/>
       <c r="F8" s="129" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="129"/>
-      <c r="J8" s="202"/>
+      <c r="J8" s="205"/>
       <c r="K8" s="141" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="204"/>
+      <c r="A9" s="207"/>
       <c r="B9" s="139"/>
-      <c r="J9" s="202"/>
+      <c r="J9" s="205"/>
       <c r="K9" s="141" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="204"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="139"/>
       <c r="F10" s="135"/>
-      <c r="J10" s="202"/>
+      <c r="J10" s="205"/>
       <c r="K10" s="141" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="204"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="139"/>
       <c r="F11" s="135"/>
-      <c r="J11" s="202"/>
+      <c r="J11" s="205"/>
       <c r="K11" s="141" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="205"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="140"/>
       <c r="F12" s="135"/>
-      <c r="J12" s="202"/>
+      <c r="J12" s="205"/>
       <c r="K12" s="141" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="J13" s="202"/>
+      <c r="J13" s="205"/>
       <c r="K13" s="141" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="J14" s="202" t="s">
+      <c r="J14" s="205" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="141" t="s">
@@ -8082,61 +8036,61 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="J15" s="202"/>
+      <c r="J15" s="205"/>
       <c r="K15" s="141" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="J16" s="202"/>
+      <c r="J16" s="205"/>
       <c r="K16" s="141" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="10:11">
-      <c r="J17" s="202"/>
+      <c r="J17" s="205"/>
       <c r="K17" s="141" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="10:11">
-      <c r="J18" s="202"/>
+      <c r="J18" s="205"/>
       <c r="K18" s="141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="10:11">
-      <c r="J19" s="202"/>
+      <c r="J19" s="205"/>
       <c r="K19" s="141" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="10:11">
-      <c r="J20" s="202"/>
+      <c r="J20" s="205"/>
       <c r="K20" s="141" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="10:11">
-      <c r="J21" s="202"/>
+      <c r="J21" s="205"/>
       <c r="K21" s="141" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="10:11">
-      <c r="J22" s="202"/>
+      <c r="J22" s="205"/>
       <c r="K22" s="141" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="10:11">
-      <c r="J23" s="202"/>
+      <c r="J23" s="205"/>
       <c r="K23" s="141" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="24" spans="10:11">
-      <c r="J24" s="202" t="s">
+      <c r="J24" s="205" t="s">
         <v>121</v>
       </c>
       <c r="K24" s="141" t="s">
@@ -8144,43 +8098,43 @@
       </c>
     </row>
     <row r="25" spans="10:11">
-      <c r="J25" s="202"/>
+      <c r="J25" s="205"/>
       <c r="K25" s="141" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="26" spans="10:11">
-      <c r="J26" s="202"/>
+      <c r="J26" s="205"/>
       <c r="K26" s="141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="10:11">
-      <c r="J27" s="202"/>
+      <c r="J27" s="205"/>
       <c r="K27" s="141" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="10:11">
-      <c r="J28" s="202"/>
+      <c r="J28" s="205"/>
       <c r="K28" s="141" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="10:11">
-      <c r="J29" s="202"/>
+      <c r="J29" s="205"/>
       <c r="K29" s="141" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="30" spans="10:11">
-      <c r="J30" s="202"/>
+      <c r="J30" s="205"/>
       <c r="K30" s="141" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="10:11">
-      <c r="J31" s="202" t="s">
+      <c r="J31" s="205" t="s">
         <v>122</v>
       </c>
       <c r="K31" s="141" t="s">
@@ -8188,31 +8142,31 @@
       </c>
     </row>
     <row r="32" spans="10:11">
-      <c r="J32" s="202"/>
+      <c r="J32" s="205"/>
       <c r="K32" s="141" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="202"/>
+      <c r="J33" s="205"/>
       <c r="K33" s="141" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="202"/>
+      <c r="J34" s="205"/>
       <c r="K34" s="141" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="202"/>
+      <c r="J35" s="205"/>
       <c r="K35" s="141" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="202" t="s">
+      <c r="J36" s="205" t="s">
         <v>123</v>
       </c>
       <c r="K36" s="141" t="s">
@@ -8220,37 +8174,37 @@
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="202"/>
+      <c r="J37" s="205"/>
       <c r="K37" s="141" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="202"/>
+      <c r="J38" s="205"/>
       <c r="K38" s="141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="202"/>
+      <c r="J39" s="205"/>
       <c r="K39" s="141" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="202"/>
+      <c r="J40" s="205"/>
       <c r="K40" s="141" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="202"/>
+      <c r="J41" s="205"/>
       <c r="K41" s="141" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="202"/>
+      <c r="J42" s="205"/>
       <c r="K42" s="141" t="s">
         <v>132</v>
       </c>

--- a/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
+++ b/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="205">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -652,24 +652,15 @@
     <t>Desarrollo de Sistemas</t>
   </si>
   <si>
-    <t>AM</t>
-  </si>
-  <si>
     <t>Diagrama no cumple los estándares</t>
   </si>
   <si>
     <t>Revisado / Auditado</t>
   </si>
   <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>Responsable (s) de levantar no conformidad</t>
   </si>
   <si>
-    <t>No habia disponibilidad de repositorio bitbucket</t>
-  </si>
-  <si>
     <t>Entregable / Proceso revisado</t>
   </si>
   <si>
@@ -685,15 +676,9 @@
     <t>Documento está con defectos de fondo</t>
   </si>
   <si>
-    <t>Sergio Barrantes</t>
-  </si>
-  <si>
     <t>Manuel Saenz</t>
   </si>
   <si>
-    <t>FPPQA.R06 Herramienta de Gestión QA-Producto</t>
-  </si>
-  <si>
     <t>Lider de Proyecto:</t>
   </si>
   <si>
@@ -701,9 +686,6 @@
   </si>
   <si>
     <t>Christian Benites</t>
-  </si>
-  <si>
-    <t>Fecha Efectiva: 23/06/2015</t>
   </si>
   <si>
     <t>Versión: 0.1</t>
@@ -742,6 +724,75 @@
   </si>
   <si>
     <t xml:space="preserve"> Acta de Kick-off Meeting Externo</t>
+  </si>
+  <si>
+    <t>jhjh</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>CB/KL</t>
+  </si>
+  <si>
+    <t>Formato de Aceptacion de Entregables</t>
+  </si>
+  <si>
+    <t>Exposicion al Riesgo</t>
+  </si>
+  <si>
+    <t>Proceso de Gestion de Cambios a Requerimientos</t>
+  </si>
+  <si>
+    <t>Matriz de Trazabilidad de Proyectos</t>
+  </si>
+  <si>
+    <t>Volatilidad de Requerimientos (Metrica)</t>
+  </si>
+  <si>
+    <t>Proceso de Aseguramiento de la Calidad</t>
+  </si>
+  <si>
+    <t>Checklist de Aseguramiento de Calidad</t>
+  </si>
+  <si>
+    <t>Herramienta de Gestion QA-Producto</t>
+  </si>
+  <si>
+    <t>Matriz de Seguimientos de Proyectos Internos</t>
+  </si>
+  <si>
+    <t>Num de Nconformidades QA del Producto (Metrica)</t>
+  </si>
+  <si>
+    <t>Proceso de Gestion de Configuracion</t>
+  </si>
+  <si>
+    <t>Registro de Items de Configuracion</t>
+  </si>
+  <si>
+    <t>Solicitud de Accesos</t>
+  </si>
+  <si>
+    <t>Indice de Cambios en Items de Configuracion (Metricas)</t>
+  </si>
+  <si>
+    <t>Lista Maestra de Requerimientos</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 24/06/2015</t>
+  </si>
+  <si>
+    <t>HGPPQA Herramienta de Gestión QA-Producto</t>
   </si>
 </sst>
 </file>
@@ -753,7 +804,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="63">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1115,6 +1166,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2203,9 +2260,6 @@
     <xf numFmtId="0" fontId="50" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2216,10 +2270,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2302,9 +2352,22 @@
     <xf numFmtId="0" fontId="13" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2314,6 +2377,45 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2323,24 +2425,6 @@
     <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2374,30 +2458,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2407,26 +2486,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2439,6 +2498,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2450,18 +2537,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2490,22 +2565,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2518,14 +2577,13 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2767,10 +2825,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3174,7 +3232,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3183,10 +3241,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,10 +3559,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3519,11 +3577,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186308000"/>
-        <c:axId val="186307216"/>
+        <c:axId val="285653552"/>
+        <c:axId val="287702808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186308000"/>
+        <c:axId val="285653552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3558,7 +3616,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186307216"/>
+        <c:crossAx val="287702808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3568,7 +3626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186307216"/>
+        <c:axId val="287702808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3671,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186308000"/>
+        <c:crossAx val="285653552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3901,7 +3959,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,7 +4036,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,7 +4113,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,12 +4129,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="186312312"/>
-        <c:axId val="186309176"/>
+        <c:axId val="287704768"/>
+        <c:axId val="287702416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="186312312"/>
+        <c:axId val="287704768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4208,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186309176"/>
+        <c:crossAx val="287702416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4160,7 +4218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="186309176"/>
+        <c:axId val="287702416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4302,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="186312312"/>
+        <c:crossAx val="287704768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4979,7 +5037,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5008,15 +5066,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5067,7 +5125,7 @@
         <v>40951</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F5" s="75" t="s">
         <v>113</v>
@@ -5076,14 +5134,14 @@
         <v>70</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="67"/>
       <c r="B6" s="78"/>
-      <c r="C6" s="132"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="79"/>
       <c r="E6" s="80"/>
       <c r="F6" s="81"/>
@@ -5094,7 +5152,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="78"/>
-      <c r="C7" s="133"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="83"/>
       <c r="E7" s="80"/>
       <c r="F7" s="84"/>
@@ -5116,7 +5174,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="67"/>
       <c r="B9" s="78"/>
-      <c r="C9" s="137"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="79"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
@@ -5127,7 +5185,7 @@
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
       <c r="B10" s="86"/>
       <c r="C10" s="87"/>
-      <c r="D10" s="131"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
       <c r="G10" s="88"/>
@@ -5149,8 +5207,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:E36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5167,22 +5225,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="156" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="C2" s="165" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="164" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
+        <v>170</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="174"/>
+      <c r="E3" s="175"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -5194,12 +5252,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="161"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="170"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -5222,10 +5280,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="172"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
@@ -5311,62 +5369,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="161"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="148"/>
-      <c r="E20" s="149"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="164"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C21" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="167" t="s">
+      <c r="C22" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5379,31 +5437,31 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="170" t="s">
+      <c r="B27" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="164"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="155"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
@@ -5412,11 +5470,11 @@
       <c r="B30" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
@@ -5425,11 +5483,11 @@
       <c r="B31" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5438,11 +5496,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="145"/>
-      <c r="E32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5451,11 +5509,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="144" t="s">
+      <c r="C33" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="145"/>
-      <c r="E33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5464,174 +5522,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="144" t="s">
+      <c r="C34" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="145"/>
-      <c r="E34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="144" t="s">
+      <c r="C35" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="146"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="155"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="158"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="144" t="s">
+      <c r="C37" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="144" t="s">
+      <c r="C38" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="145"/>
-      <c r="E38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="148"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="145"/>
-      <c r="E39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="148"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="144" t="s">
+      <c r="C40" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="145"/>
-      <c r="E40" s="146"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="C41" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="145"/>
-      <c r="E41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="144" t="s">
+      <c r="C42" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="145"/>
-      <c r="E42" s="146"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="145"/>
-      <c r="E43" s="146"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="145"/>
-      <c r="E44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="144" t="s">
+      <c r="C45" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="145"/>
-      <c r="E45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="148"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="C46" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="148"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="144" t="s">
+      <c r="C47" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="144" t="s">
+      <c r="C48" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -5664,23 +5722,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="170" t="s">
+      <c r="B52" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="172"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="161"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
-      <c r="B53" s="142" t="s">
+      <c r="B53" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="148"/>
-      <c r="E53" s="149"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="164"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5695,132 +5753,132 @@
       <c r="B54" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C54" s="144" t="s">
+      <c r="C54" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="145"/>
-      <c r="E54" s="146"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="148"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="144" t="s">
+      <c r="C55" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="145"/>
-      <c r="E55" s="146"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="144" t="s">
+      <c r="C56" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="145"/>
-      <c r="E56" s="146"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="144" t="s">
+      <c r="C57" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="151"/>
-      <c r="E57" s="152"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="154"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="154"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="144" t="s">
+      <c r="C59" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="151"/>
-      <c r="E59" s="152"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="154"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="144" t="s">
+      <c r="C60" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="151"/>
-      <c r="E60" s="152"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="154"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="150" t="s">
+      <c r="C61" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="152"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="154"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="144" t="s">
+      <c r="C62" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="152"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="154"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="150" t="s">
+      <c r="C63" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="151"/>
-      <c r="E63" s="152"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="154"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="151"/>
-      <c r="E64" s="152"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="154"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="144" t="s">
+      <c r="C65" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="145"/>
-      <c r="E65" s="146"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="148"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5831,200 +5889,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="174"/>
-      <c r="E67" s="174"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="173"/>
-      <c r="C68" s="173"/>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="145"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="173"/>
-      <c r="C69" s="173"/>
-      <c r="D69" s="173"/>
-      <c r="E69" s="173"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="145"/>
+      <c r="E69" s="145"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="173"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="173"/>
-      <c r="C71" s="173"/>
-      <c r="D71" s="173"/>
-      <c r="E71" s="173"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="173"/>
-      <c r="C72" s="173"/>
-      <c r="D72" s="173"/>
-      <c r="E72" s="173"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="173"/>
-      <c r="C73" s="173"/>
-      <c r="D73" s="173"/>
-      <c r="E73" s="173"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="173"/>
-      <c r="C74" s="173"/>
-      <c r="D74" s="173"/>
-      <c r="E74" s="173"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="145"/>
+      <c r="E74" s="145"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="173"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="173"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="145"/>
+      <c r="E75" s="145"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="145"/>
+      <c r="D76" s="145"/>
+      <c r="E76" s="145"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="173"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="145"/>
+      <c r="D77" s="145"/>
+      <c r="E77" s="145"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="173"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="145"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="173"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="173"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="173"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="173"/>
-      <c r="E81" s="173"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="145"/>
+      <c r="D81" s="145"/>
+      <c r="E81" s="145"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="173"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="173"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="145"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="173"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="145"/>
+      <c r="E83" s="145"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="173"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="145"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="173"/>
-      <c r="C85" s="173"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="173"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="145"/>
+      <c r="D85" s="145"/>
+      <c r="E85" s="145"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="173"/>
-      <c r="C86" s="173"/>
-      <c r="D86" s="173"/>
-      <c r="E86" s="173"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="145"/>
+      <c r="D86" s="145"/>
+      <c r="E86" s="145"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6037,6 +6095,59 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="B77:E77"/>
     <mergeCell ref="B86:E86"/>
     <mergeCell ref="B73:E73"/>
@@ -6051,59 +6162,6 @@
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C38:E38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6120,8 +6178,8 @@
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N3"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6142,90 +6200,90 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="180"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="175" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
+      <c r="B6" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="182"/>
+      <c r="D6" s="176" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="177"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="175" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
+      <c r="B7" s="181" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="182"/>
+      <c r="D7" s="176" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="177"/>
+      <c r="F7" s="178"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="176" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="176"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="108">
-        <v>42171</v>
+        <v>42157</v>
       </c>
       <c r="E9" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="126">
         <v>42179</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="175" t="s">
+      <c r="B10" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="176" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="177"/>
+      <c r="F10" s="178"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6246,10 +6304,10 @@
         <v>102</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -6284,36 +6342,36 @@
         <v>157</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="103"/>
+        <v>173</v>
+      </c>
+      <c r="E13" s="143" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>183</v>
+      </c>
       <c r="G13" s="103" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H13" s="104">
-        <v>40787</v>
+        <v>42157</v>
       </c>
       <c r="I13" s="104">
-        <v>40787</v>
-      </c>
-      <c r="J13" s="130">
+        <v>42157</v>
+      </c>
+      <c r="J13" s="128">
         <v>1</v>
       </c>
       <c r="K13" s="104">
-        <v>40788</v>
+        <v>42173</v>
       </c>
       <c r="L13" s="104">
-        <v>40788</v>
+        <v>42173</v>
       </c>
       <c r="M13" s="105">
         <v>3</v>
       </c>
-      <c r="N13" s="105" t="s">
-        <v>163</v>
-      </c>
+      <c r="N13" s="105"/>
     </row>
     <row r="14" spans="2:25" ht="36">
       <c r="B14" s="37">
@@ -6323,31 +6381,31 @@
         <v>157</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E14" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="103" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>170</v>
-      </c>
       <c r="H14" s="104">
-        <v>40789</v>
+        <v>42158</v>
       </c>
       <c r="I14" s="104">
-        <v>40790</v>
-      </c>
-      <c r="J14" s="130">
+        <v>42158</v>
+      </c>
+      <c r="J14" s="128">
         <v>2</v>
       </c>
       <c r="K14" s="104">
-        <v>40788</v>
+        <v>42173</v>
       </c>
       <c r="L14" s="104">
-        <v>40788</v>
+        <v>42173</v>
       </c>
       <c r="M14" s="105">
         <v>4</v>
@@ -6362,23 +6420,35 @@
         <v>157</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E15" s="103" t="s">
         <v>148</v>
       </c>
       <c r="F15" s="103" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="G15" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H15" s="104">
+        <v>42157</v>
+      </c>
+      <c r="I15" s="104">
+        <v>42157</v>
+      </c>
+      <c r="J15" s="128">
+        <v>3</v>
+      </c>
+      <c r="K15" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L15" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M15" s="105">
+        <v>3</v>
+      </c>
       <c r="N15" s="105"/>
     </row>
     <row r="16" spans="2:25" ht="24">
@@ -6389,23 +6459,35 @@
         <v>157</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="G16" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H16" s="104">
+        <v>42165</v>
+      </c>
+      <c r="I16" s="104">
+        <v>42165</v>
+      </c>
+      <c r="J16" s="128">
+        <v>2</v>
+      </c>
+      <c r="K16" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L16" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M16" s="105">
+        <v>2</v>
+      </c>
       <c r="N16" s="105"/>
     </row>
     <row r="17" spans="2:14" ht="24">
@@ -6416,23 +6498,35 @@
         <v>157</v>
       </c>
       <c r="D17" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="103" t="s">
-        <v>185</v>
-      </c>
       <c r="F17" s="103" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="G17" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H17" s="104">
+        <v>42170</v>
+      </c>
+      <c r="I17" s="104">
+        <v>42170</v>
+      </c>
+      <c r="J17" s="128">
+        <v>3</v>
+      </c>
+      <c r="K17" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L17" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M17" s="105">
+        <v>3</v>
+      </c>
       <c r="N17" s="105"/>
     </row>
     <row r="18" spans="2:14" ht="24">
@@ -6443,23 +6537,35 @@
         <v>157</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F18" s="103" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H18" s="104">
+        <v>42157</v>
+      </c>
+      <c r="I18" s="104">
+        <v>42157</v>
+      </c>
+      <c r="J18" s="128">
+        <v>2</v>
+      </c>
+      <c r="K18" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L18" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M18" s="105">
+        <v>3</v>
+      </c>
       <c r="N18" s="105"/>
     </row>
     <row r="19" spans="2:14" ht="24">
@@ -6470,34 +6576,34 @@
         <v>157</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F19" s="103" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G19" s="103" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H19" s="104">
-        <v>40796</v>
+        <v>42160</v>
       </c>
       <c r="I19" s="104">
-        <v>40796</v>
-      </c>
-      <c r="J19" s="130">
+        <v>42160</v>
+      </c>
+      <c r="J19" s="128">
         <v>2</v>
       </c>
       <c r="K19" s="104">
-        <v>40788</v>
+        <v>42179</v>
       </c>
       <c r="L19" s="104">
-        <v>40788</v>
+        <v>42179</v>
       </c>
       <c r="M19" s="105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="105"/>
     </row>
@@ -6509,19 +6615,35 @@
         <v>157</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
+        <v>173</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>184</v>
+      </c>
       <c r="G20" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H20" s="104">
+        <v>42160</v>
+      </c>
+      <c r="I20" s="104">
+        <v>42160</v>
+      </c>
+      <c r="J20" s="128">
+        <v>2</v>
+      </c>
+      <c r="K20" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L20" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M20" s="105">
+        <v>2</v>
+      </c>
       <c r="N20" s="105"/>
     </row>
     <row r="21" spans="2:14" ht="24">
@@ -6532,19 +6654,35 @@
         <v>157</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+        <v>173</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>185</v>
+      </c>
       <c r="G21" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H21" s="104">
+        <v>42178</v>
+      </c>
+      <c r="I21" s="104">
+        <v>42178</v>
+      </c>
+      <c r="J21" s="128">
+        <v>2</v>
+      </c>
+      <c r="K21" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L21" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M21" s="105">
+        <v>2</v>
+      </c>
       <c r="N21" s="105"/>
     </row>
     <row r="22" spans="2:14" ht="24">
@@ -6555,19 +6693,35 @@
         <v>157</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+        <v>174</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>184</v>
+      </c>
       <c r="G22" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H22" s="104">
+        <v>42159</v>
+      </c>
+      <c r="I22" s="104">
+        <v>42159</v>
+      </c>
+      <c r="J22" s="128">
+        <v>2</v>
+      </c>
+      <c r="K22" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L22" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M22" s="105">
+        <v>3</v>
+      </c>
       <c r="N22" s="105"/>
     </row>
     <row r="23" spans="2:14" ht="24">
@@ -6578,19 +6732,35 @@
         <v>157</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+        <v>174</v>
+      </c>
+      <c r="E23" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="103" t="s">
+        <v>184</v>
+      </c>
       <c r="G23" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H23" s="104">
+        <v>42158</v>
+      </c>
+      <c r="I23" s="104">
+        <v>42158</v>
+      </c>
+      <c r="J23" s="128">
+        <v>3</v>
+      </c>
+      <c r="K23" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L23" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M23" s="105">
+        <v>3</v>
+      </c>
       <c r="N23" s="105"/>
     </row>
     <row r="24" spans="2:14" ht="24">
@@ -6601,19 +6771,35 @@
         <v>157</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+        <v>174</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="103" t="s">
+        <v>184</v>
+      </c>
       <c r="G24" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H24" s="104">
+        <v>42158</v>
+      </c>
+      <c r="I24" s="104">
+        <v>42158</v>
+      </c>
+      <c r="J24" s="128">
+        <v>2</v>
+      </c>
+      <c r="K24" s="104">
+        <v>42173</v>
+      </c>
+      <c r="L24" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M24" s="105">
+        <v>2</v>
+      </c>
       <c r="N24" s="105"/>
     </row>
     <row r="25" spans="2:14" ht="24">
@@ -6624,19 +6810,35 @@
         <v>157</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+        <v>174</v>
+      </c>
+      <c r="E25" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>186</v>
+      </c>
       <c r="G25" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H25" s="104">
+        <v>42163</v>
+      </c>
+      <c r="I25" s="104">
+        <v>42163</v>
+      </c>
+      <c r="J25" s="128">
+        <v>2</v>
+      </c>
+      <c r="K25" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L25" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M25" s="105">
+        <v>3</v>
+      </c>
       <c r="N25" s="105"/>
     </row>
     <row r="26" spans="2:14" ht="24">
@@ -6647,19 +6849,35 @@
         <v>157</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+        <v>175</v>
+      </c>
+      <c r="E26" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="103" t="s">
+        <v>184</v>
+      </c>
       <c r="G26" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H26" s="104">
+        <v>42159</v>
+      </c>
+      <c r="I26" s="104">
+        <v>42159</v>
+      </c>
+      <c r="J26" s="128">
+        <v>2</v>
+      </c>
+      <c r="K26" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L26" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M26" s="105">
+        <v>4</v>
+      </c>
       <c r="N26" s="105"/>
     </row>
     <row r="27" spans="2:14" ht="24">
@@ -6670,19 +6888,35 @@
         <v>157</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+        <v>175</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="103" t="s">
+        <v>185</v>
+      </c>
       <c r="G27" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H27" s="104">
+        <v>42160</v>
+      </c>
+      <c r="I27" s="104">
+        <v>42160</v>
+      </c>
+      <c r="J27" s="128">
+        <v>2</v>
+      </c>
+      <c r="K27" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L27" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M27" s="105">
+        <v>2</v>
+      </c>
       <c r="N27" s="105"/>
     </row>
     <row r="28" spans="2:14" ht="24">
@@ -6693,19 +6927,35 @@
         <v>157</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+        <v>175</v>
+      </c>
+      <c r="E28" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>185</v>
+      </c>
       <c r="G28" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H28" s="104">
+        <v>42171</v>
+      </c>
+      <c r="I28" s="104">
+        <v>42171</v>
+      </c>
+      <c r="J28" s="128">
+        <v>3</v>
+      </c>
+      <c r="K28" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L28" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M28" s="105">
+        <v>3</v>
+      </c>
       <c r="N28" s="105"/>
     </row>
     <row r="29" spans="2:14" ht="24">
@@ -6716,19 +6966,35 @@
         <v>157</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+        <v>175</v>
+      </c>
+      <c r="E29" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>183</v>
+      </c>
       <c r="G29" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H29" s="104">
+        <v>42172</v>
+      </c>
+      <c r="I29" s="104">
+        <v>42172</v>
+      </c>
+      <c r="J29" s="128">
+        <v>2</v>
+      </c>
+      <c r="K29" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L29" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M29" s="105">
+        <v>2</v>
+      </c>
       <c r="N29" s="105"/>
     </row>
     <row r="30" spans="2:14" ht="24">
@@ -6739,19 +7005,35 @@
         <v>157</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
+        <v>175</v>
+      </c>
+      <c r="E30" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="103" t="s">
+        <v>183</v>
+      </c>
       <c r="G30" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H30" s="104">
+        <v>42173</v>
+      </c>
+      <c r="I30" s="104">
+        <v>42173</v>
+      </c>
+      <c r="J30" s="128">
+        <v>3</v>
+      </c>
+      <c r="K30" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L30" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M30" s="105">
+        <v>3</v>
+      </c>
       <c r="N30" s="105"/>
     </row>
     <row r="31" spans="2:14" ht="24">
@@ -6762,19 +7044,35 @@
         <v>157</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
+        <v>176</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>186</v>
+      </c>
       <c r="G31" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H31" s="104">
+        <v>42164</v>
+      </c>
+      <c r="I31" s="104">
+        <v>42164</v>
+      </c>
+      <c r="J31" s="128">
+        <v>2</v>
+      </c>
+      <c r="K31" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L31" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M31" s="105">
+        <v>2</v>
+      </c>
       <c r="N31" s="105"/>
     </row>
     <row r="32" spans="2:14" ht="24">
@@ -6785,19 +7083,35 @@
         <v>157</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
+        <v>176</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="103" t="s">
+        <v>186</v>
+      </c>
       <c r="G32" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H32" s="104">
+        <v>42164</v>
+      </c>
+      <c r="I32" s="104">
+        <v>42164</v>
+      </c>
+      <c r="J32" s="128">
+        <v>2</v>
+      </c>
+      <c r="K32" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L32" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M32" s="105">
+        <v>3</v>
+      </c>
       <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:14" ht="24">
@@ -6808,43 +7122,75 @@
         <v>157</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
+        <v>176</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="103" t="s">
+        <v>184</v>
+      </c>
       <c r="G33" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H33" s="104">
+        <v>42166</v>
+      </c>
+      <c r="I33" s="104">
+        <v>42166</v>
+      </c>
+      <c r="J33" s="128">
+        <v>2</v>
+      </c>
+      <c r="K33" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L33" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M33" s="105">
+        <v>2</v>
+      </c>
       <c r="N33" s="105"/>
     </row>
     <row r="34" spans="1:14" ht="24">
       <c r="A34" s="10"/>
       <c r="B34" s="37">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C34" s="102" t="s">
         <v>157</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
+        <v>176</v>
+      </c>
+      <c r="E34" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="103" t="s">
+        <v>183</v>
+      </c>
       <c r="G34" s="103" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="105"/>
+        <v>183</v>
+      </c>
+      <c r="H34" s="104">
+        <v>42167</v>
+      </c>
+      <c r="I34" s="104">
+        <v>42167</v>
+      </c>
+      <c r="J34" s="128">
+        <v>3</v>
+      </c>
+      <c r="K34" s="104">
+        <v>42179</v>
+      </c>
+      <c r="L34" s="104">
+        <v>42179</v>
+      </c>
+      <c r="M34" s="105">
+        <v>3</v>
+      </c>
       <c r="N34" s="105"/>
     </row>
     <row r="35" spans="1:14">
@@ -6859,7 +7205,7 @@
       <c r="G35" s="103"/>
       <c r="H35" s="104"/>
       <c r="I35" s="104"/>
-      <c r="J35" s="130"/>
+      <c r="J35" s="128"/>
       <c r="K35" s="104"/>
       <c r="L35" s="104"/>
       <c r="M35" s="105"/>
@@ -6876,7 +7222,7 @@
       <c r="G36" s="103"/>
       <c r="H36" s="104"/>
       <c r="I36" s="104"/>
-      <c r="J36" s="130"/>
+      <c r="J36" s="128"/>
       <c r="K36" s="104"/>
       <c r="L36" s="104"/>
       <c r="M36" s="105"/>
@@ -6893,7 +7239,7 @@
       <c r="G37" s="103"/>
       <c r="H37" s="104"/>
       <c r="I37" s="104"/>
-      <c r="J37" s="130"/>
+      <c r="J37" s="128"/>
       <c r="K37" s="104"/>
       <c r="L37" s="104"/>
       <c r="M37" s="105"/>
@@ -6910,7 +7256,7 @@
       <c r="G38" s="103"/>
       <c r="H38" s="104"/>
       <c r="I38" s="104"/>
-      <c r="J38" s="130"/>
+      <c r="J38" s="128"/>
       <c r="K38" s="104"/>
       <c r="L38" s="104"/>
       <c r="M38" s="105"/>
@@ -6927,7 +7273,7 @@
       <c r="G39" s="103"/>
       <c r="H39" s="104"/>
       <c r="I39" s="104"/>
-      <c r="J39" s="130"/>
+      <c r="J39" s="128"/>
       <c r="K39" s="104"/>
       <c r="L39" s="104"/>
       <c r="M39" s="105"/>
@@ -6944,7 +7290,7 @@
       <c r="G40" s="103"/>
       <c r="H40" s="104"/>
       <c r="I40" s="104"/>
-      <c r="J40" s="130"/>
+      <c r="J40" s="128"/>
       <c r="K40" s="104"/>
       <c r="L40" s="104"/>
       <c r="M40" s="105"/>
@@ -6961,7 +7307,7 @@
       <c r="G41" s="103"/>
       <c r="H41" s="104"/>
       <c r="I41" s="104"/>
-      <c r="J41" s="130"/>
+      <c r="J41" s="128"/>
       <c r="K41" s="104"/>
       <c r="L41" s="104"/>
       <c r="M41" s="105"/>
@@ -6978,7 +7324,7 @@
       <c r="G42" s="103"/>
       <c r="H42" s="104"/>
       <c r="I42" s="104"/>
-      <c r="J42" s="130"/>
+      <c r="J42" s="128"/>
       <c r="K42" s="104"/>
       <c r="L42" s="104"/>
       <c r="M42" s="105"/>
@@ -6995,7 +7341,7 @@
       <c r="G43" s="103"/>
       <c r="H43" s="104"/>
       <c r="I43" s="104"/>
-      <c r="J43" s="130"/>
+      <c r="J43" s="128"/>
       <c r="K43" s="104"/>
       <c r="L43" s="104"/>
       <c r="M43" s="105"/>
@@ -7013,7 +7359,7 @@
       <c r="G44" s="103"/>
       <c r="H44" s="104"/>
       <c r="I44" s="104"/>
-      <c r="J44" s="130"/>
+      <c r="J44" s="128"/>
       <c r="K44" s="104"/>
       <c r="L44" s="104"/>
       <c r="M44" s="105"/>
@@ -7031,7 +7377,7 @@
       <c r="G45" s="103"/>
       <c r="H45" s="104"/>
       <c r="I45" s="104"/>
-      <c r="J45" s="130"/>
+      <c r="J45" s="128"/>
       <c r="K45" s="104"/>
       <c r="L45" s="104"/>
       <c r="M45" s="105"/>
@@ -7049,7 +7395,7 @@
       <c r="G46" s="103"/>
       <c r="H46" s="104"/>
       <c r="I46" s="104"/>
-      <c r="J46" s="130"/>
+      <c r="J46" s="128"/>
       <c r="K46" s="104"/>
       <c r="L46" s="104"/>
       <c r="M46" s="105"/>
@@ -7059,14 +7405,14 @@
       <c r="B47" s="8"/>
       <c r="J47" s="106">
         <f>SUM(J13:J46)</f>
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="L47" s="107" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="106">
         <f>SUM(M13:M46)</f>
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7076,17 +7422,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -7096,8 +7442,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C46">
       <formula1>TipoProy</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E46">
-      <formula1>IF(C20="Fast Track",e_fast,IF(C20="Configuraciones Tipo o Nuevas",e_tipo,IF(C20="Desarrollos Departamentales",e_depar,IF(C20="Desarrollos Adicionales ATIS",e_atis,IF(C20="Definición de Requerimientos",e_req,e_inci)))))</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35:E46">
+      <formula1>IF(C35="Fast Track",e_fast,IF(C35="Configuraciones Tipo o Nuevas",e_tipo,IF(C35="Desarrollos Departamentales",e_depar,IF(C35="Desarrollos Adicionales ATIS",e_atis,IF(C35="Definición de Requerimientos",e_req,e_inci)))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D19">
       <formula1>f_depar</formula1>
@@ -7116,13 +7462,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7143,22 +7489,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7181,7 +7527,7 @@
       <c r="C3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:15" s="28" customFormat="1" ht="60" customHeight="1">
+    <row r="4" spans="1:15" s="28" customFormat="1" ht="60" customHeight="1" thickBot="1">
       <c r="A4" s="27" t="s">
         <v>25</v>
       </c>
@@ -7192,7 +7538,7 @@
         <v>125</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>111</v>
@@ -7210,7 +7556,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>34</v>
@@ -7228,7 +7574,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24">
+    <row r="5" spans="1:15" ht="29.25" thickBot="1">
       <c r="A5" s="110">
         <v>1</v>
       </c>
@@ -7239,44 +7585,42 @@
         <f>VLOOKUP(B5,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="113" t="str">
-        <f>VLOOKUP(B5,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v>Proceso de gestion de proyecto</v>
-      </c>
-      <c r="E5" s="112">
-        <f>VLOOKUP(B5,Planificación!$B$13:$G$93,5,FALSE)</f>
-        <v>0</v>
+      <c r="D5" s="143" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="207" t="s">
+        <v>183</v>
       </c>
       <c r="F5" s="112" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>Manuel Saenz</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="114" t="s">
+        <v>KL</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="114" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M5" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N5" s="118">
+      <c r="J5" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K5" s="115"/>
+      <c r="L5" s="104">
+        <v>42157</v>
+      </c>
+      <c r="M5" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N5" s="116">
         <f>IF(M5&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="134"/>
-    </row>
-    <row r="6" spans="1:15" ht="12">
+      <c r="O5" s="132"/>
+    </row>
+    <row r="6" spans="1:15" ht="36">
       <c r="A6" s="110">
         <v>2</v>
       </c>
@@ -7287,193 +7631,909 @@
         <f>VLOOKUP(B6,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="113" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$E$93,4,FALSE)</f>
-        <v xml:space="preserve">
-Plan de Proyecto
-</v>
-      </c>
-      <c r="E6" s="112" t="str">
-        <f>VLOOKUP(B6,Planificación!$B$13:$F$93,5,FALSE)</f>
-        <v>AM</v>
+      <c r="D6" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="207" t="s">
+        <v>184</v>
       </c>
       <c r="F6" s="112" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>Manuel Saenz</v>
-      </c>
-      <c r="G6" s="115" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="114" t="s">
+        <v>KL</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117">
-        <v>40788</v>
-      </c>
-      <c r="M6" s="117">
-        <v>40788</v>
-      </c>
-      <c r="N6" s="118">
-        <f>IF(M6&gt;0,1,0)</f>
+      <c r="I6" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="115"/>
+      <c r="L6" s="104">
+        <v>42158</v>
+      </c>
+      <c r="M6" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N6" s="116">
+        <f t="shared" ref="N6:N15" si="0">IF(M6&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="134"/>
+      <c r="O6" s="132"/>
     </row>
     <row r="7" spans="1:15" ht="12">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="134"/>
+      <c r="A7" s="110">
+        <v>3</v>
+      </c>
+      <c r="B7" s="111">
+        <v>3</v>
+      </c>
+      <c r="C7" s="112" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="112" t="str">
+        <f>VLOOKUP(B7,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G7" s="114"/>
+      <c r="H7" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="115"/>
+      <c r="L7" s="104">
+        <v>42157</v>
+      </c>
+      <c r="M7" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N7" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="132"/>
     </row>
     <row r="8" spans="1:15" ht="12">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="134"/>
-    </row>
-    <row r="9" spans="1:15" ht="12">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="134"/>
-    </row>
-    <row r="10" spans="1:15" ht="12">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="134"/>
-    </row>
-    <row r="11" spans="1:15" ht="12">
-      <c r="A11" s="110"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="134"/>
-    </row>
-    <row r="12" spans="1:15" ht="12">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="134"/>
+      <c r="A8" s="110">
+        <v>4</v>
+      </c>
+      <c r="B8" s="111">
+        <v>4</v>
+      </c>
+      <c r="C8" s="112" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="112" t="str">
+        <f>VLOOKUP(B8,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G8" s="114"/>
+      <c r="H8" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="115"/>
+      <c r="L8" s="104">
+        <v>42165</v>
+      </c>
+      <c r="M8" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N8" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="132"/>
+    </row>
+    <row r="9" spans="1:15" ht="24">
+      <c r="A9" s="110">
+        <v>5</v>
+      </c>
+      <c r="B9" s="111">
+        <v>5</v>
+      </c>
+      <c r="C9" s="112" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="112" t="str">
+        <f>VLOOKUP(B9,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G9" s="114"/>
+      <c r="H9" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="115"/>
+      <c r="L9" s="104">
+        <v>42170</v>
+      </c>
+      <c r="M9" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N9" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="132"/>
+    </row>
+    <row r="10" spans="1:15" ht="24">
+      <c r="A10" s="110">
+        <v>6</v>
+      </c>
+      <c r="B10" s="111">
+        <v>6</v>
+      </c>
+      <c r="C10" s="112" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="112" t="str">
+        <f>VLOOKUP(B10,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="115"/>
+      <c r="L10" s="104">
+        <v>42157</v>
+      </c>
+      <c r="M10" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N10" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="132"/>
+    </row>
+    <row r="11" spans="1:15" ht="24">
+      <c r="A11" s="110">
+        <v>7</v>
+      </c>
+      <c r="B11" s="111">
+        <v>7</v>
+      </c>
+      <c r="C11" s="112" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="112" t="str">
+        <f>VLOOKUP(B11,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G11" s="114"/>
+      <c r="H11" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="115"/>
+      <c r="L11" s="104">
+        <v>42160</v>
+      </c>
+      <c r="M11" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N11" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="132"/>
+    </row>
+    <row r="12" spans="1:15" ht="24">
+      <c r="A12" s="110">
+        <v>8</v>
+      </c>
+      <c r="B12" s="111">
+        <v>8</v>
+      </c>
+      <c r="C12" s="112" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="112" t="str">
+        <f>VLOOKUP(B12,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="115"/>
+      <c r="L12" s="104">
+        <v>42160</v>
+      </c>
+      <c r="M12" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N12" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="132"/>
     </row>
     <row r="13" spans="1:15" ht="12">
-      <c r="A13" s="110"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="134"/>
-    </row>
-    <row r="14" spans="1:15" ht="12">
-      <c r="A14" s="110"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="134"/>
-    </row>
-    <row r="15" spans="1:15" ht="12">
-      <c r="A15" s="110"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="134"/>
+      <c r="A13" s="110">
+        <v>9</v>
+      </c>
+      <c r="B13" s="111">
+        <v>9</v>
+      </c>
+      <c r="C13" s="112" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="112" t="str">
+        <f>VLOOKUP(B13,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G13" s="114"/>
+      <c r="H13" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="115"/>
+      <c r="L13" s="104">
+        <v>42178</v>
+      </c>
+      <c r="M13" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N13" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="132"/>
+    </row>
+    <row r="14" spans="1:15" ht="36">
+      <c r="A14" s="110">
+        <v>10</v>
+      </c>
+      <c r="B14" s="111">
+        <v>10</v>
+      </c>
+      <c r="C14" s="112" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="112" t="str">
+        <f>VLOOKUP(B14,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G14" s="114"/>
+      <c r="H14" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="115"/>
+      <c r="L14" s="104">
+        <v>42159</v>
+      </c>
+      <c r="M14" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N14" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="132"/>
+    </row>
+    <row r="15" spans="1:15" ht="24">
+      <c r="A15" s="110">
+        <v>11</v>
+      </c>
+      <c r="B15" s="111">
+        <v>11</v>
+      </c>
+      <c r="C15" s="112" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="112" t="str">
+        <f>VLOOKUP(B15,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G15" s="114"/>
+      <c r="H15" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="115"/>
+      <c r="L15" s="104">
+        <v>42158</v>
+      </c>
+      <c r="M15" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N15" s="116">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="132"/>
+    </row>
+    <row r="16" spans="1:15" ht="24">
+      <c r="A16" s="110">
+        <v>12</v>
+      </c>
+      <c r="B16" s="111">
+        <v>12</v>
+      </c>
+      <c r="C16" s="112" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="112" t="str">
+        <f>VLOOKUP(B16,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G16" s="114"/>
+      <c r="H16" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I16" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="104">
+        <v>42158</v>
+      </c>
+      <c r="M16" s="104">
+        <v>42173</v>
+      </c>
+      <c r="N16" s="116">
+        <f t="shared" ref="N6:N26" si="1">IF(M16&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="132"/>
+    </row>
+    <row r="17" spans="1:15" ht="36">
+      <c r="A17" s="110">
+        <v>13</v>
+      </c>
+      <c r="B17" s="111">
+        <v>13</v>
+      </c>
+      <c r="C17" s="112" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D17" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="112" t="str">
+        <f>VLOOKUP(B17,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G17" s="114"/>
+      <c r="H17" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="104">
+        <v>42163</v>
+      </c>
+      <c r="M17" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N17" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="132"/>
+    </row>
+    <row r="18" spans="1:15" ht="36">
+      <c r="A18" s="110">
+        <v>14</v>
+      </c>
+      <c r="B18" s="111">
+        <v>14</v>
+      </c>
+      <c r="C18" s="112" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="112" t="str">
+        <f>VLOOKUP(B18,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G18" s="114"/>
+      <c r="H18" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="104">
+        <v>42159</v>
+      </c>
+      <c r="M18" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N18" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="132"/>
+    </row>
+    <row r="19" spans="1:15" ht="36">
+      <c r="A19" s="110">
+        <v>15</v>
+      </c>
+      <c r="B19" s="111">
+        <v>15</v>
+      </c>
+      <c r="C19" s="112" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="112" t="str">
+        <f>VLOOKUP(B19,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G19" s="114"/>
+      <c r="H19" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="104">
+        <v>42160</v>
+      </c>
+      <c r="M19" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N19" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="132"/>
+    </row>
+    <row r="20" spans="1:15" ht="24">
+      <c r="A20" s="110">
+        <v>16</v>
+      </c>
+      <c r="B20" s="111">
+        <v>16</v>
+      </c>
+      <c r="C20" s="112" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="112" t="str">
+        <f>VLOOKUP(B20,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G20" s="114"/>
+      <c r="H20" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="104">
+        <v>42171</v>
+      </c>
+      <c r="M20" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N20" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="132"/>
+    </row>
+    <row r="21" spans="1:15" ht="24">
+      <c r="A21" s="110">
+        <v>17</v>
+      </c>
+      <c r="B21" s="111">
+        <v>17</v>
+      </c>
+      <c r="C21" s="112" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D21" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="112" t="str">
+        <f>VLOOKUP(B21,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L21" s="104">
+        <v>42172</v>
+      </c>
+      <c r="M21" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N21" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="132"/>
+    </row>
+    <row r="22" spans="1:15" ht="36">
+      <c r="A22" s="110">
+        <v>18</v>
+      </c>
+      <c r="B22" s="111">
+        <v>18</v>
+      </c>
+      <c r="C22" s="112" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="112" t="str">
+        <f>VLOOKUP(B22,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G22" s="114"/>
+      <c r="H22" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="104">
+        <v>42173</v>
+      </c>
+      <c r="M22" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N22" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="132"/>
+    </row>
+    <row r="23" spans="1:15" ht="24">
+      <c r="A23" s="110">
+        <v>19</v>
+      </c>
+      <c r="B23" s="111">
+        <v>19</v>
+      </c>
+      <c r="C23" s="112" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D23" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="112" t="str">
+        <f>VLOOKUP(B23,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G23" s="114"/>
+      <c r="H23" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" s="104">
+        <v>42164</v>
+      </c>
+      <c r="M23" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N23" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="132"/>
+    </row>
+    <row r="24" spans="1:15" ht="24">
+      <c r="A24" s="110">
+        <v>20</v>
+      </c>
+      <c r="B24" s="111">
+        <v>20</v>
+      </c>
+      <c r="C24" s="112" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D24" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="112" t="str">
+        <f>VLOOKUP(B24,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G24" s="114"/>
+      <c r="H24" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" s="104">
+        <v>42164</v>
+      </c>
+      <c r="M24" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N24" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="132"/>
+    </row>
+    <row r="25" spans="1:15" ht="24">
+      <c r="A25" s="110">
+        <v>21</v>
+      </c>
+      <c r="B25" s="111">
+        <v>21</v>
+      </c>
+      <c r="C25" s="112" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="112" t="str">
+        <f>VLOOKUP(B25,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G25" s="114"/>
+      <c r="H25" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="104">
+        <v>42166</v>
+      </c>
+      <c r="M25" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N25" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="132"/>
+    </row>
+    <row r="26" spans="1:15" ht="36">
+      <c r="A26" s="110">
+        <v>22</v>
+      </c>
+      <c r="B26" s="111">
+        <v>22</v>
+      </c>
+      <c r="C26" s="112" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$E$93,2,FALSE)</f>
+        <v>Desarrollo de Sistemas</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="207" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="112" t="str">
+        <f>VLOOKUP(B26,Planificación!$B$13:$G$93,6,FALSE)</f>
+        <v>KL</v>
+      </c>
+      <c r="G26" s="114"/>
+      <c r="H26" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="104">
+        <v>42167</v>
+      </c>
+      <c r="M26" s="104">
+        <v>42179</v>
+      </c>
+      <c r="N26" s="116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7481,10 +8541,10 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H26">
       <formula1>TiposNC</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I26">
       <formula1>Origen</formula1>
     </dataValidation>
   </dataValidations>
@@ -7504,8 +8564,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7520,29 +8580,29 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="199" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="199"/>
+      <c r="C4" s="187" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="187"/>
       <c r="E4" s="188" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F4" s="189"/>
       <c r="G4" s="189"/>
@@ -7551,10 +8611,10 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="200" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="201"/>
+      <c r="C5" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="192"/>
       <c r="E5" s="188" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Kevin Laureano</v>
@@ -7566,10 +8626,10 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="187"/>
+      <c r="D6" s="195"/>
       <c r="E6" s="188" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Manuel Saenz</v>
@@ -7581,30 +8641,30 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193">
+      <c r="D7" s="197"/>
+      <c r="E7" s="198">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
-        <v>42171</v>
-      </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195" t="s">
+        <v>42157</v>
+      </c>
+      <c r="F7" s="199"/>
+      <c r="G7" s="200" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="196"/>
-      <c r="I7" s="119">
+      <c r="H7" s="201"/>
+      <c r="I7" s="117">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42179</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="197"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="188" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>Junio</v>
@@ -7615,10 +8675,10 @@
       <c r="I8" s="190"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="191" t="s">
+      <c r="C13" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="191"/>
+      <c r="D13" s="196"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7627,48 +8687,48 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="122" t="s">
+      <c r="C14" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="118">
         <f>COUNTA(Planificación!C13:C46)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="118">
         <f>D14-D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16" s="120" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="118">
+        <f>COUNT(Planificación!L13:L46)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="120" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="C16" s="122" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="120">
-        <f>COUNT(Planificación!L13:L46)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="122" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="121">
+      <c r="D17" s="119">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>0.13636363636363635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="121">
+      <c r="D18" s="119">
         <f>1-D17</f>
-        <v>0.86363636363636365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -7677,35 +8737,35 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="136"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="26"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="136"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="26"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="136"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="26"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="136"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="26"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="136"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="26"/>
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="185" t="s">
+      <c r="C26" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="185"/>
+      <c r="D26" s="193"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -7716,97 +8776,97 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="D28" s="123">
+      <c r="D28" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C28)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="124" t="s">
+      <c r="C29" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="123">
+      <c r="D29" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="123">
+      <c r="D30" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="124" t="s">
+      <c r="C31" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="123">
+      <c r="D31" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C31)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="124" t="s">
+      <c r="C32" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="123">
+      <c r="D32" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C32)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="126">
+      <c r="D33" s="124">
         <f>SUM(D28:D32)</f>
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="185" t="s">
+      <c r="C39" s="193" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="185"/>
+      <c r="D39" s="193"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="123">
+      <c r="D40" s="121">
         <f>Planificación!J47</f>
-        <v>5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="123">
+      <c r="D41" s="121">
         <f>Planificación!M47</f>
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="123">
+      <c r="D42" s="121">
         <f>D40-D41</f>
-        <v>-6</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="185" t="s">
+      <c r="C56" s="193" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="185"/>
+      <c r="D56" s="193"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -7817,48 +8877,43 @@
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="129" t="s">
+      <c r="C58" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="123">
+      <c r="D58" s="121">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C58)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="121">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C59)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="121">
+        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C60)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="129" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="123">
-        <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C60)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="126">
+      <c r="D61" s="124">
         <f>SUM(D58:D60)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -7870,6 +8925,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7878,7 +8938,7 @@
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D40:D42 D15:D18 D31:D32" unlockedFormula="1"/>
+    <ignoredError sqref="D40:D42 D15 D31:D32 D17:D18" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7889,8 +8949,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:J35"/>
+    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7909,350 +8969,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="127" t="s">
+      <c r="J2" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="K2" s="127" t="s">
+      <c r="K2" s="125" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A3" s="138"/>
-      <c r="B3" s="138"/>
-      <c r="D3" s="129" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="D3" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="129" t="s">
-        <v>167</v>
-      </c>
-      <c r="H3" s="129" t="s">
+      <c r="F3" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="202" t="s">
+      <c r="J3" s="203" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="141" t="s">
+      <c r="K3" s="139" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="204" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="206" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="129" t="s">
+      <c r="B4" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="202"/>
-      <c r="K4" s="141" t="s">
+      <c r="J4" s="203"/>
+      <c r="K4" s="139" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="129" t="s">
+      <c r="A5" s="205"/>
+      <c r="B5" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="129" t="s">
+      <c r="H5" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="202"/>
-      <c r="K5" s="141" t="s">
+      <c r="J5" s="203"/>
+      <c r="K5" s="139" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="204"/>
-      <c r="B6" s="207" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="129" t="s">
+      <c r="A6" s="205"/>
+      <c r="B6" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="141" t="s">
+      <c r="H6" s="127"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="139" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="204"/>
-      <c r="B7" s="207" t="s">
+      <c r="A7" s="205"/>
+      <c r="B7" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="127"/>
+      <c r="J7" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="205"/>
+      <c r="B8" s="137"/>
+      <c r="F8" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="127"/>
+      <c r="J8" s="203"/>
+      <c r="K8" s="139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="205"/>
+      <c r="B9" s="137"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="205"/>
+      <c r="B10" s="137"/>
+      <c r="F10" s="133"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="205"/>
+      <c r="B11" s="137"/>
+      <c r="F11" s="133"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A12" s="206"/>
+      <c r="B12" s="138"/>
+      <c r="F12" s="133"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="203"/>
+      <c r="K13" s="139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="203" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="203"/>
+      <c r="K15" s="139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="203"/>
+      <c r="K16" s="139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="203"/>
+      <c r="K17" s="139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="203"/>
+      <c r="K18" s="139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="203"/>
+      <c r="K19" s="139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="203"/>
+      <c r="K20" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="203"/>
+      <c r="K21" s="139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="203"/>
+      <c r="K22" s="139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="203"/>
+      <c r="K23" s="139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="203" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="203"/>
+      <c r="K25" s="139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26" s="203"/>
+      <c r="K26" s="139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="203"/>
+      <c r="K27" s="139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="203"/>
+      <c r="K28" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="203"/>
+      <c r="K29" s="139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="203"/>
+      <c r="K30" s="139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="203"/>
+      <c r="K32" s="139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="203"/>
+      <c r="K33" s="139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="203"/>
+      <c r="K34" s="139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="203"/>
+      <c r="K35" s="139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="203" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="203"/>
+      <c r="K37" s="139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="203"/>
+      <c r="K38" s="139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="203"/>
+      <c r="K39" s="139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="203"/>
+      <c r="K40" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="203"/>
+      <c r="K41" s="139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" s="203"/>
+      <c r="K42" s="139" t="s">
         <v>182</v>
-      </c>
-      <c r="F7" s="129" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="129"/>
-      <c r="J7" s="202" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="141" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="204"/>
-      <c r="B8" s="139"/>
-      <c r="F8" s="129" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="129"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="141" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="204"/>
-      <c r="B9" s="139"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="204"/>
-      <c r="B10" s="139"/>
-      <c r="F10" s="135"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="141" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="204"/>
-      <c r="B11" s="139"/>
-      <c r="F11" s="135"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="205"/>
-      <c r="B12" s="140"/>
-      <c r="F12" s="135"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="141" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="202"/>
-      <c r="K13" s="141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="J14" s="202" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="141" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="J15" s="202"/>
-      <c r="K15" s="141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="202"/>
-      <c r="K16" s="141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="202"/>
-      <c r="K17" s="141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="202"/>
-      <c r="K18" s="141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="202"/>
-      <c r="K19" s="141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="202"/>
-      <c r="K20" s="141" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="202"/>
-      <c r="K21" s="141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="202"/>
-      <c r="K22" s="141" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="202"/>
-      <c r="K23" s="141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="202" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="202"/>
-      <c r="K25" s="141" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="202"/>
-      <c r="K26" s="141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="202"/>
-      <c r="K27" s="141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="202"/>
-      <c r="K28" s="141" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="202"/>
-      <c r="K29" s="141" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="202"/>
-      <c r="K30" s="141" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="202" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="141" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="202"/>
-      <c r="K32" s="141" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="202"/>
-      <c r="K33" s="141" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="202"/>
-      <c r="K34" s="141" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="202"/>
-      <c r="K35" s="141" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="202" t="s">
-        <v>123</v>
-      </c>
-      <c r="K36" s="141" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="202"/>
-      <c r="K37" s="141" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="202"/>
-      <c r="K38" s="141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="202"/>
-      <c r="K39" s="141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="202"/>
-      <c r="K40" s="141" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="202"/>
-      <c r="K41" s="141" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="202"/>
-      <c r="K42" s="141" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
+++ b/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="209">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -517,9 +517,6 @@
     <t>Revisado Analista responsable</t>
   </si>
   <si>
-    <t>Adecuación de Software Factory Unidad Mantenimiento Evolutivo Front End.</t>
-  </si>
-  <si>
     <t>Jefe de Fábrica:</t>
   </si>
   <si>
@@ -793,6 +790,21 @@
   </si>
   <si>
     <t>HGPPQA Herramienta de Gestión QA-Producto</t>
+  </si>
+  <si>
+    <t>Matriz de Trazabilidad de Requerimientos a Documentos</t>
+  </si>
+  <si>
+    <t>Adecuación de Sistema de Facturación y Control de Inventario.</t>
+  </si>
+  <si>
+    <t>Num de Nconformidades QA del Producto</t>
+  </si>
+  <si>
+    <t>Jack Pinao</t>
+  </si>
+  <si>
+    <t>Irregularidad en las fechas</t>
   </si>
 </sst>
 </file>
@@ -2361,102 +2373,118 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2478,14 +2506,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2498,6 +2518,57 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2506,18 +2577,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2526,45 +2585,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2576,14 +2596,6 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -2799,9 +2811,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3118,9 +3128,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3139,9 +3147,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3160,9 +3166,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3197,9 +3201,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3232,7 +3234,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3241,7 +3243,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -3533,7 +3535,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3577,11 +3578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="285653552"/>
-        <c:axId val="287702808"/>
+        <c:axId val="127966216"/>
+        <c:axId val="127967000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285653552"/>
+        <c:axId val="127966216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3616,7 +3617,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287702808"/>
+        <c:crossAx val="127967000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3626,7 +3627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287702808"/>
+        <c:axId val="127967000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3671,7 +3672,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285653552"/>
+        <c:crossAx val="127966216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3947,7 +3948,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4024,7 +4024,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4101,7 +4100,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4129,12 +4127,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="287704768"/>
-        <c:axId val="287702416"/>
+        <c:axId val="286580680"/>
+        <c:axId val="286579896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="287704768"/>
+        <c:axId val="286580680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4206,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287702416"/>
+        <c:crossAx val="286579896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4218,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287702416"/>
+        <c:axId val="286579896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,7 +4300,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287704768"/>
+        <c:crossAx val="286580680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5036,8 +5034,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5066,15 +5064,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5122,19 +5120,19 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="74">
-        <v>40951</v>
+        <v>42179</v>
       </c>
       <c r="E5" s="75" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F5" s="75" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="G5" s="76" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="I5" s="67"/>
     </row>
@@ -5207,7 +5205,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5225,22 +5223,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="165" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="C2" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="173" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+        <v>169</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="168"/>
+      <c r="E3" s="169"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -5252,12 +5250,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="170"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="164"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -5280,10 +5278,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="92"/>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="172"/>
+      <c r="E8" s="166"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
@@ -5369,62 +5367,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="155"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="162" t="s">
+      <c r="C20" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="164"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="158"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="150" t="s">
+      <c r="C21" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="172"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="172"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="172"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5437,57 +5435,57 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="159" t="s">
+      <c r="B27" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="161"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="155"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="162" t="s">
+      <c r="C28" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="163"/>
-      <c r="E28" s="164"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="158"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="158"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="175"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="146" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5496,11 +5494,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5509,11 +5507,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5522,174 +5520,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="C35" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="149"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="158"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="175"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="146" t="s">
+      <c r="C37" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="147"/>
-      <c r="E38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="149"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="146" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="147"/>
-      <c r="E40" s="148"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="149"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="146" t="s">
+      <c r="C41" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="149"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="149"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="146" t="s">
+      <c r="C43" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="149"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="146" t="s">
+      <c r="C44" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="149"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="146" t="s">
+      <c r="C45" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="147"/>
-      <c r="E45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="149"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="146" t="s">
+      <c r="C46" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="149"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="146" t="s">
+      <c r="C47" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="149"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="147"/>
-      <c r="E48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="149"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="149"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -5722,23 +5720,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="159" t="s">
+      <c r="B52" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="161"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="155"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="162" t="s">
+      <c r="C53" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="163"/>
-      <c r="E53" s="164"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="158"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5751,134 +5749,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="38"/>
       <c r="B54" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="147"/>
-      <c r="E54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="149"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="149"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="C56" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="147"/>
-      <c r="E56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="149"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="146" t="s">
+      <c r="C57" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="153"/>
-      <c r="E57" s="154"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="152"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="C58" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="153"/>
-      <c r="E58" s="154"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="152"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="146" t="s">
+      <c r="C59" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="153"/>
-      <c r="E59" s="154"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="152"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="146" t="s">
+      <c r="C60" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="153"/>
-      <c r="E60" s="154"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="152"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="155" t="s">
+      <c r="C61" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="153"/>
-      <c r="E61" s="154"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="152"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="C62" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="153"/>
-      <c r="E62" s="154"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="152"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="155" t="s">
+      <c r="C63" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="153"/>
-      <c r="E63" s="154"/>
+      <c r="D63" s="151"/>
+      <c r="E63" s="152"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="155" t="s">
+      <c r="C64" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="153"/>
-      <c r="E64" s="154"/>
+      <c r="D64" s="151"/>
+      <c r="E64" s="152"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="146" t="s">
+      <c r="C65" s="147" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="147"/>
-      <c r="E65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="149"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5889,200 +5887,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
+      <c r="E67" s="177"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
-      <c r="E68" s="145"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="176"/>
+      <c r="D68" s="176"/>
+      <c r="E68" s="176"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="145"/>
-      <c r="C69" s="145"/>
-      <c r="D69" s="145"/>
-      <c r="E69" s="145"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="176"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="145"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="176"/>
+      <c r="D70" s="176"/>
+      <c r="E70" s="176"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="145"/>
-      <c r="C71" s="145"/>
-      <c r="D71" s="145"/>
-      <c r="E71" s="145"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="176"/>
+      <c r="D71" s="176"/>
+      <c r="E71" s="176"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="145"/>
-      <c r="E72" s="145"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="176"/>
+      <c r="D72" s="176"/>
+      <c r="E72" s="176"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="145"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="145"/>
-      <c r="E73" s="145"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="176"/>
+      <c r="D73" s="176"/>
+      <c r="E73" s="176"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="145"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="145"/>
-      <c r="E74" s="145"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="176"/>
+      <c r="D74" s="176"/>
+      <c r="E74" s="176"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="145"/>
-      <c r="C75" s="145"/>
-      <c r="D75" s="145"/>
-      <c r="E75" s="145"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="176"/>
+      <c r="D75" s="176"/>
+      <c r="E75" s="176"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="145"/>
-      <c r="C76" s="145"/>
-      <c r="D76" s="145"/>
-      <c r="E76" s="145"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="176"/>
+      <c r="D76" s="176"/>
+      <c r="E76" s="176"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="145"/>
-      <c r="C77" s="145"/>
-      <c r="D77" s="145"/>
-      <c r="E77" s="145"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
+      <c r="D77" s="176"/>
+      <c r="E77" s="176"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="145"/>
-      <c r="C78" s="145"/>
-      <c r="D78" s="145"/>
-      <c r="E78" s="145"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="176"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="145"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
+      <c r="E79" s="176"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="145"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="145"/>
-      <c r="E80" s="145"/>
+      <c r="B80" s="176"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="176"/>
+      <c r="E80" s="176"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="145"/>
-      <c r="C81" s="145"/>
-      <c r="D81" s="145"/>
-      <c r="E81" s="145"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="176"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="145"/>
-      <c r="C82" s="145"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="145"/>
+      <c r="B82" s="176"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="176"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="145"/>
-      <c r="C83" s="145"/>
-      <c r="D83" s="145"/>
-      <c r="E83" s="145"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145"/>
+      <c r="B84" s="176"/>
+      <c r="C84" s="176"/>
+      <c r="D84" s="176"/>
+      <c r="E84" s="176"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="145"/>
-      <c r="C85" s="145"/>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145"/>
+      <c r="B85" s="176"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="176"/>
+      <c r="E85" s="176"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="145"/>
-      <c r="C86" s="145"/>
-      <c r="D86" s="145"/>
-      <c r="E86" s="145"/>
+      <c r="B86" s="176"/>
+      <c r="C86" s="176"/>
+      <c r="D86" s="176"/>
+      <c r="E86" s="176"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6095,36 +6093,27 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -6141,27 +6130,36 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6178,8 +6176,8 @@
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6189,7 +6187,8 @@
     <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="16.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="11.42578125" style="3"/>
@@ -6200,69 +6199,69 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="181"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="176" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="181" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="176" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="178"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="181"/>
+      <c r="F7" s="182"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="176" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="181"/>
+      <c r="F8" s="182"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="182"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="108">
         <v>42157</v>
       </c>
@@ -6275,15 +6274,15 @@
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="176" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="178"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6298,16 +6297,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>23</v>
@@ -6331,7 +6330,7 @@
         <v>15</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="24.75" thickBot="1">
@@ -6339,36 +6338,36 @@
         <v>1</v>
       </c>
       <c r="C13" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F13" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="104">
-        <v>42157</v>
+        <v>42144</v>
       </c>
       <c r="I13" s="104">
-        <v>42157</v>
+        <v>42144</v>
       </c>
       <c r="J13" s="128">
         <v>1</v>
       </c>
       <c r="K13" s="104">
-        <v>42173</v>
+        <v>42145</v>
       </c>
       <c r="L13" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M13" s="105">
+        <v>42145</v>
+      </c>
+      <c r="M13" s="128">
         <v>3</v>
       </c>
       <c r="N13" s="105"/>
@@ -6378,36 +6377,36 @@
         <v>2</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G14" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="104">
-        <v>42158</v>
+        <v>42180</v>
       </c>
       <c r="I14" s="104">
-        <v>42158</v>
+        <v>42180</v>
       </c>
       <c r="J14" s="128">
         <v>2</v>
       </c>
       <c r="K14" s="104">
-        <v>42173</v>
+        <v>42180</v>
       </c>
       <c r="L14" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M14" s="105">
+        <v>42180</v>
+      </c>
+      <c r="M14" s="128">
         <v>4</v>
       </c>
       <c r="N14" s="105"/>
@@ -6417,36 +6416,36 @@
         <v>3</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H15" s="104">
-        <v>42157</v>
+        <v>42131</v>
       </c>
       <c r="I15" s="104">
-        <v>42157</v>
+        <v>42131</v>
       </c>
       <c r="J15" s="128">
         <v>3</v>
       </c>
       <c r="K15" s="104">
-        <v>42173</v>
+        <v>42134</v>
       </c>
       <c r="L15" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M15" s="105">
+        <v>42134</v>
+      </c>
+      <c r="M15" s="128">
         <v>3</v>
       </c>
       <c r="N15" s="105"/>
@@ -6456,36 +6455,36 @@
         <v>4</v>
       </c>
       <c r="C16" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H16" s="104">
-        <v>42165</v>
+        <v>42152</v>
       </c>
       <c r="I16" s="104">
-        <v>42165</v>
+        <v>42152</v>
       </c>
       <c r="J16" s="128">
         <v>2</v>
       </c>
       <c r="K16" s="104">
-        <v>42173</v>
+        <v>42153</v>
       </c>
       <c r="L16" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M16" s="105">
+        <v>42153</v>
+      </c>
+      <c r="M16" s="128">
         <v>2</v>
       </c>
       <c r="N16" s="105"/>
@@ -6495,36 +6494,36 @@
         <v>5</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H17" s="104">
-        <v>42170</v>
+        <v>42152</v>
       </c>
       <c r="I17" s="104">
-        <v>42170</v>
+        <v>42152</v>
       </c>
       <c r="J17" s="128">
         <v>3</v>
       </c>
       <c r="K17" s="104">
-        <v>42173</v>
+        <v>42153</v>
       </c>
       <c r="L17" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M17" s="105">
+        <v>42153</v>
+      </c>
+      <c r="M17" s="128">
         <v>3</v>
       </c>
       <c r="N17" s="105"/>
@@ -6534,36 +6533,36 @@
         <v>6</v>
       </c>
       <c r="C18" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E18" s="103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" s="104">
-        <v>42157</v>
+        <v>42173</v>
       </c>
       <c r="I18" s="104">
-        <v>42157</v>
+        <v>42173</v>
       </c>
       <c r="J18" s="128">
         <v>2</v>
       </c>
       <c r="K18" s="104">
-        <v>42173</v>
+        <v>42174</v>
       </c>
       <c r="L18" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M18" s="105">
+        <v>42174</v>
+      </c>
+      <c r="M18" s="128">
         <v>3</v>
       </c>
       <c r="N18" s="105"/>
@@ -6573,36 +6572,36 @@
         <v>7</v>
       </c>
       <c r="C19" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G19" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H19" s="104">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="I19" s="104">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="J19" s="128">
         <v>2</v>
       </c>
       <c r="K19" s="104">
-        <v>42179</v>
+        <v>42180</v>
       </c>
       <c r="L19" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M19" s="105">
+        <v>42180</v>
+      </c>
+      <c r="M19" s="128">
         <v>3</v>
       </c>
       <c r="N19" s="105"/>
@@ -6612,36 +6611,36 @@
         <v>8</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G20" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="104">
-        <v>42160</v>
+        <v>42159</v>
       </c>
       <c r="I20" s="104">
-        <v>42160</v>
+        <v>42159</v>
       </c>
       <c r="J20" s="128">
         <v>2</v>
       </c>
       <c r="K20" s="104">
-        <v>42173</v>
+        <v>42159</v>
       </c>
       <c r="L20" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M20" s="105">
+        <v>42159</v>
+      </c>
+      <c r="M20" s="128">
         <v>2</v>
       </c>
       <c r="N20" s="105"/>
@@ -6651,36 +6650,36 @@
         <v>9</v>
       </c>
       <c r="C21" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E21" s="103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H21" s="104">
-        <v>42178</v>
+        <v>42199</v>
       </c>
       <c r="I21" s="104">
-        <v>42178</v>
+        <v>42199</v>
       </c>
       <c r="J21" s="128">
         <v>2</v>
       </c>
       <c r="K21" s="104">
-        <v>42179</v>
+        <v>42199</v>
       </c>
       <c r="L21" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M21" s="105">
+        <v>42199</v>
+      </c>
+      <c r="M21" s="128">
         <v>2</v>
       </c>
       <c r="N21" s="105"/>
@@ -6690,36 +6689,36 @@
         <v>10</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E22" s="103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F22" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H22" s="104">
-        <v>42159</v>
+        <v>42166</v>
       </c>
       <c r="I22" s="104">
-        <v>42159</v>
+        <v>42166</v>
       </c>
       <c r="J22" s="128">
         <v>2</v>
       </c>
       <c r="K22" s="104">
-        <v>42173</v>
+        <v>42167</v>
       </c>
       <c r="L22" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M22" s="105">
+        <v>42167</v>
+      </c>
+      <c r="M22" s="128">
         <v>3</v>
       </c>
       <c r="N22" s="105"/>
@@ -6729,36 +6728,36 @@
         <v>11</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G23" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H23" s="104">
-        <v>42158</v>
+        <v>42166</v>
       </c>
       <c r="I23" s="104">
-        <v>42158</v>
+        <v>42166</v>
       </c>
       <c r="J23" s="128">
         <v>3</v>
       </c>
       <c r="K23" s="104">
-        <v>42173</v>
+        <v>42167</v>
       </c>
       <c r="L23" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M23" s="105">
+        <v>42167</v>
+      </c>
+      <c r="M23" s="128">
         <v>3</v>
       </c>
       <c r="N23" s="105"/>
@@ -6768,36 +6767,36 @@
         <v>12</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F24" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G24" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="104">
-        <v>42158</v>
+        <v>42171</v>
       </c>
       <c r="I24" s="104">
-        <v>42158</v>
+        <v>42171</v>
       </c>
       <c r="J24" s="128">
         <v>2</v>
       </c>
       <c r="K24" s="104">
-        <v>42173</v>
+        <v>42172</v>
       </c>
       <c r="L24" s="104">
-        <v>42173</v>
-      </c>
-      <c r="M24" s="105">
+        <v>42172</v>
+      </c>
+      <c r="M24" s="128">
         <v>2</v>
       </c>
       <c r="N24" s="105"/>
@@ -6807,36 +6806,36 @@
         <v>13</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G25" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H25" s="104">
-        <v>42163</v>
+        <v>42179</v>
       </c>
       <c r="I25" s="104">
-        <v>42163</v>
+        <v>42179</v>
       </c>
       <c r="J25" s="128">
         <v>2</v>
       </c>
       <c r="K25" s="104">
-        <v>42179</v>
+        <v>42180</v>
       </c>
       <c r="L25" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M25" s="105">
+        <v>42180</v>
+      </c>
+      <c r="M25" s="128">
         <v>3</v>
       </c>
       <c r="N25" s="105"/>
@@ -6846,36 +6845,36 @@
         <v>14</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="104">
-        <v>42159</v>
+        <v>42173</v>
       </c>
       <c r="I26" s="104">
-        <v>42159</v>
+        <v>42173</v>
       </c>
       <c r="J26" s="128">
         <v>2</v>
       </c>
       <c r="K26" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="L26" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M26" s="105">
+        <v>42174</v>
+      </c>
+      <c r="M26" s="128">
         <v>4</v>
       </c>
       <c r="N26" s="105"/>
@@ -6885,25 +6884,25 @@
         <v>15</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E27" s="103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F27" s="103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="104">
-        <v>42160</v>
+        <v>42178</v>
       </c>
       <c r="I27" s="104">
-        <v>42160</v>
+        <v>42178</v>
       </c>
       <c r="J27" s="128">
         <v>2</v>
@@ -6914,7 +6913,7 @@
       <c r="L27" s="104">
         <v>42179</v>
       </c>
-      <c r="M27" s="105">
+      <c r="M27" s="128">
         <v>2</v>
       </c>
       <c r="N27" s="105"/>
@@ -6924,36 +6923,36 @@
         <v>16</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E28" s="103" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" s="103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H28" s="104">
-        <v>42171</v>
+        <v>42179</v>
       </c>
       <c r="I28" s="104">
-        <v>42171</v>
+        <v>42179</v>
       </c>
       <c r="J28" s="128">
         <v>3</v>
       </c>
       <c r="K28" s="104">
-        <v>42179</v>
+        <v>42180</v>
       </c>
       <c r="L28" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M28" s="105">
+        <v>42180</v>
+      </c>
+      <c r="M28" s="128">
         <v>3</v>
       </c>
       <c r="N28" s="105"/>
@@ -6963,36 +6962,36 @@
         <v>17</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F29" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H29" s="104">
-        <v>42172</v>
+        <v>42173</v>
       </c>
       <c r="I29" s="104">
-        <v>42172</v>
+        <v>42173</v>
       </c>
       <c r="J29" s="128">
         <v>2</v>
       </c>
       <c r="K29" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="L29" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M29" s="105">
+        <v>42174</v>
+      </c>
+      <c r="M29" s="128">
         <v>2</v>
       </c>
       <c r="N29" s="105"/>
@@ -7002,19 +7001,19 @@
         <v>18</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E30" s="103" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F30" s="103" t="s">
         <v>183</v>
       </c>
       <c r="G30" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H30" s="104">
         <v>42173</v>
@@ -7026,12 +7025,12 @@
         <v>3</v>
       </c>
       <c r="K30" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="L30" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M30" s="105">
+        <v>42174</v>
+      </c>
+      <c r="M30" s="128">
         <v>3</v>
       </c>
       <c r="N30" s="105"/>
@@ -7041,36 +7040,36 @@
         <v>19</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="103" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F31" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H31" s="104">
-        <v>42164</v>
+        <v>42199</v>
       </c>
       <c r="I31" s="104">
-        <v>42164</v>
+        <v>42199</v>
       </c>
       <c r="J31" s="128">
         <v>2</v>
       </c>
       <c r="K31" s="104">
-        <v>42179</v>
+        <v>42200</v>
       </c>
       <c r="L31" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M31" s="105">
+        <v>42200</v>
+      </c>
+      <c r="M31" s="128">
         <v>2</v>
       </c>
       <c r="N31" s="105"/>
@@ -7080,36 +7079,36 @@
         <v>20</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D32" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H32" s="104">
-        <v>42164</v>
+        <v>42199</v>
       </c>
       <c r="I32" s="104">
-        <v>42164</v>
+        <v>42199</v>
       </c>
       <c r="J32" s="128">
         <v>2</v>
       </c>
       <c r="K32" s="104">
-        <v>42179</v>
+        <v>42200</v>
       </c>
       <c r="L32" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M32" s="105">
+        <v>42200</v>
+      </c>
+      <c r="M32" s="128">
         <v>3</v>
       </c>
       <c r="N32" s="105"/>
@@ -7119,36 +7118,36 @@
         <v>21</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E33" s="103" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33" s="103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G33" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="104">
-        <v>42166</v>
+        <v>42136</v>
       </c>
       <c r="I33" s="104">
-        <v>42166</v>
+        <v>42136</v>
       </c>
       <c r="J33" s="128">
         <v>2</v>
       </c>
       <c r="K33" s="104">
-        <v>42179</v>
+        <v>42137</v>
       </c>
       <c r="L33" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M33" s="105">
+        <v>42137</v>
+      </c>
+      <c r="M33" s="128">
         <v>2</v>
       </c>
       <c r="N33" s="105"/>
@@ -7159,36 +7158,36 @@
         <v>22</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E34" s="103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F34" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G34" s="103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H34" s="104">
-        <v>42167</v>
+        <v>42173</v>
       </c>
       <c r="I34" s="104">
-        <v>42167</v>
+        <v>42173</v>
       </c>
       <c r="J34" s="128">
         <v>3</v>
       </c>
       <c r="K34" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="L34" s="104">
-        <v>42179</v>
-      </c>
-      <c r="M34" s="105">
+        <v>42174</v>
+      </c>
+      <c r="M34" s="128">
         <v>3</v>
       </c>
       <c r="N34" s="105"/>
@@ -7422,17 +7421,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -7464,11 +7463,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7483,28 +7482,29 @@
     <col min="8" max="9" width="16.5703125" style="19" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" style="19" customWidth="1"/>
     <col min="11" max="11" width="31.7109375" style="19" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="12" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="17" customWidth="1"/>
+    <col min="13" max="14" width="12" style="17" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" style="19" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7535,10 +7535,10 @@
         <v>91</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>111</v>
@@ -7556,7 +7556,7 @@
         <v>33</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>34</v>
@@ -7586,17 +7586,17 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D5" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="207" t="s">
-        <v>183</v>
+        <v>162</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>182</v>
       </c>
       <c r="F5" s="112" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
       <c r="G5" s="114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="113" t="s">
         <v>37</v>
@@ -7604,15 +7604,15 @@
       <c r="I5" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="208" t="s">
-        <v>183</v>
+      <c r="J5" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K5" s="115"/>
       <c r="L5" s="104">
-        <v>42157</v>
+        <v>42144</v>
       </c>
       <c r="M5" s="104">
-        <v>42173</v>
+        <v>42145</v>
       </c>
       <c r="N5" s="116">
         <f>IF(M5&gt;0,1,0)</f>
@@ -7632,33 +7632,33 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="207" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F6" s="112" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
       <c r="G6" s="114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="208" t="s">
-        <v>183</v>
+      <c r="J6" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K6" s="115"/>
       <c r="L6" s="104">
-        <v>42158</v>
+        <v>42180</v>
       </c>
       <c r="M6" s="104">
-        <v>42173</v>
+        <v>42180</v>
       </c>
       <c r="N6" s="116">
         <f t="shared" ref="N6:N15" si="0">IF(M6&gt;0,1,0)</f>
@@ -7678,31 +7678,33 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D7" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="207" t="s">
-        <v>185</v>
+        <v>147</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>184</v>
       </c>
       <c r="F7" s="112" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G7" s="114"/>
+      <c r="G7" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="H7" s="113" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="208" t="s">
-        <v>183</v>
+      <c r="J7" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K7" s="115"/>
       <c r="L7" s="104">
-        <v>42157</v>
+        <v>42131</v>
       </c>
       <c r="M7" s="104">
-        <v>42173</v>
+        <v>42134</v>
       </c>
       <c r="N7" s="116">
         <f t="shared" si="0"/>
@@ -7722,10 +7724,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="207" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>185</v>
       </c>
       <c r="F8" s="112" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7733,20 +7735,20 @@
       </c>
       <c r="G8" s="114"/>
       <c r="H8" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="208" t="s">
-        <v>183</v>
+      <c r="J8" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K8" s="115"/>
       <c r="L8" s="104">
-        <v>42165</v>
+        <v>42152</v>
       </c>
       <c r="M8" s="104">
-        <v>42173</v>
+        <v>42153</v>
       </c>
       <c r="N8" s="116">
         <f t="shared" si="0"/>
@@ -7766,10 +7768,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="207" t="s">
-        <v>186</v>
+        <v>178</v>
+      </c>
+      <c r="E9" s="144" t="s">
+        <v>185</v>
       </c>
       <c r="F9" s="112" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7777,20 +7779,20 @@
       </c>
       <c r="G9" s="114"/>
       <c r="H9" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="208" t="s">
-        <v>183</v>
+      <c r="J9" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K9" s="115"/>
       <c r="L9" s="104">
-        <v>42170</v>
+        <v>42152</v>
       </c>
       <c r="M9" s="104">
-        <v>42173</v>
+        <v>42153</v>
       </c>
       <c r="N9" s="116">
         <f t="shared" si="0"/>
@@ -7810,10 +7812,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D10" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="207" t="s">
-        <v>187</v>
+        <v>179</v>
+      </c>
+      <c r="E10" s="144" t="s">
+        <v>186</v>
       </c>
       <c r="F10" s="112" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7821,20 +7823,20 @@
       </c>
       <c r="G10" s="114"/>
       <c r="H10" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="208" t="s">
-        <v>183</v>
+      <c r="J10" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K10" s="115"/>
       <c r="L10" s="104">
-        <v>42157</v>
+        <v>42173</v>
       </c>
       <c r="M10" s="104">
-        <v>42173</v>
+        <v>42174</v>
       </c>
       <c r="N10" s="116">
         <f t="shared" si="0"/>
@@ -7854,10 +7856,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D11" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="207" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="E11" s="144" t="s">
+        <v>182</v>
       </c>
       <c r="F11" s="112" t="str">
         <f>VLOOKUP(B11,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7865,20 +7867,20 @@
       </c>
       <c r="G11" s="114"/>
       <c r="H11" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="208" t="s">
-        <v>183</v>
+      <c r="J11" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K11" s="115"/>
       <c r="L11" s="104">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="M11" s="104">
-        <v>42179</v>
+        <v>42180</v>
       </c>
       <c r="N11" s="116">
         <f t="shared" si="0"/>
@@ -7898,10 +7900,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D12" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="207" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="E12" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F12" s="112" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7909,20 +7911,20 @@
       </c>
       <c r="G12" s="114"/>
       <c r="H12" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="208" t="s">
-        <v>183</v>
+      <c r="J12" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K12" s="115"/>
       <c r="L12" s="104">
-        <v>42160</v>
+        <v>42159</v>
       </c>
       <c r="M12" s="104">
-        <v>42173</v>
+        <v>42159</v>
       </c>
       <c r="N12" s="116">
         <f t="shared" si="0"/>
@@ -7942,10 +7944,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D13" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="207" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="E13" s="144" t="s">
+        <v>184</v>
       </c>
       <c r="F13" s="112" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7953,20 +7955,20 @@
       </c>
       <c r="G13" s="114"/>
       <c r="H13" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="208" t="s">
-        <v>183</v>
+      <c r="J13" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K13" s="115"/>
       <c r="L13" s="104">
-        <v>42178</v>
+        <v>42199</v>
       </c>
       <c r="M13" s="104">
-        <v>42179</v>
+        <v>42199</v>
       </c>
       <c r="N13" s="116">
         <f t="shared" si="0"/>
@@ -7986,10 +7988,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="207" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F14" s="112" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -7997,20 +7999,20 @@
       </c>
       <c r="G14" s="114"/>
       <c r="H14" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="208" t="s">
-        <v>183</v>
+      <c r="J14" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K14" s="115"/>
       <c r="L14" s="104">
-        <v>42159</v>
+        <v>42166</v>
       </c>
       <c r="M14" s="104">
-        <v>42173</v>
+        <v>42167</v>
       </c>
       <c r="N14" s="116">
         <f t="shared" si="0"/>
@@ -8030,10 +8032,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="207" t="s">
-        <v>184</v>
+        <v>201</v>
+      </c>
+      <c r="E15" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F15" s="112" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8041,20 +8043,20 @@
       </c>
       <c r="G15" s="114"/>
       <c r="H15" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="208" t="s">
-        <v>183</v>
+      <c r="J15" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="K15" s="115"/>
       <c r="L15" s="104">
-        <v>42158</v>
+        <v>42166</v>
       </c>
       <c r="M15" s="104">
-        <v>42173</v>
+        <v>42167</v>
       </c>
       <c r="N15" s="116">
         <f t="shared" si="0"/>
@@ -8074,10 +8076,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D16" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="207" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+      <c r="E16" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F16" s="112" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8085,22 +8087,22 @@
       </c>
       <c r="G16" s="114"/>
       <c r="H16" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="208" t="s">
-        <v>183</v>
+      <c r="J16" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L16" s="104">
-        <v>42158</v>
+        <v>42171</v>
       </c>
       <c r="M16" s="104">
-        <v>42173</v>
+        <v>42172</v>
       </c>
       <c r="N16" s="116">
-        <f t="shared" ref="N6:N26" si="1">IF(M16&gt;0,1,0)</f>
+        <f t="shared" ref="N16:N26" si="1">IF(M16&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="O16" s="132"/>
@@ -8117,10 +8119,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D17" s="103" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="207" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>185</v>
       </c>
       <c r="F17" s="112" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8133,14 +8135,14 @@
       <c r="I17" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J17" s="208" t="s">
-        <v>183</v>
+      <c r="J17" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L17" s="104">
-        <v>42163</v>
+        <v>42179</v>
       </c>
       <c r="M17" s="104">
-        <v>42179</v>
+        <v>42180</v>
       </c>
       <c r="N17" s="116">
         <f t="shared" si="1"/>
@@ -8160,10 +8162,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="207" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="E18" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F18" s="112" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8176,14 +8178,14 @@
       <c r="I18" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="208" t="s">
-        <v>183</v>
+      <c r="J18" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L18" s="104">
-        <v>42159</v>
+        <v>42173</v>
       </c>
       <c r="M18" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="N18" s="116">
         <f t="shared" si="1"/>
@@ -8203,10 +8205,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D19" s="103" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="207" t="s">
-        <v>185</v>
+        <v>193</v>
+      </c>
+      <c r="E19" s="144" t="s">
+        <v>184</v>
       </c>
       <c r="F19" s="112" t="str">
         <f>VLOOKUP(B19,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8219,11 +8221,11 @@
       <c r="I19" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="208" t="s">
-        <v>183</v>
+      <c r="J19" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L19" s="104">
-        <v>42160</v>
+        <v>42178</v>
       </c>
       <c r="M19" s="104">
         <v>42179</v>
@@ -8246,10 +8248,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D20" s="103" t="s">
-        <v>195</v>
-      </c>
-      <c r="E20" s="207" t="s">
-        <v>185</v>
+        <v>194</v>
+      </c>
+      <c r="E20" s="144" t="s">
+        <v>184</v>
       </c>
       <c r="F20" s="112" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8257,19 +8259,19 @@
       </c>
       <c r="G20" s="114"/>
       <c r="H20" s="113" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I20" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="208" t="s">
-        <v>183</v>
+      <c r="J20" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L20" s="104">
-        <v>42171</v>
+        <v>42179</v>
       </c>
       <c r="M20" s="104">
-        <v>42179</v>
+        <v>42180</v>
       </c>
       <c r="N20" s="116">
         <f t="shared" si="1"/>
@@ -8289,10 +8291,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D21" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="207" t="s">
-        <v>183</v>
+        <v>195</v>
+      </c>
+      <c r="E21" s="144" t="s">
+        <v>182</v>
       </c>
       <c r="F21" s="112" t="str">
         <f>VLOOKUP(B21,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8300,19 +8302,19 @@
       </c>
       <c r="G21" s="114"/>
       <c r="H21" s="113" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="I21" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="208" t="s">
-        <v>183</v>
+      <c r="J21" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L21" s="104">
-        <v>42172</v>
+        <v>42173</v>
       </c>
       <c r="M21" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="N21" s="116">
         <f t="shared" si="1"/>
@@ -8332,10 +8334,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D22" s="103" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="207" t="s">
-        <v>183</v>
+        <v>196</v>
+      </c>
+      <c r="E22" s="144" t="s">
+        <v>182</v>
       </c>
       <c r="F22" s="112" t="str">
         <f>VLOOKUP(B22,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8343,19 +8345,19 @@
       </c>
       <c r="G22" s="114"/>
       <c r="H22" s="113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="208" t="s">
-        <v>183</v>
+      <c r="J22" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L22" s="104">
         <v>42173</v>
       </c>
       <c r="M22" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="N22" s="116">
         <f t="shared" si="1"/>
@@ -8375,10 +8377,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D23" s="103" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="207" t="s">
-        <v>186</v>
+        <v>197</v>
+      </c>
+      <c r="E23" s="144" t="s">
+        <v>185</v>
       </c>
       <c r="F23" s="112" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8391,14 +8393,14 @@
       <c r="I23" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="208" t="s">
-        <v>183</v>
+      <c r="J23" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L23" s="104">
-        <v>42164</v>
+        <v>42199</v>
       </c>
       <c r="M23" s="104">
-        <v>42179</v>
+        <v>42200</v>
       </c>
       <c r="N23" s="116">
         <f t="shared" si="1"/>
@@ -8418,10 +8420,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="E24" s="207" t="s">
-        <v>186</v>
+        <v>198</v>
+      </c>
+      <c r="E24" s="144" t="s">
+        <v>185</v>
       </c>
       <c r="F24" s="112" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8434,14 +8436,14 @@
       <c r="I24" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="208" t="s">
-        <v>183</v>
+      <c r="J24" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L24" s="104">
-        <v>42164</v>
+        <v>42199</v>
       </c>
       <c r="M24" s="104">
-        <v>42179</v>
+        <v>42200</v>
       </c>
       <c r="N24" s="116">
         <f t="shared" si="1"/>
@@ -8461,10 +8463,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D25" s="103" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="207" t="s">
-        <v>184</v>
+        <v>199</v>
+      </c>
+      <c r="E25" s="144" t="s">
+        <v>183</v>
       </c>
       <c r="F25" s="112" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8477,14 +8479,14 @@
       <c r="I25" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="208" t="s">
-        <v>183</v>
+      <c r="J25" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L25" s="104">
-        <v>42166</v>
+        <v>42136</v>
       </c>
       <c r="M25" s="104">
-        <v>42179</v>
+        <v>42137</v>
       </c>
       <c r="N25" s="116">
         <f t="shared" si="1"/>
@@ -8504,10 +8506,10 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D26" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="207" t="s">
-        <v>183</v>
+        <v>200</v>
+      </c>
+      <c r="E26" s="144" t="s">
+        <v>182</v>
       </c>
       <c r="F26" s="112" t="str">
         <f>VLOOKUP(B26,Planificación!$B$13:$G$93,6,FALSE)</f>
@@ -8520,14 +8522,14 @@
       <c r="I26" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="208" t="s">
-        <v>183</v>
+      <c r="J26" s="145" t="s">
+        <v>182</v>
       </c>
       <c r="L26" s="104">
-        <v>42167</v>
+        <v>42173</v>
       </c>
       <c r="M26" s="104">
-        <v>42179</v>
+        <v>42174</v>
       </c>
       <c r="N26" s="116">
         <f t="shared" si="1"/>
@@ -8580,80 +8582,80 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="187" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="189"/>
-      <c r="G4" s="189"/>
-      <c r="H4" s="189"/>
-      <c r="I4" s="190"/>
+      <c r="C4" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="202"/>
+      <c r="E4" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="193"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="191" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="192"/>
-      <c r="E5" s="188" t="str">
+      <c r="C5" s="203" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="204"/>
+      <c r="E5" s="191" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Kevin Laureano</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="189"/>
-      <c r="I5" s="190"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="194" t="s">
+      <c r="C6" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="188" t="str">
+      <c r="D6" s="190"/>
+      <c r="E6" s="191" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Manuel Saenz</v>
       </c>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="198">
+      <c r="D7" s="195"/>
+      <c r="E7" s="196">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42157</v>
       </c>
-      <c r="F7" s="199"/>
-      <c r="G7" s="200" t="s">
+      <c r="F7" s="197"/>
+      <c r="G7" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="201"/>
+      <c r="H7" s="199"/>
       <c r="I7" s="117">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42179</v>
@@ -8661,24 +8663,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="202"/>
-      <c r="E8" s="188" t="str">
+      <c r="D8" s="200"/>
+      <c r="E8" s="191" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>Junio</v>
       </c>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="196"/>
+      <c r="D13" s="194"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -8762,10 +8764,10 @@
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="193"/>
+      <c r="D26" s="188"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -8777,16 +8779,16 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D28" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C28)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C29)</f>
@@ -8795,7 +8797,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="122" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C30)</f>
@@ -8808,7 +8810,7 @@
       </c>
       <c r="D31" s="121">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -8830,10 +8832,10 @@
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="193" t="s">
+      <c r="C39" s="188" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="193"/>
+      <c r="D39" s="188"/>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="123" t="s">
@@ -8863,10 +8865,10 @@
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="193" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="193"/>
+      <c r="C56" s="188" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="188"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -8914,6 +8916,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -8925,11 +8932,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8970,10 +8972,10 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="125" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="125" t="s">
-        <v>126</v>
       </c>
       <c r="D2" s="125" t="s">
         <v>33</v>
@@ -8982,13 +8984,13 @@
         <v>96</v>
       </c>
       <c r="H2" s="125" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="125" t="s">
-        <v>125</v>
-      </c>
       <c r="K2" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
@@ -8998,321 +9000,321 @@
         <v>95</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" s="127" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="203" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="J3" s="205" t="s">
+        <v>117</v>
       </c>
       <c r="K3" s="139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="204" t="s">
-        <v>157</v>
+      <c r="A4" s="206" t="s">
+        <v>156</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="127" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="203"/>
+        <v>118</v>
+      </c>
+      <c r="J4" s="205"/>
       <c r="K4" s="139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="205"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="127" t="s">
         <v>98</v>
       </c>
       <c r="F5" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="205"/>
+      <c r="K5" s="139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="207"/>
+      <c r="B6" s="142" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="127" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="203"/>
-      <c r="K5" s="139" t="s">
+      <c r="H6" s="127"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="139" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="205"/>
-      <c r="B6" s="142" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="207"/>
+      <c r="B7" s="142" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="127"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="139" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="205"/>
-      <c r="B7" s="142" t="s">
-        <v>176</v>
       </c>
       <c r="F7" s="127" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="127"/>
-      <c r="J7" s="203" t="s">
-        <v>127</v>
+      <c r="J7" s="205" t="s">
+        <v>126</v>
       </c>
       <c r="K7" s="139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="205"/>
+      <c r="A8" s="207"/>
       <c r="B8" s="137"/>
       <c r="F8" s="127" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="127"/>
-      <c r="J8" s="203"/>
+      <c r="J8" s="205"/>
       <c r="K8" s="139" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="207"/>
+      <c r="B9" s="137"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="139" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="205"/>
-      <c r="B9" s="137"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="139" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="205"/>
+      <c r="A10" s="207"/>
       <c r="B10" s="137"/>
       <c r="F10" s="133"/>
-      <c r="J10" s="203"/>
+      <c r="J10" s="205"/>
       <c r="K10" s="139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="205"/>
+      <c r="A11" s="207"/>
       <c r="B11" s="137"/>
       <c r="F11" s="133"/>
-      <c r="J11" s="203"/>
+      <c r="J11" s="205"/>
       <c r="K11" s="139" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="206"/>
+      <c r="A12" s="208"/>
       <c r="B12" s="138"/>
       <c r="F12" s="133"/>
-      <c r="J12" s="203"/>
+      <c r="J12" s="205"/>
       <c r="K12" s="139" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="205"/>
+      <c r="K13" s="139" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="203"/>
-      <c r="K13" s="139" t="s">
+    <row r="14" spans="1:11">
+      <c r="J14" s="205" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="139" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="205"/>
+      <c r="K15" s="139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="205"/>
+      <c r="K16" s="139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="205"/>
+      <c r="K17" s="139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="205"/>
+      <c r="K18" s="139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="205"/>
+      <c r="K19" s="139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="205"/>
+      <c r="K20" s="139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="205"/>
+      <c r="K21" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="205"/>
+      <c r="K22" s="139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="205"/>
+      <c r="K23" s="139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="205" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="205"/>
+      <c r="K25" s="139" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="J14" s="203" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="J15" s="203"/>
-      <c r="K15" s="139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="J16" s="203"/>
-      <c r="K16" s="139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="203"/>
-      <c r="K17" s="139" t="s">
+    <row r="26" spans="10:11">
+      <c r="J26" s="205"/>
+      <c r="K26" s="139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="203"/>
-      <c r="K18" s="139" t="s">
+    <row r="27" spans="10:11">
+      <c r="J27" s="205"/>
+      <c r="K27" s="139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="203"/>
-      <c r="K19" s="139" t="s">
+    <row r="28" spans="10:11">
+      <c r="J28" s="205"/>
+      <c r="K28" s="139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29" s="205"/>
+      <c r="K29" s="139" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="205"/>
+      <c r="K30" s="139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="203"/>
-      <c r="K20" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="203"/>
-      <c r="K21" s="139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="203"/>
-      <c r="K22" s="139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="203"/>
-      <c r="K23" s="139" t="s">
+    <row r="31" spans="10:11">
+      <c r="J31" s="205" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="139" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" s="205"/>
+      <c r="K32" s="139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="205"/>
+      <c r="K33" s="139" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="203" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="203"/>
-      <c r="K25" s="139" t="s">
+    <row r="34" spans="10:11">
+      <c r="J34" s="205"/>
+      <c r="K34" s="139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="205"/>
+      <c r="K35" s="139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="205" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="139" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="205"/>
+      <c r="K37" s="139" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="205"/>
+      <c r="K38" s="139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="205"/>
+      <c r="K39" s="139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="205"/>
+      <c r="K40" s="139" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="10:11">
-      <c r="J26" s="203"/>
-      <c r="K26" s="139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="203"/>
-      <c r="K27" s="139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="203"/>
-      <c r="K28" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="203"/>
-      <c r="K29" s="139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="203"/>
-      <c r="K30" s="139" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="203" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" s="139" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="10:11">
-      <c r="J32" s="203"/>
-      <c r="K32" s="139" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="203"/>
-      <c r="K33" s="139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="203"/>
-      <c r="K34" s="139" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="203"/>
-      <c r="K35" s="139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="203" t="s">
-        <v>123</v>
-      </c>
-      <c r="K36" s="139" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="203"/>
-      <c r="K37" s="139" t="s">
+    <row r="41" spans="10:11">
+      <c r="J41" s="205"/>
+      <c r="K41" s="139" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="203"/>
-      <c r="K38" s="139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="203"/>
-      <c r="K39" s="139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="203"/>
-      <c r="K40" s="139" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="203"/>
-      <c r="K41" s="139" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="203"/>
+      <c r="J42" s="205"/>
       <c r="K42" s="139" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
+++ b/CMMI-Nivel-2/PPQA/HGPPQA_0.1_2015.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack\Documents\GitHub\sistema-facturacion-inventario\CMMI-Nivel-2\PPQA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12120" windowHeight="9120" tabRatio="642"/>
   </bookViews>
   <sheets>
     <sheet name="Historial de Revisiones" sheetId="14" r:id="rId1"/>
@@ -57,7 +52,7 @@
     <definedName name="TipoServicio" localSheetId="0">#REF!</definedName>
     <definedName name="TiposNC">Tablas!$F$3:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -67,7 +62,7 @@
     <author>kmelendez</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,6 +78,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -100,7 +96,7 @@
     <author>GMD</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,13 +109,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Las acciones realizadas para solucionar la no conformidad
 ó
@@ -127,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -149,6 +146,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>GMD:</t>
         </r>
@@ -157,6 +155,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 (dd/mm/yyyy)</t>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="209">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -816,7 +815,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="62">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -824,6 +823,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -833,6 +833,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -881,11 +882,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
@@ -895,11 +891,13 @@
     <font>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="7"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -918,6 +916,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1112,6 +1111,7 @@
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1870,41 +1870,41 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1914,16 +1914,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1964,21 +1964,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2002,14 +2002,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="12" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2020,7 +2020,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2056,14 +2056,14 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="10" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2079,7 +2079,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2094,7 +2094,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="32" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="32" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2105,27 +2105,27 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="43" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2164,10 +2164,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2207,7 +2203,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
@@ -2222,12 +2218,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="36" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="36" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="36" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="27" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="27" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,7 +2245,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="49" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2258,18 +2254,18 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2284,23 +2280,23 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="56" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2308,11 +2304,11 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="46" fillId="25" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="25" borderId="11" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="58" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="57" fillId="24" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2340,11 +2336,11 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2361,45 +2357,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="30" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="31" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,13 +2407,13 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="33" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="29" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2498,7 +2494,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2506,95 +2502,95 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="35" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="36" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="56" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="13" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="50" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="49" fillId="24" borderId="37" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="13" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="37" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="39" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2622,7 +2618,6 @@
     <cellStyle name="Cancel" xfId="21"/>
     <cellStyle name="Celda de comprobación" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="23" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="24" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="25" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="26" builtinId="33" customBuiltin="1"/>
@@ -2649,6 +2644,7 @@
     <cellStyle name="Texto de advertencia" xfId="46" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="47" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="48" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="49" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="50" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="51" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="52" builtinId="25" customBuiltin="1"/>
@@ -2669,7 +2665,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2946,7 +2942,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3354,7 +3350,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3578,11 +3574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127966216"/>
-        <c:axId val="127967000"/>
+        <c:axId val="173562496"/>
+        <c:axId val="173574016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127966216"/>
+        <c:axId val="173562496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,7 +3613,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127967000"/>
+        <c:crossAx val="173574016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3627,7 +3623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127967000"/>
+        <c:axId val="173574016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +3668,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127966216"/>
+        <c:crossAx val="173562496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3773,7 +3769,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-PE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4127,12 +4123,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="286580680"/>
-        <c:axId val="286579896"/>
+        <c:axId val="173638784"/>
+        <c:axId val="173640704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="286580680"/>
+        <c:axId val="173638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,7 +4202,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286579896"/>
+        <c:crossAx val="173640704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4216,7 +4212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286579896"/>
+        <c:axId val="173640704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4300,7 +4296,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286580680"/>
+        <c:crossAx val="173638784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4787,7 +4783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4822,7 +4818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5034,8 +5030,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5064,15 +5060,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="67"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -5136,26 +5132,40 @@
       </c>
       <c r="I5" s="67"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="36">
       <c r="A6" s="67"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="78">
+        <v>2</v>
+      </c>
+      <c r="C6" s="129">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="79">
+        <v>42164</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>165</v>
+      </c>
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="67"/>
       <c r="B7" s="78"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="80"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9">
@@ -5172,22 +5182,22 @@
     <row r="9" spans="1:9">
       <c r="A9" s="67"/>
       <c r="B9" s="78"/>
-      <c r="C9" s="135"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="79"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
       <c r="G9" s="80"/>
-      <c r="H9" s="82"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="13.5" thickBot="1">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5223,22 +5233,22 @@
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="161"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="40"/>
       <c r="B3" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="166" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="168"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="40"/>
@@ -5250,12 +5260,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="164"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="40"/>
@@ -5277,83 +5287,83 @@
       <c r="B8" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="165" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="166"/>
+      <c r="E8" s="165"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="40"/>
-      <c r="B9" s="93"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="66"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
     </row>
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="40"/>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
         <v>94</v>
       </c>
       <c r="C10" s="62"/>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="96"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="40"/>
-      <c r="B11" s="97"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="62"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="40"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>94</v>
       </c>
       <c r="C12" s="62"/>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="95"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="40"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="38"/>
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="99" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="62"/>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="95"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="38"/>
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="38"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="62"/>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="95"/>
       <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" s="53" customFormat="1" ht="12" customHeight="1">
@@ -5367,62 +5377,62 @@
       <c r="A18" s="38"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="157"/>
-      <c r="E20" s="158"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="170" t="s">
+      <c r="C21" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="171"/>
-      <c r="E21" s="172"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="170" t="s">
+      <c r="C23" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="171"/>
-      <c r="E23" s="172"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="170" t="s">
+      <c r="C24" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="172"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5435,31 +5445,31 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="155"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="38"/>
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="175"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
@@ -5468,11 +5478,11 @@
       <c r="B30" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
@@ -5481,11 +5491,11 @@
       <c r="B31" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="147" t="s">
+      <c r="C31" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="149"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5494,11 +5504,11 @@
       <c r="B32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="147" t="s">
+      <c r="C32" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="149"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5507,11 +5517,11 @@
       <c r="B33" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="147" t="s">
+      <c r="C33" s="146" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="148"/>
-      <c r="E33" s="149"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5520,178 +5530,178 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C34" s="146" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="148"/>
-      <c r="E34" s="149"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="38"/>
       <c r="B35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="148"/>
-      <c r="E35" s="149"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="38"/>
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="175"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="174"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="147" t="s">
+      <c r="C38" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="148"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="38"/>
       <c r="B39" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="149"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="148"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="38"/>
       <c r="B40" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="147" t="s">
+      <c r="C40" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="147" t="s">
+      <c r="C41" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="148"/>
-      <c r="E41" s="149"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="147" t="s">
+      <c r="C42" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="149"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="147" t="s">
+      <c r="C43" s="146" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="148"/>
-      <c r="E43" s="149"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="147" t="s">
+      <c r="C44" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="148"/>
-      <c r="E44" s="149"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="147" t="s">
+      <c r="C45" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="148"/>
-      <c r="E45" s="149"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="148"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="147" t="s">
+      <c r="C46" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="148"/>
-      <c r="E46" s="149"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="148"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="147" t="s">
+      <c r="C47" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="148"/>
-      <c r="E47" s="149"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="148"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="C48" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="148"/>
-      <c r="E48" s="149"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="147" t="s">
+      <c r="C49" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="148"/>
-      <c r="E49" s="149"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
-      <c r="B50" s="90"/>
+      <c r="B50" s="89"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -5720,23 +5730,23 @@
       <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="155"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="154"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="157"/>
-      <c r="E53" s="158"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -5751,132 +5761,132 @@
       <c r="B54" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="147" t="s">
+      <c r="C54" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="148"/>
-      <c r="E54" s="149"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="148"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="38"/>
       <c r="B55" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="147" t="s">
+      <c r="C55" s="146" t="s">
         <v>88</v>
       </c>
-      <c r="D55" s="148"/>
-      <c r="E55" s="149"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="38"/>
       <c r="B56" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="147" t="s">
+      <c r="C56" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="148"/>
-      <c r="E56" s="149"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="38"/>
       <c r="B57" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="147" t="s">
+      <c r="C57" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="151"/>
-      <c r="E57" s="152"/>
+      <c r="D57" s="150"/>
+      <c r="E57" s="151"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="38"/>
       <c r="B58" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="147" t="s">
+      <c r="C58" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152"/>
+      <c r="D58" s="150"/>
+      <c r="E58" s="151"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="38"/>
       <c r="B59" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="147" t="s">
+      <c r="C59" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="151"/>
-      <c r="E59" s="152"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="151"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="38"/>
       <c r="B60" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="147" t="s">
+      <c r="C60" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="151"/>
-      <c r="E60" s="152"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="151"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="38"/>
       <c r="B61" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="150" t="s">
+      <c r="C61" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="152"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="151"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="38"/>
       <c r="B62" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="147" t="s">
+      <c r="C62" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="152"/>
+      <c r="D62" s="150"/>
+      <c r="E62" s="151"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="38"/>
       <c r="B63" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="150" t="s">
+      <c r="C63" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="151"/>
-      <c r="E63" s="152"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="151"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="38"/>
       <c r="B64" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="149" t="s">
         <v>85</v>
       </c>
-      <c r="D64" s="151"/>
-      <c r="E64" s="152"/>
+      <c r="D64" s="150"/>
+      <c r="E64" s="151"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="38"/>
       <c r="B65" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="147" t="s">
+      <c r="C65" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="D65" s="148"/>
-      <c r="E65" s="149"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="148"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="38"/>
@@ -5887,200 +5897,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="38"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
-      <c r="E67" s="177"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="176"/>
+      <c r="D67" s="176"/>
+      <c r="E67" s="176"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="176"/>
-      <c r="D68" s="176"/>
-      <c r="E68" s="176"/>
+      <c r="B68" s="175"/>
+      <c r="C68" s="175"/>
+      <c r="D68" s="175"/>
+      <c r="E68" s="175"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="38"/>
-      <c r="B69" s="176"/>
-      <c r="C69" s="176"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="176"/>
+      <c r="B69" s="175"/>
+      <c r="C69" s="175"/>
+      <c r="D69" s="175"/>
+      <c r="E69" s="175"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="38"/>
-      <c r="B70" s="176"/>
-      <c r="C70" s="176"/>
-      <c r="D70" s="176"/>
-      <c r="E70" s="176"/>
+      <c r="B70" s="175"/>
+      <c r="C70" s="175"/>
+      <c r="D70" s="175"/>
+      <c r="E70" s="175"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="38"/>
-      <c r="B71" s="176"/>
-      <c r="C71" s="176"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="176"/>
+      <c r="B71" s="175"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="38"/>
-      <c r="B72" s="176"/>
-      <c r="C72" s="176"/>
-      <c r="D72" s="176"/>
-      <c r="E72" s="176"/>
+      <c r="B72" s="175"/>
+      <c r="C72" s="175"/>
+      <c r="D72" s="175"/>
+      <c r="E72" s="175"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="43"/>
-      <c r="B73" s="176"/>
-      <c r="C73" s="176"/>
-      <c r="D73" s="176"/>
-      <c r="E73" s="176"/>
+      <c r="B73" s="175"/>
+      <c r="C73" s="175"/>
+      <c r="D73" s="175"/>
+      <c r="E73" s="175"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="38"/>
-      <c r="B74" s="176"/>
-      <c r="C74" s="176"/>
-      <c r="D74" s="176"/>
-      <c r="E74" s="176"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="175"/>
+      <c r="D74" s="175"/>
+      <c r="E74" s="175"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="38"/>
-      <c r="B75" s="176"/>
-      <c r="C75" s="176"/>
-      <c r="D75" s="176"/>
-      <c r="E75" s="176"/>
+      <c r="B75" s="175"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="175"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="38"/>
-      <c r="B76" s="176"/>
-      <c r="C76" s="176"/>
-      <c r="D76" s="176"/>
-      <c r="E76" s="176"/>
+      <c r="B76" s="175"/>
+      <c r="C76" s="175"/>
+      <c r="D76" s="175"/>
+      <c r="E76" s="175"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="38"/>
-      <c r="B77" s="176"/>
-      <c r="C77" s="176"/>
-      <c r="D77" s="176"/>
-      <c r="E77" s="176"/>
+      <c r="B77" s="175"/>
+      <c r="C77" s="175"/>
+      <c r="D77" s="175"/>
+      <c r="E77" s="175"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="38"/>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
-      <c r="E78" s="176"/>
+      <c r="B78" s="175"/>
+      <c r="C78" s="175"/>
+      <c r="D78" s="175"/>
+      <c r="E78" s="175"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="43"/>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
-      <c r="E79" s="176"/>
+      <c r="B79" s="175"/>
+      <c r="C79" s="175"/>
+      <c r="D79" s="175"/>
+      <c r="E79" s="175"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="43"/>
-      <c r="B80" s="176"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
-      <c r="E80" s="176"/>
+      <c r="B80" s="175"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="43"/>
-      <c r="B81" s="176"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="176"/>
-      <c r="E81" s="176"/>
+      <c r="B81" s="175"/>
+      <c r="C81" s="175"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="43"/>
-      <c r="B82" s="176"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="176"/>
-      <c r="E82" s="176"/>
+      <c r="B82" s="175"/>
+      <c r="C82" s="175"/>
+      <c r="D82" s="175"/>
+      <c r="E82" s="175"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="43"/>
-      <c r="B83" s="176"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
+      <c r="B83" s="175"/>
+      <c r="C83" s="175"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="43"/>
-      <c r="B84" s="176"/>
-      <c r="C84" s="176"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="176"/>
+      <c r="B84" s="175"/>
+      <c r="C84" s="175"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="43"/>
-      <c r="B85" s="176"/>
-      <c r="C85" s="176"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="176"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="43"/>
-      <c r="B86" s="176"/>
-      <c r="C86" s="176"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="176"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6176,8 +6186,8 @@
   </sheetPr>
   <dimension ref="A3:Y48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L34"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -6199,90 +6209,90 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="177" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180" t="s">
+      <c r="C6" s="178"/>
+      <c r="D6" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="177" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="181"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180" t="s">
+      <c r="C8" s="178"/>
+      <c r="D8" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="181"/>
-      <c r="F8" s="182"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="2:25" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B9" s="178" t="s">
+    <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B9" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="108">
+      <c r="C9" s="178"/>
+      <c r="D9" s="107">
         <v>42157</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="125">
         <v>42179</v>
       </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="180" t="s">
+      <c r="C10" s="178"/>
+      <c r="D10" s="179" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="182"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6292,7 +6302,7 @@
       <c r="E11" s="22"/>
       <c r="Y11" s="23"/>
     </row>
-    <row r="12" spans="2:25" ht="39" thickBot="1">
+    <row r="12" spans="2:25" ht="51.75" thickBot="1">
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
@@ -6337,1079 +6347,1079 @@
       <c r="B13" s="37">
         <v>1</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="143" t="s">
+      <c r="E13" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="103">
         <v>42144</v>
       </c>
-      <c r="I13" s="104">
+      <c r="I13" s="103">
         <v>42144</v>
       </c>
-      <c r="J13" s="128">
+      <c r="J13" s="127">
         <v>1</v>
       </c>
-      <c r="K13" s="104">
+      <c r="K13" s="103">
         <v>42145</v>
       </c>
-      <c r="L13" s="104">
+      <c r="L13" s="103">
         <v>42145</v>
       </c>
-      <c r="M13" s="128">
+      <c r="M13" s="127">
         <v>3</v>
       </c>
-      <c r="N13" s="105"/>
+      <c r="N13" s="104"/>
     </row>
     <row r="14" spans="2:25" ht="36">
       <c r="B14" s="37">
         <v>2</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="103">
         <v>42180</v>
       </c>
-      <c r="I14" s="104">
+      <c r="I14" s="103">
         <v>42180</v>
       </c>
-      <c r="J14" s="128">
+      <c r="J14" s="127">
         <v>2</v>
       </c>
-      <c r="K14" s="104">
+      <c r="K14" s="103">
         <v>42180</v>
       </c>
-      <c r="L14" s="104">
+      <c r="L14" s="103">
         <v>42180</v>
       </c>
-      <c r="M14" s="128">
+      <c r="M14" s="127">
         <v>4</v>
       </c>
-      <c r="N14" s="105"/>
+      <c r="N14" s="104"/>
     </row>
     <row r="15" spans="2:25" ht="24">
       <c r="B15" s="37">
         <v>3</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="103">
         <v>42131</v>
       </c>
-      <c r="I15" s="104">
+      <c r="I15" s="103">
         <v>42131</v>
       </c>
-      <c r="J15" s="128">
+      <c r="J15" s="127">
         <v>3</v>
       </c>
-      <c r="K15" s="104">
+      <c r="K15" s="103">
         <v>42134</v>
       </c>
-      <c r="L15" s="104">
+      <c r="L15" s="103">
         <v>42134</v>
       </c>
-      <c r="M15" s="128">
+      <c r="M15" s="127">
         <v>3</v>
       </c>
-      <c r="N15" s="105"/>
+      <c r="N15" s="104"/>
     </row>
     <row r="16" spans="2:25" ht="24">
       <c r="B16" s="37">
         <v>4</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F16" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="104">
+      <c r="H16" s="103">
         <v>42152</v>
       </c>
-      <c r="I16" s="104">
+      <c r="I16" s="103">
         <v>42152</v>
       </c>
-      <c r="J16" s="128">
+      <c r="J16" s="127">
         <v>2</v>
       </c>
-      <c r="K16" s="104">
+      <c r="K16" s="103">
         <v>42153</v>
       </c>
-      <c r="L16" s="104">
+      <c r="L16" s="103">
         <v>42153</v>
       </c>
-      <c r="M16" s="128">
+      <c r="M16" s="127">
         <v>2</v>
       </c>
-      <c r="N16" s="105"/>
+      <c r="N16" s="104"/>
     </row>
     <row r="17" spans="2:14" ht="24">
       <c r="B17" s="37">
         <v>5</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="103" t="s">
+      <c r="F17" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="103">
         <v>42152</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="103">
         <v>42152</v>
       </c>
-      <c r="J17" s="128">
+      <c r="J17" s="127">
         <v>3</v>
       </c>
-      <c r="K17" s="104">
+      <c r="K17" s="103">
         <v>42153</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="103">
         <v>42153</v>
       </c>
-      <c r="M17" s="128">
+      <c r="M17" s="127">
         <v>3</v>
       </c>
-      <c r="N17" s="105"/>
+      <c r="N17" s="104"/>
     </row>
     <row r="18" spans="2:14" ht="24">
       <c r="B18" s="37">
         <v>6</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="103" t="s">
+      <c r="F18" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H18" s="104">
+      <c r="H18" s="103">
         <v>42173</v>
       </c>
-      <c r="I18" s="104">
+      <c r="I18" s="103">
         <v>42173</v>
       </c>
-      <c r="J18" s="128">
+      <c r="J18" s="127">
         <v>2</v>
       </c>
-      <c r="K18" s="104">
+      <c r="K18" s="103">
         <v>42174</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="103">
         <v>42174</v>
       </c>
-      <c r="M18" s="128">
+      <c r="M18" s="127">
         <v>3</v>
       </c>
-      <c r="N18" s="105"/>
+      <c r="N18" s="104"/>
     </row>
     <row r="19" spans="2:14" ht="24">
       <c r="B19" s="37">
         <v>7</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="104">
+      <c r="H19" s="103">
         <v>42152</v>
       </c>
-      <c r="I19" s="104">
+      <c r="I19" s="103">
         <v>42152</v>
       </c>
-      <c r="J19" s="128">
+      <c r="J19" s="127">
         <v>2</v>
       </c>
-      <c r="K19" s="104">
+      <c r="K19" s="103">
         <v>42180</v>
       </c>
-      <c r="L19" s="104">
+      <c r="L19" s="103">
         <v>42180</v>
       </c>
-      <c r="M19" s="128">
+      <c r="M19" s="127">
         <v>3</v>
       </c>
-      <c r="N19" s="105"/>
+      <c r="N19" s="104"/>
     </row>
     <row r="20" spans="2:14" ht="24">
       <c r="B20" s="37">
         <v>8</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="104">
+      <c r="H20" s="103">
         <v>42159</v>
       </c>
-      <c r="I20" s="104">
+      <c r="I20" s="103">
         <v>42159</v>
       </c>
-      <c r="J20" s="128">
+      <c r="J20" s="127">
         <v>2</v>
       </c>
-      <c r="K20" s="104">
+      <c r="K20" s="103">
         <v>42159</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="103">
         <v>42159</v>
       </c>
-      <c r="M20" s="128">
+      <c r="M20" s="127">
         <v>2</v>
       </c>
-      <c r="N20" s="105"/>
+      <c r="N20" s="104"/>
     </row>
     <row r="21" spans="2:14" ht="24">
       <c r="B21" s="37">
         <v>9</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="103" t="s">
+      <c r="E21" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="G21" s="103" t="s">
+      <c r="G21" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="104">
+      <c r="H21" s="103">
         <v>42199</v>
       </c>
-      <c r="I21" s="104">
+      <c r="I21" s="103">
         <v>42199</v>
       </c>
-      <c r="J21" s="128">
+      <c r="J21" s="127">
         <v>2</v>
       </c>
-      <c r="K21" s="104">
+      <c r="K21" s="103">
         <v>42199</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="103">
         <v>42199</v>
       </c>
-      <c r="M21" s="128">
+      <c r="M21" s="127">
         <v>2</v>
       </c>
-      <c r="N21" s="105"/>
+      <c r="N21" s="104"/>
     </row>
     <row r="22" spans="2:14" ht="24">
       <c r="B22" s="37">
         <v>10</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="104">
+      <c r="H22" s="103">
         <v>42166</v>
       </c>
-      <c r="I22" s="104">
+      <c r="I22" s="103">
         <v>42166</v>
       </c>
-      <c r="J22" s="128">
+      <c r="J22" s="127">
         <v>2</v>
       </c>
-      <c r="K22" s="104">
+      <c r="K22" s="103">
         <v>42167</v>
       </c>
-      <c r="L22" s="104">
+      <c r="L22" s="103">
         <v>42167</v>
       </c>
-      <c r="M22" s="128">
+      <c r="M22" s="127">
         <v>3</v>
       </c>
-      <c r="N22" s="105"/>
+      <c r="N22" s="104"/>
     </row>
     <row r="23" spans="2:14" ht="24">
       <c r="B23" s="37">
         <v>11</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="103" t="s">
+      <c r="E23" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="103" t="s">
+      <c r="F23" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="103" t="s">
+      <c r="G23" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="103">
         <v>42166</v>
       </c>
-      <c r="I23" s="104">
+      <c r="I23" s="103">
         <v>42166</v>
       </c>
-      <c r="J23" s="128">
+      <c r="J23" s="127">
         <v>3</v>
       </c>
-      <c r="K23" s="104">
+      <c r="K23" s="103">
         <v>42167</v>
       </c>
-      <c r="L23" s="104">
+      <c r="L23" s="103">
         <v>42167</v>
       </c>
-      <c r="M23" s="128">
+      <c r="M23" s="127">
         <v>3</v>
       </c>
-      <c r="N23" s="105"/>
+      <c r="N23" s="104"/>
     </row>
     <row r="24" spans="2:14" ht="24">
       <c r="B24" s="37">
         <v>12</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="102" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G24" s="103" t="s">
+      <c r="G24" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="104">
+      <c r="H24" s="103">
         <v>42171</v>
       </c>
-      <c r="I24" s="104">
+      <c r="I24" s="103">
         <v>42171</v>
       </c>
-      <c r="J24" s="128">
+      <c r="J24" s="127">
         <v>2</v>
       </c>
-      <c r="K24" s="104">
+      <c r="K24" s="103">
         <v>42172</v>
       </c>
-      <c r="L24" s="104">
+      <c r="L24" s="103">
         <v>42172</v>
       </c>
-      <c r="M24" s="128">
+      <c r="M24" s="127">
         <v>2</v>
       </c>
-      <c r="N24" s="105"/>
+      <c r="N24" s="104"/>
     </row>
     <row r="25" spans="2:14" ht="24">
       <c r="B25" s="37">
         <v>13</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="103" t="s">
+      <c r="E25" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="104">
+      <c r="H25" s="103">
         <v>42179</v>
       </c>
-      <c r="I25" s="104">
+      <c r="I25" s="103">
         <v>42179</v>
       </c>
-      <c r="J25" s="128">
+      <c r="J25" s="127">
         <v>2</v>
       </c>
-      <c r="K25" s="104">
+      <c r="K25" s="103">
         <v>42180</v>
       </c>
-      <c r="L25" s="104">
+      <c r="L25" s="103">
         <v>42180</v>
       </c>
-      <c r="M25" s="128">
+      <c r="M25" s="127">
         <v>3</v>
       </c>
-      <c r="N25" s="105"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="2:14" ht="24">
       <c r="B26" s="37">
         <v>14</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="103" t="s">
+      <c r="E26" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="103">
         <v>42173</v>
       </c>
-      <c r="I26" s="104">
+      <c r="I26" s="103">
         <v>42173</v>
       </c>
-      <c r="J26" s="128">
+      <c r="J26" s="127">
         <v>2</v>
       </c>
-      <c r="K26" s="104">
+      <c r="K26" s="103">
         <v>42174</v>
       </c>
-      <c r="L26" s="104">
+      <c r="L26" s="103">
         <v>42174</v>
       </c>
-      <c r="M26" s="128">
+      <c r="M26" s="127">
         <v>4</v>
       </c>
-      <c r="N26" s="105"/>
+      <c r="N26" s="104"/>
     </row>
     <row r="27" spans="2:14" ht="24">
       <c r="B27" s="37">
         <v>15</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="104">
+      <c r="H27" s="103">
         <v>42178</v>
       </c>
-      <c r="I27" s="104">
+      <c r="I27" s="103">
         <v>42178</v>
       </c>
-      <c r="J27" s="128">
+      <c r="J27" s="127">
         <v>2</v>
       </c>
-      <c r="K27" s="104">
+      <c r="K27" s="103">
         <v>42179</v>
       </c>
-      <c r="L27" s="104">
+      <c r="L27" s="103">
         <v>42179</v>
       </c>
-      <c r="M27" s="128">
+      <c r="M27" s="127">
         <v>2</v>
       </c>
-      <c r="N27" s="105"/>
+      <c r="N27" s="104"/>
     </row>
     <row r="28" spans="2:14" ht="24">
       <c r="B28" s="37">
         <v>16</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="103" t="s">
+      <c r="F28" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="104">
+      <c r="H28" s="103">
         <v>42179</v>
       </c>
-      <c r="I28" s="104">
+      <c r="I28" s="103">
         <v>42179</v>
       </c>
-      <c r="J28" s="128">
+      <c r="J28" s="127">
         <v>3</v>
       </c>
-      <c r="K28" s="104">
+      <c r="K28" s="103">
         <v>42180</v>
       </c>
-      <c r="L28" s="104">
+      <c r="L28" s="103">
         <v>42180</v>
       </c>
-      <c r="M28" s="128">
+      <c r="M28" s="127">
         <v>3</v>
       </c>
-      <c r="N28" s="105"/>
+      <c r="N28" s="104"/>
     </row>
     <row r="29" spans="2:14" ht="24">
       <c r="B29" s="37">
         <v>17</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="103" t="s">
+      <c r="E29" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="103">
         <v>42173</v>
       </c>
-      <c r="I29" s="104">
+      <c r="I29" s="103">
         <v>42173</v>
       </c>
-      <c r="J29" s="128">
+      <c r="J29" s="127">
         <v>2</v>
       </c>
-      <c r="K29" s="104">
+      <c r="K29" s="103">
         <v>42174</v>
       </c>
-      <c r="L29" s="104">
+      <c r="L29" s="103">
         <v>42174</v>
       </c>
-      <c r="M29" s="128">
+      <c r="M29" s="127">
         <v>2</v>
       </c>
-      <c r="N29" s="105"/>
+      <c r="N29" s="104"/>
     </row>
     <row r="30" spans="2:14" ht="24">
       <c r="B30" s="37">
         <v>18</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="103" t="s">
+      <c r="E30" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G30" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="104">
+      <c r="H30" s="103">
         <v>42173</v>
       </c>
-      <c r="I30" s="104">
+      <c r="I30" s="103">
         <v>42173</v>
       </c>
-      <c r="J30" s="128">
+      <c r="J30" s="127">
         <v>3</v>
       </c>
-      <c r="K30" s="104">
+      <c r="K30" s="103">
         <v>42174</v>
       </c>
-      <c r="L30" s="104">
+      <c r="L30" s="103">
         <v>42174</v>
       </c>
-      <c r="M30" s="128">
+      <c r="M30" s="127">
         <v>3</v>
       </c>
-      <c r="N30" s="105"/>
+      <c r="N30" s="104"/>
     </row>
     <row r="31" spans="2:14" ht="24">
       <c r="B31" s="37">
         <v>19</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="103" t="s">
+      <c r="E31" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="F31" s="103" t="s">
+      <c r="F31" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="103">
         <v>42199</v>
       </c>
-      <c r="I31" s="104">
+      <c r="I31" s="103">
         <v>42199</v>
       </c>
-      <c r="J31" s="128">
+      <c r="J31" s="127">
         <v>2</v>
       </c>
-      <c r="K31" s="104">
+      <c r="K31" s="103">
         <v>42200</v>
       </c>
-      <c r="L31" s="104">
+      <c r="L31" s="103">
         <v>42200</v>
       </c>
-      <c r="M31" s="128">
+      <c r="M31" s="127">
         <v>2</v>
       </c>
-      <c r="N31" s="105"/>
+      <c r="N31" s="104"/>
     </row>
     <row r="32" spans="2:14" ht="24">
       <c r="B32" s="37">
         <v>20</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="103" t="s">
+      <c r="F32" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="104">
+      <c r="H32" s="103">
         <v>42199</v>
       </c>
-      <c r="I32" s="104">
+      <c r="I32" s="103">
         <v>42199</v>
       </c>
-      <c r="J32" s="128">
+      <c r="J32" s="127">
         <v>2</v>
       </c>
-      <c r="K32" s="104">
+      <c r="K32" s="103">
         <v>42200</v>
       </c>
-      <c r="L32" s="104">
+      <c r="L32" s="103">
         <v>42200</v>
       </c>
-      <c r="M32" s="128">
+      <c r="M32" s="127">
         <v>3</v>
       </c>
-      <c r="N32" s="105"/>
+      <c r="N32" s="104"/>
     </row>
     <row r="33" spans="1:14" ht="24">
       <c r="B33" s="37">
         <v>21</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H33" s="104">
+      <c r="H33" s="103">
         <v>42136</v>
       </c>
-      <c r="I33" s="104">
+      <c r="I33" s="103">
         <v>42136</v>
       </c>
-      <c r="J33" s="128">
+      <c r="J33" s="127">
         <v>2</v>
       </c>
-      <c r="K33" s="104">
+      <c r="K33" s="103">
         <v>42137</v>
       </c>
-      <c r="L33" s="104">
+      <c r="L33" s="103">
         <v>42137</v>
       </c>
-      <c r="M33" s="128">
+      <c r="M33" s="127">
         <v>2</v>
       </c>
-      <c r="N33" s="105"/>
+      <c r="N33" s="104"/>
     </row>
     <row r="34" spans="1:14" ht="24">
       <c r="A34" s="10"/>
       <c r="B34" s="37">
         <v>22</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="F34" s="103" t="s">
+      <c r="F34" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="104">
+      <c r="H34" s="103">
         <v>42173</v>
       </c>
-      <c r="I34" s="104">
+      <c r="I34" s="103">
         <v>42173</v>
       </c>
-      <c r="J34" s="128">
+      <c r="J34" s="127">
         <v>3</v>
       </c>
-      <c r="K34" s="104">
+      <c r="K34" s="103">
         <v>42174</v>
       </c>
-      <c r="L34" s="104">
+      <c r="L34" s="103">
         <v>42174</v>
       </c>
-      <c r="M34" s="128">
+      <c r="M34" s="127">
         <v>3</v>
       </c>
-      <c r="N34" s="105"/>
+      <c r="N34" s="104"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="10"/>
       <c r="B35" s="37">
         <v>34</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
     </row>
     <row r="36" spans="1:14">
       <c r="B36" s="37">
         <v>22</v>
       </c>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="37">
         <v>23</v>
       </c>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
     </row>
     <row r="38" spans="1:14">
       <c r="B38" s="37">
         <v>24</v>
       </c>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
     </row>
     <row r="39" spans="1:14">
       <c r="B39" s="37">
         <v>25</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="37">
         <v>26</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
     </row>
     <row r="41" spans="1:14">
       <c r="B41" s="37">
         <v>27</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="104"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
     </row>
     <row r="42" spans="1:14">
       <c r="B42" s="37">
         <v>28</v>
       </c>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1">
       <c r="B43" s="37">
         <v>29</v>
       </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="127"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="10"/>
       <c r="B44" s="37">
         <v>30</v>
       </c>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10"/>
       <c r="B45" s="37">
         <v>31</v>
       </c>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="10"/>
       <c r="B46" s="37">
         <v>32</v>
       </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="104"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="104"/>
-      <c r="L46" s="104"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1">
       <c r="B47" s="8"/>
-      <c r="J47" s="106">
+      <c r="J47" s="105">
         <f>SUM(J13:J46)</f>
         <v>49</v>
       </c>
-      <c r="L47" s="107" t="s">
+      <c r="L47" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="106">
+      <c r="M47" s="105">
         <f>SUM(M13:M46)</f>
         <v>60</v>
       </c>
@@ -7463,11 +7473,11 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7489,22 +7499,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="187"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="30"/>
@@ -7534,10 +7544,10 @@
       <c r="B4" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="90" t="s">
         <v>160</v>
       </c>
       <c r="E4" s="27" t="s">
@@ -7549,7 +7559,7 @@
       <c r="G4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="90" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -7575,967 +7585,961 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.25" thickBot="1">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <v>1</v>
       </c>
-      <c r="C5" s="112" t="str">
+      <c r="C5" s="111" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="112" t="str">
+      <c r="F5" s="111" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G5" s="114" t="s">
+      <c r="G5" s="113" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="113" t="s">
+      <c r="H5" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="145" t="s">
+      <c r="J5" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="104">
+      <c r="K5" s="114"/>
+      <c r="L5" s="103">
         <v>42144</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="103">
         <v>42145</v>
       </c>
-      <c r="N5" s="116">
+      <c r="N5" s="115">
         <f>IF(M5&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="132"/>
+      <c r="O5" s="131"/>
     </row>
     <row r="6" spans="1:15" ht="36">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <v>2</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="110">
         <v>2</v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="111" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="112" t="str">
+      <c r="F6" s="111" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G6" s="114" t="s">
+      <c r="G6" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="145" t="s">
+      <c r="J6" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="104">
+      <c r="K6" s="114"/>
+      <c r="L6" s="103">
         <v>42180</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="103">
         <v>42180</v>
       </c>
-      <c r="N6" s="116">
+      <c r="N6" s="115">
         <f t="shared" ref="N6:N15" si="0">IF(M6&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="132"/>
+      <c r="O6" s="131"/>
     </row>
     <row r="7" spans="1:15" ht="12">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <v>3</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <v>3</v>
       </c>
-      <c r="C7" s="112" t="str">
+      <c r="C7" s="111" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="144" t="s">
+      <c r="E7" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="112" t="str">
+      <c r="F7" s="111" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G7" s="114" t="s">
+      <c r="G7" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="145" t="s">
+      <c r="J7" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="104">
+      <c r="K7" s="114"/>
+      <c r="L7" s="103">
         <v>42131</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="103">
         <v>42134</v>
       </c>
-      <c r="N7" s="116">
+      <c r="N7" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O7" s="132"/>
+      <c r="O7" s="131"/>
     </row>
     <row r="8" spans="1:15" ht="12">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <v>4</v>
       </c>
-      <c r="B8" s="111">
+      <c r="B8" s="110">
         <v>4</v>
       </c>
-      <c r="C8" s="112" t="str">
+      <c r="C8" s="111" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="112" t="str">
+      <c r="F8" s="111" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113" t="s">
+      <c r="G8" s="113"/>
+      <c r="H8" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="145" t="s">
+      <c r="J8" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="104">
+      <c r="K8" s="114"/>
+      <c r="L8" s="103">
         <v>42152</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="103">
         <v>42153</v>
       </c>
-      <c r="N8" s="116">
+      <c r="N8" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O8" s="132"/>
+      <c r="O8" s="131"/>
     </row>
     <row r="9" spans="1:15" ht="24">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <v>5</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="110">
         <v>5</v>
       </c>
-      <c r="C9" s="112" t="str">
+      <c r="C9" s="111" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="144" t="s">
+      <c r="E9" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="112" t="str">
+      <c r="F9" s="111" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="113" t="s">
+      <c r="G9" s="113"/>
+      <c r="H9" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="145" t="s">
+      <c r="J9" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="104">
+      <c r="K9" s="114"/>
+      <c r="L9" s="103">
         <v>42152</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="103">
         <v>42153</v>
       </c>
-      <c r="N9" s="116">
+      <c r="N9" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O9" s="132"/>
+      <c r="O9" s="131"/>
     </row>
     <row r="10" spans="1:15" ht="24">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <v>6</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="110">
         <v>6</v>
       </c>
-      <c r="C10" s="112" t="str">
+      <c r="C10" s="111" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="143" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="112" t="str">
-        <f>VLOOKUP(B10,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="113" t="s">
+      <c r="F10" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="113"/>
+      <c r="H10" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K10" s="115"/>
-      <c r="L10" s="104">
+      <c r="K10" s="114"/>
+      <c r="L10" s="103">
         <v>42173</v>
       </c>
-      <c r="M10" s="104">
+      <c r="M10" s="103">
         <v>42174</v>
       </c>
-      <c r="N10" s="116">
+      <c r="N10" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O10" s="132"/>
+      <c r="O10" s="131"/>
     </row>
     <row r="11" spans="1:15" ht="24">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <v>7</v>
       </c>
-      <c r="B11" s="111">
+      <c r="B11" s="110">
         <v>7</v>
       </c>
-      <c r="C11" s="112" t="str">
+      <c r="C11" s="111" t="str">
         <f>VLOOKUP(B11,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="F11" s="112" t="str">
-        <f>VLOOKUP(B11,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="113" t="s">
+      <c r="F11" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="113"/>
+      <c r="H11" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="145" t="s">
+      <c r="J11" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="104">
+      <c r="K11" s="114"/>
+      <c r="L11" s="103">
         <v>42152</v>
       </c>
-      <c r="M11" s="104">
+      <c r="M11" s="103">
         <v>42180</v>
       </c>
-      <c r="N11" s="116">
+      <c r="N11" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O11" s="132"/>
+      <c r="O11" s="131"/>
     </row>
     <row r="12" spans="1:15" ht="24">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <v>8</v>
       </c>
-      <c r="B12" s="111">
+      <c r="B12" s="110">
         <v>8</v>
       </c>
-      <c r="C12" s="112" t="str">
+      <c r="C12" s="111" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="112" t="str">
+      <c r="F12" s="111" t="str">
         <f>VLOOKUP(B12,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G12" s="114"/>
-      <c r="H12" s="113" t="s">
+      <c r="G12" s="113"/>
+      <c r="H12" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="145" t="s">
+      <c r="J12" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K12" s="115"/>
-      <c r="L12" s="104">
+      <c r="K12" s="114"/>
+      <c r="L12" s="103">
         <v>42159</v>
       </c>
-      <c r="M12" s="104">
+      <c r="M12" s="103">
         <v>42159</v>
       </c>
-      <c r="N12" s="116">
+      <c r="N12" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O12" s="132"/>
+      <c r="O12" s="131"/>
     </row>
     <row r="13" spans="1:15" ht="12">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <v>9</v>
       </c>
-      <c r="B13" s="111">
+      <c r="B13" s="110">
         <v>9</v>
       </c>
-      <c r="C13" s="112" t="str">
+      <c r="C13" s="111" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="102" t="s">
         <v>188</v>
       </c>
-      <c r="E13" s="144" t="s">
+      <c r="E13" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="112" t="str">
+      <c r="F13" s="111" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="113" t="s">
+      <c r="G13" s="113"/>
+      <c r="H13" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="145" t="s">
+      <c r="J13" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="104">
+      <c r="K13" s="114"/>
+      <c r="L13" s="103">
         <v>42199</v>
       </c>
-      <c r="M13" s="104">
+      <c r="M13" s="103">
         <v>42199</v>
       </c>
-      <c r="N13" s="116">
+      <c r="N13" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="131"/>
     </row>
     <row r="14" spans="1:15" ht="36">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <v>10</v>
       </c>
-      <c r="B14" s="111">
+      <c r="B14" s="110">
         <v>10</v>
       </c>
-      <c r="C14" s="112" t="str">
+      <c r="C14" s="111" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="112" t="str">
+      <c r="F14" s="111" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="113" t="s">
+      <c r="G14" s="113"/>
+      <c r="H14" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="145" t="s">
+      <c r="J14" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="104">
+      <c r="K14" s="114"/>
+      <c r="L14" s="103">
         <v>42166</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="103">
         <v>42167</v>
       </c>
-      <c r="N14" s="116">
+      <c r="N14" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O14" s="132"/>
+      <c r="O14" s="131"/>
     </row>
     <row r="15" spans="1:15" ht="24">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <v>11</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="110">
         <v>11</v>
       </c>
-      <c r="C15" s="112" t="str">
+      <c r="C15" s="111" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="112" t="str">
+      <c r="F15" s="111" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="113" t="s">
+      <c r="G15" s="113"/>
+      <c r="H15" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J15" s="145" t="s">
+      <c r="J15" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="104">
+      <c r="K15" s="114"/>
+      <c r="L15" s="103">
         <v>42166</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="103">
         <v>42167</v>
       </c>
-      <c r="N15" s="116">
+      <c r="N15" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O15" s="132"/>
+      <c r="O15" s="131"/>
     </row>
     <row r="16" spans="1:15" ht="24">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <v>12</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="110">
         <v>12</v>
       </c>
-      <c r="C16" s="112" t="str">
+      <c r="C16" s="111" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="112" t="str">
+      <c r="F16" s="111" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G16" s="114"/>
-      <c r="H16" s="113" t="s">
+      <c r="G16" s="113"/>
+      <c r="H16" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="145" t="s">
+      <c r="J16" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="104">
+      <c r="L16" s="103">
         <v>42171</v>
       </c>
-      <c r="M16" s="104">
+      <c r="M16" s="103">
         <v>42172</v>
       </c>
-      <c r="N16" s="116">
+      <c r="N16" s="115">
         <f t="shared" ref="N16:N26" si="1">IF(M16&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="132"/>
+      <c r="O16" s="131"/>
     </row>
     <row r="17" spans="1:15" ht="36">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <v>13</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="110">
         <v>13</v>
       </c>
-      <c r="C17" s="112" t="str">
+      <c r="C17" s="111" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D17" s="103" t="s">
+      <c r="D17" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="112" t="str">
+      <c r="F17" s="111" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="113" t="s">
+      <c r="G17" s="113"/>
+      <c r="H17" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J17" s="145" t="s">
+      <c r="J17" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="104">
+      <c r="L17" s="103">
         <v>42179</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="103">
         <v>42180</v>
       </c>
-      <c r="N17" s="116">
+      <c r="N17" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17" s="132"/>
+      <c r="O17" s="131"/>
     </row>
     <row r="18" spans="1:15" ht="36">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <v>14</v>
       </c>
-      <c r="B18" s="111">
+      <c r="B18" s="110">
         <v>14</v>
       </c>
-      <c r="C18" s="112" t="str">
+      <c r="C18" s="111" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="112" t="str">
+      <c r="F18" s="111" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="113" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="113" t="s">
+      <c r="I18" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="145" t="s">
+      <c r="J18" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L18" s="104">
+      <c r="L18" s="103">
         <v>42173</v>
       </c>
-      <c r="M18" s="104">
+      <c r="M18" s="103">
         <v>42174</v>
       </c>
-      <c r="N18" s="116">
+      <c r="N18" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O18" s="132"/>
+      <c r="O18" s="131"/>
     </row>
     <row r="19" spans="1:15" ht="36">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <v>15</v>
       </c>
-      <c r="B19" s="111">
+      <c r="B19" s="110">
         <v>15</v>
       </c>
-      <c r="C19" s="112" t="str">
+      <c r="C19" s="111" t="str">
         <f>VLOOKUP(B19,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="102" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="F19" s="112" t="str">
-        <f>VLOOKUP(B19,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="113" t="s">
+      <c r="F19" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="113"/>
+      <c r="H19" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="113" t="s">
+      <c r="I19" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J19" s="145" t="s">
+      <c r="J19" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="104">
+      <c r="L19" s="103">
         <v>42178</v>
       </c>
-      <c r="M19" s="104">
+      <c r="M19" s="103">
         <v>42179</v>
       </c>
-      <c r="N19" s="116">
+      <c r="N19" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O19" s="132"/>
+      <c r="O19" s="131"/>
     </row>
     <row r="20" spans="1:15" ht="24">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <v>16</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="110">
         <v>16</v>
       </c>
-      <c r="C20" s="112" t="str">
+      <c r="C20" s="111" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="144" t="s">
+      <c r="E20" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="112" t="str">
+      <c r="F20" s="111" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="113" t="s">
+      <c r="G20" s="113"/>
+      <c r="H20" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="113" t="s">
+      <c r="I20" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="145" t="s">
+      <c r="J20" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L20" s="104">
+      <c r="L20" s="103">
         <v>42179</v>
       </c>
-      <c r="M20" s="104">
+      <c r="M20" s="103">
         <v>42180</v>
       </c>
-      <c r="N20" s="116">
+      <c r="N20" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O20" s="132"/>
+      <c r="O20" s="131"/>
     </row>
     <row r="21" spans="1:15" ht="24">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <v>17</v>
       </c>
-      <c r="B21" s="111">
+      <c r="B21" s="110">
         <v>17</v>
       </c>
-      <c r="C21" s="112" t="str">
+      <c r="C21" s="111" t="str">
         <f>VLOOKUP(B21,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="144" t="s">
+      <c r="E21" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="112" t="str">
-        <f>VLOOKUP(B21,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="113" t="s">
+      <c r="F21" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="113"/>
+      <c r="H21" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="113" t="s">
+      <c r="I21" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="145" t="s">
+      <c r="J21" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L21" s="104">
+      <c r="L21" s="103">
         <v>42173</v>
       </c>
-      <c r="M21" s="104">
+      <c r="M21" s="103">
         <v>42174</v>
       </c>
-      <c r="N21" s="116">
+      <c r="N21" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O21" s="132"/>
+      <c r="O21" s="131"/>
     </row>
     <row r="22" spans="1:15" ht="36">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <v>18</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22" s="110">
         <v>18</v>
       </c>
-      <c r="C22" s="112" t="str">
+      <c r="C22" s="111" t="str">
         <f>VLOOKUP(B22,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="144" t="s">
+      <c r="E22" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="112" t="str">
-        <f>VLOOKUP(B22,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="G22" s="114"/>
-      <c r="H22" s="113" t="s">
+      <c r="F22" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="113"/>
+      <c r="H22" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="113" t="s">
+      <c r="I22" s="112" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="145" t="s">
+      <c r="J22" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L22" s="104">
+      <c r="L22" s="103">
         <v>42173</v>
       </c>
-      <c r="M22" s="104">
+      <c r="M22" s="103">
         <v>42174</v>
       </c>
-      <c r="N22" s="116">
+      <c r="N22" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O22" s="132"/>
+      <c r="O22" s="131"/>
     </row>
     <row r="23" spans="1:15" ht="24">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <v>19</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="110">
         <v>19</v>
       </c>
-      <c r="C23" s="112" t="str">
+      <c r="C23" s="111" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="144" t="s">
+      <c r="E23" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="112" t="str">
+      <c r="F23" s="111" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="113" t="s">
+      <c r="G23" s="113"/>
+      <c r="H23" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="113" t="s">
+      <c r="I23" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J23" s="145" t="s">
+      <c r="J23" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L23" s="104">
+      <c r="L23" s="103">
         <v>42199</v>
       </c>
-      <c r="M23" s="104">
+      <c r="M23" s="103">
         <v>42200</v>
       </c>
-      <c r="N23" s="116">
+      <c r="N23" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O23" s="132"/>
+      <c r="O23" s="131"/>
     </row>
     <row r="24" spans="1:15" ht="24">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <v>20</v>
       </c>
-      <c r="B24" s="111">
+      <c r="B24" s="110">
         <v>20</v>
       </c>
-      <c r="C24" s="112" t="str">
+      <c r="C24" s="111" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="102" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="144" t="s">
+      <c r="E24" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="112" t="str">
+      <c r="F24" s="111" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G24" s="114"/>
-      <c r="H24" s="113" t="s">
+      <c r="G24" s="113"/>
+      <c r="H24" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="113" t="s">
+      <c r="I24" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="145" t="s">
+      <c r="J24" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L24" s="104">
+      <c r="L24" s="103">
         <v>42199</v>
       </c>
-      <c r="M24" s="104">
+      <c r="M24" s="103">
         <v>42200</v>
       </c>
-      <c r="N24" s="116">
+      <c r="N24" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O24" s="132"/>
+      <c r="O24" s="131"/>
     </row>
     <row r="25" spans="1:15" ht="24">
-      <c r="A25" s="110">
+      <c r="A25" s="109">
         <v>21</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="110">
         <v>21</v>
       </c>
-      <c r="C25" s="112" t="str">
+      <c r="C25" s="111" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="144" t="s">
+      <c r="E25" s="143" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="112" t="str">
+      <c r="F25" s="111" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$G$93,6,FALSE)</f>
         <v>KL</v>
       </c>
-      <c r="G25" s="114"/>
-      <c r="H25" s="113" t="s">
+      <c r="G25" s="113"/>
+      <c r="H25" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="113" t="s">
+      <c r="I25" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="145" t="s">
+      <c r="J25" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L25" s="104">
+      <c r="L25" s="103">
         <v>42136</v>
       </c>
-      <c r="M25" s="104">
+      <c r="M25" s="103">
         <v>42137</v>
       </c>
-      <c r="N25" s="116">
+      <c r="N25" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O25" s="132"/>
+      <c r="O25" s="131"/>
     </row>
     <row r="26" spans="1:15" ht="36">
-      <c r="A26" s="110">
+      <c r="A26" s="109">
         <v>22</v>
       </c>
-      <c r="B26" s="111">
+      <c r="B26" s="110">
         <v>22</v>
       </c>
-      <c r="C26" s="112" t="str">
+      <c r="C26" s="111" t="str">
         <f>VLOOKUP(B26,Planificación!$B$13:$E$93,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="112" t="str">
-        <f>VLOOKUP(B26,Planificación!$B$13:$G$93,6,FALSE)</f>
-        <v>KL</v>
-      </c>
-      <c r="G26" s="114"/>
-      <c r="H26" s="113" t="s">
+      <c r="F26" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="113"/>
+      <c r="H26" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="113" t="s">
+      <c r="I26" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="145" t="s">
+      <c r="J26" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L26" s="104">
+      <c r="L26" s="103">
         <v>42173</v>
       </c>
-      <c r="M26" s="104">
+      <c r="M26" s="103">
         <v>42174</v>
       </c>
-      <c r="N26" s="116">
+      <c r="N26" s="115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O26" s="132"/>
+      <c r="O26" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8582,105 +8586,105 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="201" t="s">
+      <c r="C2" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="202" t="s">
+      <c r="C4" s="201" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="202"/>
-      <c r="E4" s="191" t="s">
+      <c r="D4" s="201"/>
+      <c r="E4" s="190" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="193"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="202" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="204"/>
-      <c r="E5" s="191" t="str">
+      <c r="D5" s="203"/>
+      <c r="E5" s="190" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Kevin Laureano</v>
       </c>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="190"/>
-      <c r="E6" s="191" t="str">
+      <c r="D6" s="189"/>
+      <c r="E6" s="190" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Manuel Saenz</v>
       </c>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="196">
+      <c r="D7" s="194"/>
+      <c r="E7" s="195">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42157</v>
       </c>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198" t="s">
+      <c r="F7" s="196"/>
+      <c r="G7" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="117">
+      <c r="H7" s="198"/>
+      <c r="I7" s="116">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42179</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="195" t="s">
+      <c r="C8" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="200"/>
-      <c r="E8" s="191" t="str">
+      <c r="D8" s="199"/>
+      <c r="E8" s="190" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v>Junio</v>
       </c>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="193"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="194" t="s">
+      <c r="C13" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="194"/>
+      <c r="D13" s="193"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -8689,46 +8693,46 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="118">
+      <c r="D14" s="117">
         <f>COUNTA(Planificación!C13:C46)</f>
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D15" s="117">
         <f>D14-D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="118">
+      <c r="D16" s="117">
         <f>COUNT(Planificación!L13:L46)</f>
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="119">
+      <c r="D17" s="118">
         <f>(D16/(IF(D14=0,1,D14)))</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="118">
         <f>1-D17</f>
         <v>0</v>
       </c>
@@ -8739,35 +8743,35 @@
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="134"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="26"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="134"/>
+      <c r="C21" s="133"/>
       <c r="D21" s="26"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="134"/>
+      <c r="C22" s="133"/>
       <c r="D22" s="26"/>
       <c r="E22" s="12"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="134"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="26"/>
       <c r="E23" s="12"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="134"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="26"/>
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="188" t="s">
+      <c r="C26" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="188"/>
+      <c r="D26" s="187"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -8778,97 +8782,97 @@
       </c>
     </row>
     <row r="28" spans="3:5">
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="121">
+      <c r="D28" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C28)</f>
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="3:5">
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="121">
+      <c r="D29" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:5">
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="121">
+      <c r="D30" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="121">
+      <c r="D31" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C31)</f>
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="121">
+      <c r="D32" s="120">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$150,C32)</f>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:4">
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="124">
+      <c r="D33" s="123">
         <f>SUM(D28:D32)</f>
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="15">
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="188"/>
+      <c r="D39" s="187"/>
     </row>
     <row r="40" spans="3:4">
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="121">
+      <c r="D40" s="120">
         <f>Planificación!J47</f>
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="121">
+      <c r="D41" s="120">
         <f>Planificación!M47</f>
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="123" t="s">
+      <c r="C42" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="121">
+      <c r="D42" s="120">
         <f>D40-D41</f>
         <v>-11</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="15">
-      <c r="C56" s="188" t="s">
+      <c r="C56" s="187" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="188"/>
+      <c r="D56" s="187"/>
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="34" t="s">
@@ -8879,37 +8883,37 @@
       </c>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="127" t="s">
+      <c r="C58" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="121">
+      <c r="D58" s="120">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C58)</f>
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="127" t="s">
+      <c r="C59" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="121">
+      <c r="D59" s="120">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C59)</f>
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="127" t="s">
+      <c r="C60" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="121">
+      <c r="D60" s="120">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$150,C60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="3:4">
-      <c r="C61" s="123" t="s">
+      <c r="C61" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="124">
+      <c r="D61" s="123">
         <f>SUM(D58:D60)</f>
         <v>22</v>
       </c>
@@ -8971,349 +8975,349 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="124" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="D3" s="127" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="D3" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="205" t="s">
+      <c r="J3" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="139" t="s">
+      <c r="K3" s="138" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="205" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="J4" s="205"/>
-      <c r="K4" s="139" t="s">
+      <c r="J4" s="204"/>
+      <c r="K4" s="138" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="207"/>
-      <c r="B5" s="142" t="s">
+      <c r="A5" s="206"/>
+      <c r="B5" s="141" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="126" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H5" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="205"/>
-      <c r="K5" s="139" t="s">
+      <c r="J5" s="204"/>
+      <c r="K5" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="207"/>
-      <c r="B6" s="142" t="s">
+      <c r="A6" s="206"/>
+      <c r="B6" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="139" t="s">
+      <c r="H6" s="126"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="138" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="207"/>
-      <c r="B7" s="142" t="s">
+      <c r="A7" s="206"/>
+      <c r="B7" s="141" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="127" t="s">
+      <c r="F7" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="J7" s="205" t="s">
+      <c r="H7" s="126"/>
+      <c r="J7" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="139" t="s">
+      <c r="K7" s="138" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="207"/>
-      <c r="B8" s="137"/>
-      <c r="F8" s="127" t="s">
+      <c r="A8" s="206"/>
+      <c r="B8" s="136"/>
+      <c r="F8" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="139" t="s">
+      <c r="H8" s="126"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="138" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="207"/>
-      <c r="B9" s="137"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="139" t="s">
+      <c r="A9" s="206"/>
+      <c r="B9" s="136"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="138" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="207"/>
-      <c r="B10" s="137"/>
-      <c r="F10" s="133"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="139" t="s">
+      <c r="A10" s="206"/>
+      <c r="B10" s="136"/>
+      <c r="F10" s="132"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="207"/>
-      <c r="B11" s="137"/>
-      <c r="F11" s="133"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="139" t="s">
+      <c r="A11" s="206"/>
+      <c r="B11" s="136"/>
+      <c r="F11" s="132"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="138" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="208"/>
-      <c r="B12" s="138"/>
-      <c r="F12" s="133"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="139" t="s">
+      <c r="A12" s="207"/>
+      <c r="B12" s="137"/>
+      <c r="F12" s="132"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="J13" s="205"/>
-      <c r="K13" s="139" t="s">
+      <c r="J13" s="204"/>
+      <c r="K13" s="138" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="J14" s="205" t="s">
+      <c r="J14" s="204" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="139" t="s">
+      <c r="K14" s="138" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="J15" s="205"/>
-      <c r="K15" s="139" t="s">
+      <c r="J15" s="204"/>
+      <c r="K15" s="138" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="J16" s="205"/>
-      <c r="K16" s="139" t="s">
+      <c r="J16" s="204"/>
+      <c r="K16" s="138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="10:11">
-      <c r="J17" s="205"/>
-      <c r="K17" s="139" t="s">
+      <c r="J17" s="204"/>
+      <c r="K17" s="138" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="10:11">
-      <c r="J18" s="205"/>
-      <c r="K18" s="139" t="s">
+      <c r="J18" s="204"/>
+      <c r="K18" s="138" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="10:11">
-      <c r="J19" s="205"/>
-      <c r="K19" s="139" t="s">
+      <c r="J19" s="204"/>
+      <c r="K19" s="138" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="10:11">
-      <c r="J20" s="205"/>
-      <c r="K20" s="139" t="s">
+      <c r="J20" s="204"/>
+      <c r="K20" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="10:11">
-      <c r="J21" s="205"/>
-      <c r="K21" s="139" t="s">
+      <c r="J21" s="204"/>
+      <c r="K21" s="138" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="10:11">
-      <c r="J22" s="205"/>
-      <c r="K22" s="139" t="s">
+      <c r="J22" s="204"/>
+      <c r="K22" s="138" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="10:11">
-      <c r="J23" s="205"/>
-      <c r="K23" s="139" t="s">
+      <c r="J23" s="204"/>
+      <c r="K23" s="138" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="10:11">
-      <c r="J24" s="205" t="s">
+      <c r="J24" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="139" t="s">
+      <c r="K24" s="138" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="10:11">
-      <c r="J25" s="205"/>
-      <c r="K25" s="139" t="s">
+      <c r="J25" s="204"/>
+      <c r="K25" s="138" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="10:11">
-      <c r="J26" s="205"/>
-      <c r="K26" s="139" t="s">
+      <c r="J26" s="204"/>
+      <c r="K26" s="138" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="10:11">
-      <c r="J27" s="205"/>
-      <c r="K27" s="139" t="s">
+      <c r="J27" s="204"/>
+      <c r="K27" s="138" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="10:11">
-      <c r="J28" s="205"/>
-      <c r="K28" s="139" t="s">
+      <c r="J28" s="204"/>
+      <c r="K28" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="29" spans="10:11">
-      <c r="J29" s="205"/>
-      <c r="K29" s="139" t="s">
+      <c r="J29" s="204"/>
+      <c r="K29" s="138" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="10:11">
-      <c r="J30" s="205"/>
-      <c r="K30" s="139" t="s">
+      <c r="J30" s="204"/>
+      <c r="K30" s="138" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" spans="10:11">
-      <c r="J31" s="205" t="s">
+      <c r="J31" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="K31" s="139" t="s">
+      <c r="K31" s="138" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="32" spans="10:11">
-      <c r="J32" s="205"/>
-      <c r="K32" s="139" t="s">
+      <c r="J32" s="204"/>
+      <c r="K32" s="138" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="10:11">
-      <c r="J33" s="205"/>
-      <c r="K33" s="139" t="s">
+      <c r="J33" s="204"/>
+      <c r="K33" s="138" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="10:11">
-      <c r="J34" s="205"/>
-      <c r="K34" s="139" t="s">
+      <c r="J34" s="204"/>
+      <c r="K34" s="138" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="10:11">
-      <c r="J35" s="205"/>
-      <c r="K35" s="139" t="s">
+      <c r="J35" s="204"/>
+      <c r="K35" s="138" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="205" t="s">
+      <c r="J36" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="K36" s="139" t="s">
+      <c r="K36" s="138" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="37" spans="10:11">
-      <c r="J37" s="205"/>
-      <c r="K37" s="139" t="s">
+      <c r="J37" s="204"/>
+      <c r="K37" s="138" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="205"/>
-      <c r="K38" s="139" t="s">
+      <c r="J38" s="204"/>
+      <c r="K38" s="138" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="39" spans="10:11">
-      <c r="J39" s="205"/>
-      <c r="K39" s="139" t="s">
+      <c r="J39" s="204"/>
+      <c r="K39" s="138" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="205"/>
-      <c r="K40" s="139" t="s">
+      <c r="J40" s="204"/>
+      <c r="K40" s="138" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="41" spans="10:11">
-      <c r="J41" s="205"/>
-      <c r="K41" s="139" t="s">
+      <c r="J41" s="204"/>
+      <c r="K41" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="205"/>
-      <c r="K42" s="139" t="s">
+      <c r="J42" s="204"/>
+      <c r="K42" s="138" t="s">
         <v>181</v>
       </c>
     </row>
